--- a/design/cardgame.xlsx
+++ b/design/cardgame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="基础规则" sheetId="1" r:id="rId1"/>
@@ -642,9 +642,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -655,68 +655,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -731,7 +672,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,10 +723,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -760,16 +745,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -778,9 +762,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -792,8 +776,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -808,7 +808,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,25 +940,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,97 +976,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,43 +988,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1002,11 +1002,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1022,21 +1043,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1059,17 +1065,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1085,17 +1080,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1107,10 +1107,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1119,133 +1119,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1606,14 +1606,14 @@
   <sheetPr/>
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="13.8796296296296" customWidth="1"/>
-    <col min="6" max="6" width="15.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="13.8833333333333" customWidth="1"/>
+    <col min="6" max="6" width="15.8916666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1893,16 +1893,16 @@
   <sheetPr/>
   <dimension ref="A2:E195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A120" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A120" workbookViewId="0">
       <selection activeCell="J138" sqref="J138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="6.62962962962963" customWidth="1"/>
-    <col min="4" max="4" width="6.87962962962963" customWidth="1"/>
-    <col min="5" max="5" width="9.12037037037037" customWidth="1"/>
-    <col min="6" max="6" width="9.7037037037037" customWidth="1"/>
+    <col min="3" max="3" width="6.63333333333333" customWidth="1"/>
+    <col min="4" max="4" width="6.88333333333333" customWidth="1"/>
+    <col min="5" max="5" width="9.11666666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
@@ -4326,7 +4326,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/design/cardgame.xlsx
+++ b/design/cardgame.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="207">
   <si>
     <t>规则</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>升下级所需经验</t>
+  </si>
+  <si>
+    <t>总计</t>
   </si>
   <si>
     <t>英雄有基本的攻防属性，防御可以减少对手每次造成的伤害，攻击可以增加给对手的每次伤害，升级有时会增加英雄的攻击或防御属性</t>
@@ -641,10 +644,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -655,11 +658,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -672,15 +713,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -695,35 +735,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -731,22 +750,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -761,15 +765,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -784,16 +780,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -808,7 +811,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,25 +907,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,91 +961,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,43 +991,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,6 +1002,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1017,32 +1035,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1091,11 +1088,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1107,10 +1110,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1119,133 +1122,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1315,6 +1318,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5697855" y="8743950"/>
+          <a:ext cx="3648075" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1604,10 +1654,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P55"/>
+  <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="W50" sqref="W50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1721,34 +1771,144 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="29" spans="20:22">
+      <c r="T29">
+        <f t="array" ref="T29:T38">TRANSPOSE(G39:P39)</f>
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <f t="array" ref="U29:U38">TRANSPOSE(G41:P41)</f>
+        <v>0</v>
+      </c>
+      <c r="V29" t="str">
+        <f>"("&amp;U29&amp;","&amp;T29&amp;"),"</f>
+        <v>(0,1),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="T30">
+        <v>2</v>
+      </c>
+      <c r="U30">
+        <v>2</v>
+      </c>
+      <c r="V30" t="str">
+        <f t="shared" ref="V30:V38" si="0">"("&amp;U30&amp;","&amp;T30&amp;"),"</f>
+        <v>(2,2),</v>
+      </c>
+    </row>
+    <row r="31" spans="20:22">
+      <c r="T31">
+        <v>3</v>
+      </c>
+      <c r="U31">
+        <v>5</v>
+      </c>
+      <c r="V31" t="str">
+        <f t="shared" si="0"/>
+        <v>(5,3),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="T32">
+        <v>4</v>
+      </c>
+      <c r="U32">
+        <v>9</v>
+      </c>
+      <c r="V32" t="str">
+        <f t="shared" si="0"/>
+        <v>(9,4),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="T33">
+        <v>5</v>
+      </c>
+      <c r="U33">
+        <v>15</v>
+      </c>
+      <c r="V33" t="str">
+        <f t="shared" si="0"/>
+        <v>(15,5),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="T34">
+        <v>6</v>
+      </c>
+      <c r="U34">
+        <v>24</v>
+      </c>
+      <c r="V34" t="str">
+        <f t="shared" si="0"/>
+        <v>(24,6),</v>
+      </c>
+    </row>
+    <row r="35" spans="20:22">
+      <c r="T35">
+        <v>7</v>
+      </c>
+      <c r="U35">
+        <v>36</v>
+      </c>
+      <c r="V35" t="str">
+        <f t="shared" si="0"/>
+        <v>(36,7),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="T36">
+        <v>8</v>
+      </c>
+      <c r="U36">
+        <v>52</v>
+      </c>
+      <c r="V36" t="str">
+        <f t="shared" si="0"/>
+        <v>(52,8),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" t="s">
         <v>28</v>
+      </c>
+      <c r="T37">
+        <v>9</v>
+      </c>
+      <c r="U37">
+        <v>72</v>
+      </c>
+      <c r="V37" t="str">
+        <f t="shared" si="0"/>
+        <v>(72,9),</v>
+      </c>
+    </row>
+    <row r="38" spans="20:22">
+      <c r="T38">
+        <v>10</v>
+      </c>
+      <c r="U38">
+        <v>97</v>
+      </c>
+      <c r="V38" t="str">
+        <f t="shared" si="0"/>
+        <v>(97,10),</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -1794,10 +1954,10 @@
         <v>31</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I40">
         <v>4</v>
@@ -1821,70 +1981,115 @@
         <v>25</v>
       </c>
     </row>
+    <row r="41" spans="6:16">
+      <c r="F41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f>G40+G41</f>
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <f t="shared" ref="I41:P41" si="1">H40+H41</f>
+        <v>5</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+    </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1893,8 +2098,8 @@
   <sheetPr/>
   <dimension ref="A2:E195"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="J138" sqref="J138"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1910,7 +2115,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:5">
@@ -1918,13 +2123,13 @@
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -1938,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -1952,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -1966,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -1980,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -1994,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -2008,7 +2213,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -2022,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -2036,7 +2241,7 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -2050,7 +2255,7 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -2064,7 +2269,7 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2073,7 +2278,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="2:5">
@@ -2081,13 +2286,13 @@
         <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -2101,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="2:5">
@@ -2115,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="2:5">
@@ -2129,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -2143,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="2:5">
@@ -2157,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -2171,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="2:5">
@@ -2185,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="2:5">
@@ -2199,7 +2404,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="2:5">
@@ -2213,7 +2418,7 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="2:5">
@@ -2227,7 +2432,7 @@
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2236,7 +2441,7 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -2244,10 +2449,10 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="2:5">
@@ -2261,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="2:5">
@@ -2275,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="2:5">
@@ -2289,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="2:5">
@@ -2303,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="2:5">
@@ -2317,7 +2522,7 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="2:5">
@@ -2331,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="2:5">
@@ -2345,7 +2550,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="2:5">
@@ -2359,7 +2564,7 @@
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="2:5">
@@ -2373,7 +2578,7 @@
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="2:5">
@@ -2387,7 +2592,7 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2396,7 +2601,7 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="2:4">
@@ -2404,10 +2609,10 @@
         <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="2:5">
@@ -2421,7 +2626,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="2:5">
@@ -2435,7 +2640,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="2:5">
@@ -2449,7 +2654,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="2:5">
@@ -2463,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="2:5">
@@ -2477,7 +2682,7 @@
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="2:5">
@@ -2491,7 +2696,7 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="2:5">
@@ -2505,7 +2710,7 @@
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="2:5">
@@ -2519,7 +2724,7 @@
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="2:5">
@@ -2533,7 +2738,7 @@
         <v>4</v>
       </c>
       <c r="E51" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="2:5">
@@ -2547,7 +2752,7 @@
         <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2556,7 +2761,7 @@
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="2:4">
@@ -2564,10 +2769,10 @@
         <v>30</v>
       </c>
       <c r="C55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="2:5">
@@ -2581,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="2:5">
@@ -2595,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="2:5">
@@ -2609,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="2:5">
@@ -2623,7 +2828,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="2:5">
@@ -2637,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="2:5">
@@ -2651,7 +2856,7 @@
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="2:5">
@@ -2665,7 +2870,7 @@
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="2:5">
@@ -2679,7 +2884,7 @@
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="2:5">
@@ -2693,7 +2898,7 @@
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="2:5">
@@ -2707,7 +2912,7 @@
         <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2716,7 +2921,7 @@
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="2:4">
@@ -2724,10 +2929,10 @@
         <v>30</v>
       </c>
       <c r="C68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="2:5">
@@ -2741,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="2:5">
@@ -2755,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="2:5">
@@ -2769,7 +2974,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="2:5">
@@ -2783,7 +2988,7 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="2:5">
@@ -2797,7 +3002,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="2:5">
@@ -2811,7 +3016,7 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="2:5">
@@ -2825,7 +3030,7 @@
         <v>2</v>
       </c>
       <c r="E75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="2:5">
@@ -2839,7 +3044,7 @@
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77" spans="2:5">
@@ -2853,7 +3058,7 @@
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="2:5">
@@ -2867,7 +3072,7 @@
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2876,7 +3081,7 @@
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81" spans="2:4">
@@ -2884,10 +3089,10 @@
         <v>30</v>
       </c>
       <c r="C81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82" spans="2:5">
@@ -2901,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83" spans="2:5">
@@ -2915,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84" spans="2:5">
@@ -2929,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="85" spans="2:5">
@@ -2943,7 +3148,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="86" spans="2:5">
@@ -2957,7 +3162,7 @@
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87" spans="2:5">
@@ -2971,7 +3176,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="88" spans="2:5">
@@ -2985,7 +3190,7 @@
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89" spans="2:5">
@@ -2999,7 +3204,7 @@
         <v>2</v>
       </c>
       <c r="E89" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90" spans="2:5">
@@ -3013,7 +3218,7 @@
         <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="91" spans="2:5">
@@ -3027,7 +3232,7 @@
         <v>2</v>
       </c>
       <c r="E91" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3036,7 +3241,7 @@
         <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="94" spans="2:4">
@@ -3044,10 +3249,10 @@
         <v>30</v>
       </c>
       <c r="C94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95" spans="2:5">
@@ -3061,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96" spans="2:5">
@@ -3075,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="97" spans="2:5">
@@ -3089,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="98" spans="2:5">
@@ -3103,7 +3308,7 @@
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99" spans="2:5">
@@ -3117,7 +3322,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="100" spans="2:5">
@@ -3131,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="101" spans="2:5">
@@ -3145,7 +3350,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="102" spans="2:5">
@@ -3159,7 +3364,7 @@
         <v>2</v>
       </c>
       <c r="E102" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103" spans="2:5">
@@ -3173,7 +3378,7 @@
         <v>2</v>
       </c>
       <c r="E103" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="104" spans="2:5">
@@ -3187,7 +3392,7 @@
         <v>2</v>
       </c>
       <c r="E104" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3196,7 +3401,7 @@
         <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="107" spans="2:4">
@@ -3204,10 +3409,10 @@
         <v>30</v>
       </c>
       <c r="C107" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="108" spans="2:5">
@@ -3221,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="109" spans="2:5">
@@ -3235,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="E109" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="110" spans="2:5">
@@ -3249,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="111" spans="2:5">
@@ -3263,7 +3468,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="112" spans="2:5">
@@ -3277,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="E112" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="113" spans="2:5">
@@ -3291,7 +3496,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="114" spans="2:5">
@@ -3305,7 +3510,7 @@
         <v>1</v>
       </c>
       <c r="E114" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="115" spans="2:5">
@@ -3319,7 +3524,7 @@
         <v>2</v>
       </c>
       <c r="E115" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="116" spans="2:5">
@@ -3333,7 +3538,7 @@
         <v>2</v>
       </c>
       <c r="E116" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="117" spans="2:5">
@@ -3347,7 +3552,7 @@
         <v>2</v>
       </c>
       <c r="E117" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3356,7 +3561,7 @@
         <v>10</v>
       </c>
       <c r="C119" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="120" spans="2:4">
@@ -3364,10 +3569,10 @@
         <v>30</v>
       </c>
       <c r="C120" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="121" spans="2:5">
@@ -3381,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="E121" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122" spans="2:5">
@@ -3395,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="E122" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123" spans="2:5">
@@ -3409,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="E123" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124" spans="2:5">
@@ -3423,7 +3628,7 @@
         <v>1</v>
       </c>
       <c r="E124" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="125" spans="2:5">
@@ -3437,7 +3642,7 @@
         <v>1</v>
       </c>
       <c r="E125" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="126" spans="2:5">
@@ -3451,7 +3656,7 @@
         <v>1</v>
       </c>
       <c r="E126" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="127" spans="2:5">
@@ -3465,7 +3670,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="128" spans="2:5">
@@ -3479,7 +3684,7 @@
         <v>2</v>
       </c>
       <c r="E128" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="129" spans="2:5">
@@ -3493,7 +3698,7 @@
         <v>2</v>
       </c>
       <c r="E129" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="130" spans="2:5">
@@ -3507,7 +3712,7 @@
         <v>2</v>
       </c>
       <c r="E130" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3516,7 +3721,7 @@
         <v>11</v>
       </c>
       <c r="C132" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="133" spans="2:4">
@@ -3524,10 +3729,10 @@
         <v>30</v>
       </c>
       <c r="C133" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D133" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="134" spans="2:5">
@@ -3541,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="E134" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="135" spans="2:5">
@@ -3555,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="E135" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="136" spans="2:5">
@@ -3569,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="E136" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="137" spans="2:5">
@@ -3583,7 +3788,7 @@
         <v>1</v>
       </c>
       <c r="E137" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="138" spans="2:5">
@@ -3597,7 +3802,7 @@
         <v>1</v>
       </c>
       <c r="E138" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="139" spans="2:5">
@@ -3611,7 +3816,7 @@
         <v>2</v>
       </c>
       <c r="E139" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="140" spans="2:5">
@@ -3625,7 +3830,7 @@
         <v>2</v>
       </c>
       <c r="E140" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="141" spans="2:5">
@@ -3639,7 +3844,7 @@
         <v>3</v>
       </c>
       <c r="E141" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="142" spans="2:5">
@@ -3653,7 +3858,7 @@
         <v>3</v>
       </c>
       <c r="E142" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="143" spans="2:5">
@@ -3667,7 +3872,7 @@
         <v>4</v>
       </c>
       <c r="E143" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3676,7 +3881,7 @@
         <v>12</v>
       </c>
       <c r="C145" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="146" spans="2:4">
@@ -3684,10 +3889,10 @@
         <v>30</v>
       </c>
       <c r="C146" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D146" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="147" spans="2:5">
@@ -3701,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E147" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="148" spans="2:5">
@@ -3715,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="E148" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="149" spans="2:5">
@@ -3729,7 +3934,7 @@
         <v>0</v>
       </c>
       <c r="E149" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="150" spans="2:5">
@@ -3743,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="E150" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="151" spans="2:5">
@@ -3757,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="E151" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="152" spans="2:5">
@@ -3771,7 +3976,7 @@
         <v>1</v>
       </c>
       <c r="E152" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="153" spans="2:5">
@@ -3785,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="E153" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="154" spans="2:5">
@@ -3799,7 +4004,7 @@
         <v>2</v>
       </c>
       <c r="E154" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="155" spans="2:5">
@@ -3813,7 +4018,7 @@
         <v>2</v>
       </c>
       <c r="E155" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="156" spans="2:5">
@@ -3827,7 +4032,7 @@
         <v>2</v>
       </c>
       <c r="E156" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3836,7 +4041,7 @@
         <v>13</v>
       </c>
       <c r="C158" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="159" spans="2:4">
@@ -3844,10 +4049,10 @@
         <v>30</v>
       </c>
       <c r="C159" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D159" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="160" spans="2:5">
@@ -3861,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="E160" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="161" spans="2:5">
@@ -3875,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="E161" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="162" spans="2:5">
@@ -3889,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="163" spans="2:5">
@@ -3903,7 +4108,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="164" spans="2:5">
@@ -3917,7 +4122,7 @@
         <v>1</v>
       </c>
       <c r="E164" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="165" spans="2:5">
@@ -3931,7 +4136,7 @@
         <v>1</v>
       </c>
       <c r="E165" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="166" spans="2:5">
@@ -3945,7 +4150,7 @@
         <v>1</v>
       </c>
       <c r="E166" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="167" spans="2:5">
@@ -3959,7 +4164,7 @@
         <v>2</v>
       </c>
       <c r="E167" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="168" spans="2:5">
@@ -3973,7 +4178,7 @@
         <v>2</v>
       </c>
       <c r="E168" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="169" spans="2:5">
@@ -3987,7 +4192,7 @@
         <v>2</v>
       </c>
       <c r="E169" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3996,7 +4201,7 @@
         <v>14</v>
       </c>
       <c r="C171" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="172" spans="2:4">
@@ -4004,10 +4209,10 @@
         <v>30</v>
       </c>
       <c r="C172" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D172" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="173" spans="2:5">
@@ -4021,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="E173" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="174" spans="2:5">
@@ -4035,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="E174" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="175" spans="2:5">
@@ -4049,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="E175" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="176" spans="2:5">
@@ -4063,7 +4268,7 @@
         <v>1</v>
       </c>
       <c r="E176" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="177" spans="2:5">
@@ -4077,7 +4282,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="178" spans="2:5">
@@ -4091,7 +4296,7 @@
         <v>1</v>
       </c>
       <c r="E178" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="179" spans="2:5">
@@ -4105,7 +4310,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="180" spans="2:5">
@@ -4119,7 +4324,7 @@
         <v>2</v>
       </c>
       <c r="E180" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="181" spans="2:5">
@@ -4133,7 +4338,7 @@
         <v>2</v>
       </c>
       <c r="E181" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="182" spans="2:5">
@@ -4147,7 +4352,7 @@
         <v>2</v>
       </c>
       <c r="E182" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -4156,7 +4361,7 @@
         <v>15</v>
       </c>
       <c r="C184" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="185" spans="2:4">
@@ -4164,10 +4369,10 @@
         <v>30</v>
       </c>
       <c r="C185" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D185" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="186" spans="2:5">
@@ -4181,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="E186" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="187" spans="2:5">
@@ -4195,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="E187" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="188" spans="2:5">
@@ -4209,7 +4414,7 @@
         <v>1</v>
       </c>
       <c r="E188" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="189" spans="2:5">
@@ -4223,7 +4428,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="190" spans="2:5">
@@ -4237,7 +4442,7 @@
         <v>1</v>
       </c>
       <c r="E190" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="191" spans="2:5">
@@ -4251,7 +4456,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="192" spans="2:5">
@@ -4265,7 +4470,7 @@
         <v>2</v>
       </c>
       <c r="E192" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="193" spans="2:5">
@@ -4279,7 +4484,7 @@
         <v>2</v>
       </c>
       <c r="E193" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="194" spans="2:5">
@@ -4293,7 +4498,7 @@
         <v>2</v>
       </c>
       <c r="E194" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="195" spans="2:5">
@@ -4307,7 +4512,7 @@
         <v>3</v>
       </c>
       <c r="E195" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/design/cardgame.xlsx
+++ b/design/cardgame.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="基础规则" sheetId="1" r:id="rId1"/>
-    <sheet name="英雄角色" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="角色" sheetId="2" r:id="rId2"/>
+    <sheet name="建议收集" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="209">
   <si>
     <t>规则</t>
   </si>
@@ -637,6 +637,12 @@
   </si>
   <si>
     <t>对方打出或弃掉此牌，对方受到80伤害，对手获得此牌时，点数为1，只能单牌打出，回合开始时，从牌堆。弃牌堆进入对方手牌</t>
+  </si>
+  <si>
+    <t>吴</t>
+  </si>
+  <si>
+    <t>角色对应的技能卡种类太多，不好记，建议精简</t>
   </si>
 </sst>
 </file>
@@ -644,10 +650,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -658,7 +664,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -666,16 +715,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -690,7 +747,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -704,63 +769,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -774,7 +794,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -782,21 +802,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -811,85 +817,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,7 +841,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,49 +979,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,25 +991,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,16 +1012,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1039,7 +1045,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1057,33 +1078,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1102,6 +1097,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1110,10 +1116,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1122,133 +1128,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1656,7 +1662,7 @@
   <sheetPr/>
   <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A22" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="W50" sqref="W50"/>
     </sheetView>
   </sheetViews>
@@ -4525,14 +4531,23 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/design/cardgame.xlsx
+++ b/design/cardgame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="基础规则" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="210">
   <si>
     <t>规则</t>
   </si>
@@ -33,12 +33,6 @@
     <t>每个英雄配套10个行动卡，出牌使用行动卡时英雄会获得经验升级</t>
   </si>
   <si>
-    <t>行动卡</t>
-  </si>
-  <si>
-    <t>带有1到10数字卡</t>
-  </si>
-  <si>
     <t>通用行动卡</t>
   </si>
   <si>
@@ -48,7 +42,10 @@
     <t>英雄行动卡</t>
   </si>
   <si>
-    <t>与相应英雄配套的卡牌</t>
+    <t>与相应英雄配套的卡牌,1到10点</t>
+  </si>
+  <si>
+    <t>点数：随着点数改变，10点以上的卡为X卡，可以代替任意点数出牌，1点以下为0卡，只能单独打出，不能与其他卡组成牌组打出</t>
   </si>
   <si>
     <t>开始双方有1000hp，hp为0则游戏失败</t>
@@ -63,7 +60,7 @@
     <t>第一回合双方使用hp暗拍先手牌权，相同的随机一方获得，获得时扣除对应hp</t>
   </si>
   <si>
-    <t>按照类似斗地主规则出牌，1点最小，10点最大，对手出某一牌型，需要拿同样牌型中更大的应对，或者用炸弹压制，使用炸弹的对抗结束后，使用过炸弹一方炸弹需要的牌数+1，到达牌堆可能上限数量则不再增加，初始炸弹为4张同样点数的牌，炸弹按规则造成伤害并获得牌权</t>
+    <t>按照类似斗地主规则出牌，1点最小，10点最大，对手出某一牌型，需要拿同样牌型中更大的应对，或者用炸弹压制，使用炸弹一次后，使用过炸弹一方炸弹需要的牌数+1，到达牌堆可能上限数量则不再增加，初始炸弹为4张同样点数的牌，炸弹可以按规则造成伤害并获得牌权，对手可以按照炸弹的牌数超过点数抵抗炸弹，也可以使用炸弹对抗</t>
   </si>
   <si>
     <t>可以出单牌或多张点数一样的牌，如果直接出炸弹要求的牌，不算做炸弹</t>
@@ -78,13 +75,13 @@
     <t>对手要不起牌时，按牌型的牌数对对手造成伤害，每张牌造成10点伤害，顺子造成连续伤害，对子，3张等造成1次伤害，例如5张顺造成5次10点伤害，3个两连对造成3次20点伤害</t>
   </si>
   <si>
-    <t>一方没有手牌牌则本回合立即结束，此次如果是出牌则为终结牌，直接产生伤害，并且下回合获得先手，并且此次出牌无法对抗，未出完牌的一方默认弃掉所有手牌，所有弃掉的牌放在弃牌堆，在牌堆用完时，切洗弃牌堆继续发牌</t>
-  </si>
-  <si>
-    <t>每回合结束增加5召唤点数，弃掉的每张牌也会增加1点此点数，到达一定值会在回合后让双方再次抽取英雄，同样是抽取2个选1个，下回合后手则先抽取英雄</t>
-  </si>
-  <si>
-    <t>第一次召唤10点，第二次25点，第三次50点，第四次100点</t>
+    <t>一方没有手牌牌则本回合立即结束，此次如果是出牌则为终结牌，直接产生伤害，并且下回合获得先手，并且此次出牌无法对抗，未出完牌的一方默认弃掉所有手牌，所有弃掉和打出的牌放在弃牌堆，在牌堆用完时，切洗弃牌堆继续发牌</t>
+  </si>
+  <si>
+    <t>每回合结束增加5召唤点数，弃掉的每张牌也会增加1点此点数，到达一定值会在回合后让双方再次抽取额外的英雄，同样是抽取2个选1个，下回合后手则先抽取英雄</t>
+  </si>
+  <si>
+    <t>第一次召唤10点，第二次25点，第三次50点，第四次100点。算上初始英雄，双方最多各拥有5个英雄</t>
   </si>
   <si>
     <t>双方获得新英雄时，每回合开始获得手牌数+3，并且新英雄的行动牌均加入牌堆切洗</t>
@@ -324,7 +321,7 @@
     <t>对手打出此牌后，本回合无法再次出牌</t>
   </si>
   <si>
-    <t>我方持有此牌相当于X牌，对手持有此牌相当于1点牌</t>
+    <t>我方持有此牌相当于X牌，对手持有此牌相当于0点牌</t>
   </si>
   <si>
     <t>特点：吸血，控制牌</t>
@@ -345,7 +342,7 @@
     <t>任意一方打出此牌，从牌堆抽取2张牌，再丢弃2张牌</t>
   </si>
   <si>
-    <t>任意一方打出此牌，对手丢弃点数最高的1张牌，并抽取1张牌</t>
+    <t>对方打出此牌，丢弃点数最高的1张牌，并抽取1张牌</t>
   </si>
   <si>
     <t>己方打出此牌，此次对抗造成的伤害50%恢复己方生命</t>
@@ -363,7 +360,7 @@
     <t>我方持有时，回合开始直接丢弃此牌</t>
   </si>
   <si>
-    <t>我方持有时，回合开始直接毁灭此牌，毁灭：同名牌在本局游戏中不再出现，复制牌也被视作同名牌，会从牌堆</t>
+    <t>我方持有时，回合开始直接毁灭此牌，毁灭：同名牌在本局游戏中不再出现，复制牌也被视作同名牌，会从牌堆去掉</t>
   </si>
   <si>
     <t>己方打出此牌后，如果造成伤害，吸取30%伤害的生命</t>
@@ -429,13 +426,13 @@
     <t>我方打出此牌，对手随机丢弃一张牌并把此牌放入手牌</t>
   </si>
   <si>
-    <t>我方使用此牌打出组牌时，可以利用对手1张牌当作X点牌使用，但是会相当于对手出那1张牌</t>
+    <t>我方使用此牌打出组牌时，可以利用对手1张牌当作X点牌使用，但是会相当于对手出那1张牌发动效果</t>
   </si>
   <si>
     <t>我方打出此牌时，可以选择0-2张手牌与对手随机牌交换</t>
   </si>
   <si>
-    <t>我方打出此牌，可以利用对手2张牌当作X点使用，但是会相当于对手出那2张牌</t>
+    <t>我方打出此牌，可以利用对手2张牌当作X点使用，但是会相当于对手出那2张牌发动效果</t>
   </si>
   <si>
     <t>任一方打出此牌，对手随机丢弃一张牌并把此牌放入手牌，并且此牌点数修改为1</t>
@@ -447,7 +444,7 @@
     <t>己方打出此牌，把1点，3点两张通用牌的复制加入对手手牌</t>
   </si>
   <si>
-    <t>此牌在牌堆或弃牌堆时，回合开始加入手牌，点数为X，同时对手回合开始加入一张1点通用牌</t>
+    <t>此牌在牌堆或弃牌堆时，回合开始加入手牌，点数为X，同时对手回合开始加入一张0点通用牌</t>
   </si>
   <si>
     <t>特点：额外出牌，复制对手牌</t>
@@ -489,13 +486,16 @@
     <t>我方持有时，此牌点数为3</t>
   </si>
   <si>
+    <t>我方持有时，此牌点数为5</t>
+  </si>
+  <si>
     <t>我方打出此牌，本回合所有手牌点数+1</t>
   </si>
   <si>
     <t>我方打出此牌，本回合所有手牌点数+1，10点会变为X点</t>
   </si>
   <si>
-    <t>我方持有时，此牌至多可当作2张通常牌使用</t>
+    <t>我方持有时，此牌至多可当作2张5点通常牌使用</t>
   </si>
   <si>
     <t>打出此牌后，炸弹的要求牌数-1</t>
@@ -504,7 +504,7 @@
     <t>我方持有时，此牌至多可当作3张通常牌使用</t>
   </si>
   <si>
-    <t>我方打出此牌，本回合我方炸弹造成伤害*2</t>
+    <t>我方打出此牌，本回合我方炸弹造成伤害*1.5</t>
   </si>
   <si>
     <t>我方出牌带有此牌的炸弹不可反击对抗</t>
@@ -528,13 +528,13 @@
     <t>我方打出此牌后，本回合我方造成每次伤害增加5*出牌次数</t>
   </si>
   <si>
-    <t>我方带有此牌打出时，牌组所有点数+1，如果有牌超过10点，则直接造成伤害，对抗直接胜利</t>
+    <t>我方带有此牌打出时，打出的牌组所有点数+1，如果有牌超过10点，则直接造成伤害，对抗直接胜利</t>
   </si>
   <si>
     <t>我方打出此牌，如果造成伤害，根据对抗胜利次数再次造成牌组伤害</t>
   </si>
   <si>
-    <t>我方带有此牌打出时，牌组所有点数再增加此次对抗出牌次数，如果突破10点则直接造成伤害，对抗直接胜利</t>
+    <t>我方带有此牌打出时，打出牌组所有点数再增加此次对抗出牌次数，如果突破10点则直接造成伤害，对抗直接胜利</t>
   </si>
   <si>
     <t>我方打出此牌，如果造成伤害，如果上次对抗胜利，则伤害*3</t>
@@ -543,7 +543,7 @@
     <t>我方打出此牌，如果牌型为单牌，则造成90伤害</t>
   </si>
   <si>
-    <t>我方打出此牌，如果为终结牌，则额外再造成233伤害</t>
+    <t>我方打出此牌，如果为终结牌，则额外再造成999伤害</t>
   </si>
   <si>
     <t>特点：复制牌，反击</t>
@@ -555,13 +555,16 @@
     <t>我方打出此牌，加入一张通常6的复制</t>
   </si>
   <si>
-    <t>我方打出此牌，此次对抗对我方伤害的20%反击给对手</t>
+    <t>我方打出此牌，下次对我方伤害的20%反击给对方</t>
+  </si>
+  <si>
+    <t>我方打出此牌，下次对我方伤害的30%反击给对方</t>
   </si>
   <si>
     <t>我方打出此牌，获得一张同名复制，点数额外+3，最大到10，如果10点，则不再复制</t>
   </si>
   <si>
-    <t xml:space="preserve">我方获得此牌时，同时获得7点 8点 9点 三张通用牌 </t>
+    <t>我方获得此牌时，同时获得7点 8点 9点 三张复制的通用牌</t>
   </si>
   <si>
     <t>我方获得此牌时，获得2张复制的7点通常牌</t>
@@ -650,10 +653,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -664,113 +667,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -794,6 +693,95 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -802,13 +790,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -817,7 +820,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,73 +976,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,37 +988,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,49 +1000,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1008,45 +1017,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1068,8 +1038,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1079,6 +1060,45 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1097,17 +1117,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1116,10 +1125,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1128,138 +1137,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1324,53 +1339,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5697855" y="8743950"/>
-          <a:ext cx="3648075" cy="352425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1662,8 +1630,8 @@
   <sheetPr/>
   <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="W50" sqref="W50"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1681,7 +1649,7 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1693,88 +1661,85 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
         <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="20:22">
@@ -1793,7 +1758,7 @@
     </row>
     <row r="30" spans="1:22">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T30">
         <v>2</v>
@@ -1820,7 +1785,7 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T32">
         <v>4</v>
@@ -1835,7 +1800,7 @@
     </row>
     <row r="33" spans="1:22">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T33">
         <v>5</v>
@@ -1850,7 +1815,7 @@
     </row>
     <row r="34" spans="1:22">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T34">
         <v>6</v>
@@ -1877,7 +1842,7 @@
     </row>
     <row r="36" spans="1:22">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T36">
         <v>8</v>
@@ -1892,7 +1857,7 @@
     </row>
     <row r="37" spans="1:22">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T37">
         <v>9</v>
@@ -1919,10 +1884,10 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" t="s">
         <v>29</v>
-      </c>
-      <c r="F39" t="s">
-        <v>30</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1957,7 +1922,7 @@
     </row>
     <row r="40" spans="6:15">
       <c r="F40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -1989,7 +1954,7 @@
     </row>
     <row r="41" spans="6:16">
       <c r="F41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2033,82 +1998,81 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:E195"/>
+  <dimension ref="A2:I195"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="N168" sqref="N168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="6.63333333333333" customWidth="1"/>
     <col min="4" max="4" width="6.88333333333333" customWidth="1"/>
@@ -2121,36 +2085,39 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
         <v>46</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>47</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>49</v>
-      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="2:5">
       <c r="B5">
@@ -2163,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -2177,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -2191,7 +2158,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -2205,22 +2172,25 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>54</v>
-      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10">
@@ -2233,22 +2203,26 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>56</v>
-      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12">
@@ -2261,44 +2235,48 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>58</v>
-      </c>
-    </row>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" ht="27" customHeight="1"/>
     <row r="15" spans="1:3">
       <c r="A15">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
         <v>46</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>47</v>
-      </c>
-      <c r="E16" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -2312,22 +2290,25 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>61</v>
-      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="2:5">
       <c r="B19">
@@ -2340,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -2354,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="2:5">
@@ -2368,36 +2349,43 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="1">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22">
-        <v>6</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="1">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23">
-        <v>7</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>66</v>
-      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="2:5">
       <c r="B24">
@@ -2410,7 +2398,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="2:5">
@@ -2424,56 +2412,63 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="1">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26">
-        <v>10</v>
-      </c>
-      <c r="C26">
-        <v>4</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26" t="s">
-        <v>69</v>
-      </c>
-    </row>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" ht="30" customHeight="1"/>
     <row r="28" spans="1:3">
       <c r="A28">
         <f>A15+1</f>
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" t="s">
         <v>46</v>
       </c>
-      <c r="D29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>71</v>
-      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="2:5">
       <c r="B31">
@@ -2486,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="2:5">
@@ -2500,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="2:5">
@@ -2514,22 +2509,25 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="1">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34">
-        <v>5</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
-        <v>75</v>
-      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
     </row>
     <row r="35" spans="2:5">
       <c r="B35">
@@ -2542,7 +2540,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="2:5">
@@ -2556,22 +2554,25 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="1">
+        <v>8</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37">
-        <v>8</v>
-      </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37" t="s">
-        <v>78</v>
-      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
     </row>
     <row r="38" spans="2:5">
       <c r="B38">
@@ -2584,22 +2585,25 @@
         <v>2</v>
       </c>
       <c r="E38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="1">
+        <v>10</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39">
-        <v>10</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39" t="s">
-        <v>80</v>
-      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
@@ -2607,18 +2611,18 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="B42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" t="s">
         <v>46</v>
-      </c>
-      <c r="D42" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="43" spans="2:5">
@@ -2632,22 +2636,25 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="1">
+        <v>2</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="44" spans="2:5">
-      <c r="B44">
-        <v>2</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44" t="s">
-        <v>83</v>
-      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
     </row>
     <row r="45" spans="2:5">
       <c r="B45">
@@ -2660,22 +2667,25 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="1">
+        <v>4</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="46" spans="2:5">
-      <c r="B46">
-        <v>4</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46" t="s">
-        <v>85</v>
-      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
     </row>
     <row r="47" spans="2:5">
       <c r="B47">
@@ -2688,7 +2698,7 @@
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="2:5">
@@ -2702,22 +2712,25 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="1">
+        <v>7</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1">
+        <v>3</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="49" spans="2:5">
-      <c r="B49">
-        <v>7</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>3</v>
-      </c>
-      <c r="E49" t="s">
-        <v>88</v>
-      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
     </row>
     <row r="50" spans="2:5">
       <c r="B50">
@@ -2730,7 +2743,7 @@
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="2:5">
@@ -2744,22 +2757,25 @@
         <v>4</v>
       </c>
       <c r="E51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="1">
+        <v>10</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <v>4</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="52" spans="2:5">
-      <c r="B52">
-        <v>10</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>4</v>
-      </c>
-      <c r="E52" t="s">
-        <v>91</v>
-      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
@@ -2767,18 +2783,18 @@
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="2:4">
       <c r="B55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C55" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" t="s">
         <v>46</v>
-      </c>
-      <c r="D55" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="56" spans="2:5">
@@ -2792,22 +2808,25 @@
         <v>0</v>
       </c>
       <c r="E56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="1">
+        <v>2</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="57" spans="2:5">
-      <c r="B57">
-        <v>2</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57" t="s">
-        <v>94</v>
-      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
     </row>
     <row r="58" spans="2:5">
       <c r="B58">
@@ -2820,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="2:5">
@@ -2834,22 +2853,25 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="1">
+        <v>5</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="60" spans="2:5">
-      <c r="B60">
-        <v>5</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60" t="s">
-        <v>97</v>
-      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
     </row>
     <row r="61" spans="2:5">
       <c r="B61">
@@ -2862,7 +2884,7 @@
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="2:5">
@@ -2876,22 +2898,25 @@
         <v>2</v>
       </c>
       <c r="E62" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="1">
+        <v>8</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="63" spans="2:5">
-      <c r="B63">
-        <v>8</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
-      <c r="E63" t="s">
-        <v>100</v>
-      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
     </row>
     <row r="64" spans="2:5">
       <c r="B64">
@@ -2904,22 +2929,25 @@
         <v>2</v>
       </c>
       <c r="E64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="1">
+        <v>10</v>
+      </c>
+      <c r="C65" s="1">
+        <v>2</v>
+      </c>
+      <c r="D65" s="1">
+        <v>3</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="65" spans="2:5">
-      <c r="B65">
-        <v>10</v>
-      </c>
-      <c r="C65">
-        <v>2</v>
-      </c>
-      <c r="D65">
-        <v>3</v>
-      </c>
-      <c r="E65" t="s">
-        <v>102</v>
-      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
@@ -2927,18 +2955,18 @@
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="2:4">
       <c r="B68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C68" t="s">
+        <v>45</v>
+      </c>
+      <c r="D68" t="s">
         <v>46</v>
-      </c>
-      <c r="D68" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="69" spans="2:5">
@@ -2952,22 +2980,25 @@
         <v>0</v>
       </c>
       <c r="E69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="1">
+        <v>2</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="70" spans="2:5">
-      <c r="B70">
-        <v>2</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70" t="s">
-        <v>105</v>
-      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
     </row>
     <row r="71" spans="2:5">
       <c r="B71">
@@ -2980,22 +3011,25 @@
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5">
-      <c r="B72">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="1">
         <v>4</v>
       </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72" t="s">
-        <v>106</v>
-      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
     </row>
     <row r="73" spans="2:5">
       <c r="B73">
@@ -3008,7 +3042,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="2:5">
@@ -3022,22 +3056,25 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="1">
+        <v>7</v>
+      </c>
+      <c r="C75" s="1">
+        <v>2</v>
+      </c>
+      <c r="D75" s="1">
+        <v>2</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="75" spans="2:5">
-      <c r="B75">
-        <v>7</v>
-      </c>
-      <c r="C75">
-        <v>2</v>
-      </c>
-      <c r="D75">
-        <v>2</v>
-      </c>
-      <c r="E75" t="s">
-        <v>109</v>
-      </c>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
     </row>
     <row r="76" spans="2:5">
       <c r="B76">
@@ -3050,7 +3087,7 @@
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="2:5">
@@ -3064,22 +3101,25 @@
         <v>2</v>
       </c>
       <c r="E77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78" s="1">
+        <v>10</v>
+      </c>
+      <c r="C78" s="1">
+        <v>4</v>
+      </c>
+      <c r="D78" s="1">
+        <v>3</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="78" spans="2:5">
-      <c r="B78">
-        <v>10</v>
-      </c>
-      <c r="C78">
-        <v>4</v>
-      </c>
-      <c r="D78">
-        <v>3</v>
-      </c>
-      <c r="E78" t="s">
-        <v>112</v>
-      </c>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
@@ -3087,18 +3127,18 @@
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81" spans="2:4">
       <c r="B81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C81" t="s">
+        <v>45</v>
+      </c>
+      <c r="D81" t="s">
         <v>46</v>
-      </c>
-      <c r="D81" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="82" spans="2:5">
@@ -3112,22 +3152,25 @@
         <v>0</v>
       </c>
       <c r="E82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" s="1">
+        <v>2</v>
+      </c>
+      <c r="C83" s="1">
+        <v>1</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="83" spans="2:5">
-      <c r="B83">
-        <v>2</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83" t="s">
-        <v>115</v>
-      </c>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
     </row>
     <row r="84" spans="2:5">
       <c r="B84">
@@ -3140,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" spans="2:5">
@@ -3154,7 +3197,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="2:5">
@@ -3168,22 +3211,25 @@
         <v>1</v>
       </c>
       <c r="E86" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="B87" s="1">
+        <v>6</v>
+      </c>
+      <c r="C87" s="1">
+        <v>3</v>
+      </c>
+      <c r="D87" s="1">
+        <v>1</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="87" spans="2:5">
-      <c r="B87">
-        <v>6</v>
-      </c>
-      <c r="C87">
-        <v>3</v>
-      </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="E87" t="s">
-        <v>118</v>
-      </c>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
     </row>
     <row r="88" spans="2:5">
       <c r="B88">
@@ -3196,22 +3242,25 @@
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5">
-      <c r="B89">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8">
+      <c r="B89" s="1">
         <v>8</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="1">
         <v>4</v>
       </c>
-      <c r="D89">
-        <v>2</v>
-      </c>
-      <c r="E89" t="s">
-        <v>110</v>
-      </c>
+      <c r="D89" s="1">
+        <v>2</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
     </row>
     <row r="90" spans="2:5">
       <c r="B90">
@@ -3224,22 +3273,25 @@
         <v>2</v>
       </c>
       <c r="E90" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8">
+      <c r="B91" s="1">
+        <v>10</v>
+      </c>
+      <c r="C91" s="1">
+        <v>5</v>
+      </c>
+      <c r="D91" s="1">
+        <v>2</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="91" spans="2:5">
-      <c r="B91">
-        <v>10</v>
-      </c>
-      <c r="C91">
-        <v>5</v>
-      </c>
-      <c r="D91">
-        <v>2</v>
-      </c>
-      <c r="E91" t="s">
-        <v>121</v>
-      </c>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
@@ -3247,18 +3299,18 @@
         <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="94" spans="2:4">
       <c r="B94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C94" t="s">
+        <v>45</v>
+      </c>
+      <c r="D94" t="s">
         <v>46</v>
-      </c>
-      <c r="D94" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="95" spans="2:5">
@@ -3272,22 +3324,25 @@
         <v>0</v>
       </c>
       <c r="E95" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="B96" s="1">
+        <v>2</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="96" spans="2:5">
-      <c r="B96">
-        <v>2</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96" t="s">
-        <v>124</v>
-      </c>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
     </row>
     <row r="97" spans="2:5">
       <c r="B97">
@@ -3300,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="98" spans="2:5">
@@ -3314,22 +3369,25 @@
         <v>1</v>
       </c>
       <c r="E98" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8">
+      <c r="B99" s="1">
+        <v>5</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0</v>
+      </c>
+      <c r="D99" s="1">
+        <v>1</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="99" spans="2:5">
-      <c r="B99">
-        <v>5</v>
-      </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-      <c r="E99" t="s">
-        <v>127</v>
-      </c>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
     </row>
     <row r="100" spans="2:5">
       <c r="B100">
@@ -3342,7 +3400,7 @@
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="101" spans="2:5">
@@ -3356,22 +3414,25 @@
         <v>1</v>
       </c>
       <c r="E101" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8">
+      <c r="B102" s="1">
+        <v>8</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1</v>
+      </c>
+      <c r="D102" s="1">
+        <v>2</v>
+      </c>
+      <c r="E102" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="102" spans="2:5">
-      <c r="B102">
-        <v>8</v>
-      </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-      <c r="D102">
-        <v>2</v>
-      </c>
-      <c r="E102" t="s">
-        <v>130</v>
-      </c>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
     </row>
     <row r="103" spans="2:5">
       <c r="B103">
@@ -3384,22 +3445,25 @@
         <v>2</v>
       </c>
       <c r="E103" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8">
+      <c r="B104" s="1">
+        <v>10</v>
+      </c>
+      <c r="C104" s="1">
+        <v>2</v>
+      </c>
+      <c r="D104" s="1">
+        <v>2</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="104" spans="2:5">
-      <c r="B104">
-        <v>10</v>
-      </c>
-      <c r="C104">
-        <v>2</v>
-      </c>
-      <c r="D104">
-        <v>2</v>
-      </c>
-      <c r="E104" t="s">
-        <v>132</v>
-      </c>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
@@ -3407,18 +3471,18 @@
         <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="107" spans="2:4">
       <c r="B107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C107" t="s">
+        <v>45</v>
+      </c>
+      <c r="D107" t="s">
         <v>46</v>
-      </c>
-      <c r="D107" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="108" spans="2:5">
@@ -3432,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109" spans="2:5">
@@ -3446,36 +3510,44 @@
         <v>0</v>
       </c>
       <c r="E109" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9">
+      <c r="B110" s="1">
+        <v>3</v>
+      </c>
+      <c r="C110" s="1">
+        <v>0</v>
+      </c>
+      <c r="D110" s="1">
+        <v>0</v>
+      </c>
+      <c r="E110" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="110" spans="2:5">
-      <c r="B110">
-        <v>3</v>
-      </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-      <c r="E110" t="s">
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+    </row>
+    <row r="111" spans="2:9">
+      <c r="B111" s="1">
+        <v>4</v>
+      </c>
+      <c r="C111" s="1">
+        <v>0</v>
+      </c>
+      <c r="D111" s="1">
+        <v>1</v>
+      </c>
+      <c r="E111" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="111" spans="2:5">
-      <c r="B111">
-        <v>4</v>
-      </c>
-      <c r="C111">
-        <v>0</v>
-      </c>
-      <c r="D111">
-        <v>1</v>
-      </c>
-      <c r="E111" t="s">
-        <v>137</v>
-      </c>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
     </row>
     <row r="112" spans="2:5">
       <c r="B112">
@@ -3488,7 +3560,7 @@
         <v>1</v>
       </c>
       <c r="E112" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="113" spans="2:5">
@@ -3502,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="114" spans="2:5">
@@ -3516,7 +3588,7 @@
         <v>1</v>
       </c>
       <c r="E114" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="115" spans="2:5">
@@ -3530,36 +3602,44 @@
         <v>2</v>
       </c>
       <c r="E115" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9">
+      <c r="B116" s="1">
+        <v>9</v>
+      </c>
+      <c r="C116" s="1">
+        <v>2</v>
+      </c>
+      <c r="D116" s="1">
+        <v>2</v>
+      </c>
+      <c r="E116" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="116" spans="2:5">
-      <c r="B116">
-        <v>9</v>
-      </c>
-      <c r="C116">
-        <v>2</v>
-      </c>
-      <c r="D116">
-        <v>2</v>
-      </c>
-      <c r="E116" t="s">
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+    </row>
+    <row r="117" spans="2:9">
+      <c r="B117" s="1">
+        <v>10</v>
+      </c>
+      <c r="C117" s="1">
+        <v>2</v>
+      </c>
+      <c r="D117" s="1">
+        <v>2</v>
+      </c>
+      <c r="E117" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="117" spans="2:5">
-      <c r="B117">
-        <v>10</v>
-      </c>
-      <c r="C117">
-        <v>2</v>
-      </c>
-      <c r="D117">
-        <v>2</v>
-      </c>
-      <c r="E117" t="s">
-        <v>143</v>
-      </c>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
@@ -3567,33 +3647,36 @@
         <v>10</v>
       </c>
       <c r="C119" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="120" spans="2:4">
       <c r="B120" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C120" t="s">
+        <v>45</v>
+      </c>
+      <c r="D120" t="s">
         <v>46</v>
       </c>
-      <c r="D120" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5">
-      <c r="B121">
-        <v>1</v>
-      </c>
-      <c r="C121">
-        <v>0</v>
-      </c>
-      <c r="D121">
-        <v>0</v>
-      </c>
-      <c r="E121" t="s">
-        <v>145</v>
-      </c>
+    </row>
+    <row r="121" spans="2:8">
+      <c r="B121" s="1">
+        <v>1</v>
+      </c>
+      <c r="C121" s="1">
+        <v>0</v>
+      </c>
+      <c r="D121" s="1">
+        <v>0</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
     </row>
     <row r="122" spans="2:5">
       <c r="B122">
@@ -3606,22 +3689,26 @@
         <v>0</v>
       </c>
       <c r="E122" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9">
+      <c r="B123" s="2">
+        <v>3</v>
+      </c>
+      <c r="C123" s="2">
+        <v>0</v>
+      </c>
+      <c r="D123" s="2">
+        <v>0</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="123" spans="2:5">
-      <c r="B123">
-        <v>3</v>
-      </c>
-      <c r="C123">
-        <v>0</v>
-      </c>
-      <c r="D123">
-        <v>0</v>
-      </c>
-      <c r="E123" t="s">
-        <v>147</v>
-      </c>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
     </row>
     <row r="124" spans="2:5">
       <c r="B124">
@@ -3634,22 +3721,25 @@
         <v>1</v>
       </c>
       <c r="E124" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8">
+      <c r="B125" s="1">
+        <v>5</v>
+      </c>
+      <c r="C125" s="1">
+        <v>1</v>
+      </c>
+      <c r="D125" s="1">
+        <v>1</v>
+      </c>
+      <c r="E125" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="125" spans="2:5">
-      <c r="B125">
-        <v>5</v>
-      </c>
-      <c r="C125">
-        <v>1</v>
-      </c>
-      <c r="D125">
-        <v>1</v>
-      </c>
-      <c r="E125" t="s">
-        <v>149</v>
-      </c>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
     </row>
     <row r="126" spans="2:5">
       <c r="B126">
@@ -3662,7 +3752,7 @@
         <v>1</v>
       </c>
       <c r="E126" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="127" spans="2:5">
@@ -3676,22 +3766,25 @@
         <v>1</v>
       </c>
       <c r="E127" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8">
+      <c r="B128" s="1">
+        <v>8</v>
+      </c>
+      <c r="C128" s="1">
+        <v>2</v>
+      </c>
+      <c r="D128" s="1">
+        <v>2</v>
+      </c>
+      <c r="E128" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="128" spans="2:5">
-      <c r="B128">
-        <v>8</v>
-      </c>
-      <c r="C128">
-        <v>2</v>
-      </c>
-      <c r="D128">
-        <v>2</v>
-      </c>
-      <c r="E128" t="s">
-        <v>152</v>
-      </c>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
     </row>
     <row r="129" spans="2:5">
       <c r="B129">
@@ -3704,22 +3797,25 @@
         <v>2</v>
       </c>
       <c r="E129" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8">
+      <c r="B130" s="1">
+        <v>10</v>
+      </c>
+      <c r="C130" s="1">
+        <v>2</v>
+      </c>
+      <c r="D130" s="1">
+        <v>2</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="130" spans="2:5">
-      <c r="B130">
-        <v>10</v>
-      </c>
-      <c r="C130">
-        <v>2</v>
-      </c>
-      <c r="D130">
-        <v>2</v>
-      </c>
-      <c r="E130" t="s">
-        <v>154</v>
-      </c>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
@@ -3727,18 +3823,18 @@
         <v>11</v>
       </c>
       <c r="C132" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="133" spans="2:4">
       <c r="B133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C133" t="s">
+        <v>45</v>
+      </c>
+      <c r="D133" t="s">
         <v>46</v>
-      </c>
-      <c r="D133" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="134" spans="2:5">
@@ -3752,22 +3848,25 @@
         <v>0</v>
       </c>
       <c r="E134" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8">
+      <c r="B135" s="1">
+        <v>2</v>
+      </c>
+      <c r="C135" s="1">
+        <v>1</v>
+      </c>
+      <c r="D135" s="1">
+        <v>0</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="135" spans="2:5">
-      <c r="B135">
-        <v>2</v>
-      </c>
-      <c r="C135">
-        <v>1</v>
-      </c>
-      <c r="D135">
-        <v>0</v>
-      </c>
-      <c r="E135" t="s">
-        <v>156</v>
-      </c>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
     </row>
     <row r="136" spans="2:5">
       <c r="B136">
@@ -3797,19 +3896,22 @@
         <v>158</v>
       </c>
     </row>
-    <row r="138" spans="2:5">
-      <c r="B138">
+    <row r="138" spans="2:8">
+      <c r="B138" s="1">
         <v>5</v>
       </c>
-      <c r="C138">
-        <v>2</v>
-      </c>
-      <c r="D138">
-        <v>1</v>
-      </c>
-      <c r="E138" t="s">
+      <c r="C138" s="1">
+        <v>2</v>
+      </c>
+      <c r="D138" s="1">
+        <v>1</v>
+      </c>
+      <c r="E138" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
     </row>
     <row r="139" spans="2:5">
       <c r="B139">
@@ -3839,19 +3941,22 @@
         <v>161</v>
       </c>
     </row>
-    <row r="141" spans="2:5">
-      <c r="B141">
+    <row r="141" spans="2:8">
+      <c r="B141" s="1">
         <v>8</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="1">
         <v>3</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="1">
         <v>3</v>
       </c>
-      <c r="E141" t="s">
+      <c r="E141" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
     </row>
     <row r="142" spans="2:5">
       <c r="B142">
@@ -3867,19 +3972,22 @@
         <v>163</v>
       </c>
     </row>
-    <row r="143" spans="2:5">
-      <c r="B143">
+    <row r="143" spans="2:8">
+      <c r="B143" s="1">
         <v>10</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="1">
         <v>4</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="1">
         <v>4</v>
       </c>
-      <c r="E143" t="s">
+      <c r="E143" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
@@ -3892,13 +4000,13 @@
     </row>
     <row r="146" spans="2:4">
       <c r="B146" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C146" t="s">
+        <v>45</v>
+      </c>
+      <c r="D146" t="s">
         <v>46</v>
-      </c>
-      <c r="D146" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="147" spans="2:5">
@@ -3915,19 +4023,22 @@
         <v>166</v>
       </c>
     </row>
-    <row r="148" spans="2:5">
-      <c r="B148">
-        <v>2</v>
-      </c>
-      <c r="C148">
-        <v>1</v>
-      </c>
-      <c r="D148">
-        <v>0</v>
-      </c>
-      <c r="E148" t="s">
+    <row r="148" spans="2:8">
+      <c r="B148" s="1">
+        <v>2</v>
+      </c>
+      <c r="C148" s="1">
+        <v>1</v>
+      </c>
+      <c r="D148" s="1">
+        <v>0</v>
+      </c>
+      <c r="E148" s="1" t="s">
         <v>167</v>
       </c>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
     </row>
     <row r="149" spans="2:5">
       <c r="B149">
@@ -3957,19 +4068,22 @@
         <v>169</v>
       </c>
     </row>
-    <row r="151" spans="2:5">
-      <c r="B151">
+    <row r="151" spans="2:8">
+      <c r="B151" s="1">
         <v>5</v>
       </c>
-      <c r="C151">
-        <v>1</v>
-      </c>
-      <c r="D151">
-        <v>1</v>
-      </c>
-      <c r="E151" t="s">
+      <c r="C151" s="1">
+        <v>1</v>
+      </c>
+      <c r="D151" s="1">
+        <v>1</v>
+      </c>
+      <c r="E151" s="1" t="s">
         <v>170</v>
       </c>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
     </row>
     <row r="152" spans="2:5">
       <c r="B152">
@@ -3999,19 +4113,22 @@
         <v>172</v>
       </c>
     </row>
-    <row r="154" spans="2:5">
-      <c r="B154">
+    <row r="154" spans="2:8">
+      <c r="B154" s="1">
         <v>8</v>
       </c>
-      <c r="C154">
-        <v>2</v>
-      </c>
-      <c r="D154">
-        <v>2</v>
-      </c>
-      <c r="E154" t="s">
+      <c r="C154" s="1">
+        <v>2</v>
+      </c>
+      <c r="D154" s="1">
+        <v>2</v>
+      </c>
+      <c r="E154" s="1" t="s">
         <v>173</v>
       </c>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
     </row>
     <row r="155" spans="2:5">
       <c r="B155">
@@ -4027,19 +4144,22 @@
         <v>174</v>
       </c>
     </row>
-    <row r="156" spans="2:5">
-      <c r="B156">
+    <row r="156" spans="2:8">
+      <c r="B156" s="1">
         <v>10</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="1">
         <v>3</v>
       </c>
-      <c r="D156">
-        <v>2</v>
-      </c>
-      <c r="E156" t="s">
+      <c r="D156" s="1">
+        <v>2</v>
+      </c>
+      <c r="E156" s="1" t="s">
         <v>175</v>
       </c>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
@@ -4052,13 +4172,13 @@
     </row>
     <row r="159" spans="2:4">
       <c r="B159" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C159" t="s">
+        <v>45</v>
+      </c>
+      <c r="D159" t="s">
         <v>46</v>
-      </c>
-      <c r="D159" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="160" spans="2:5">
@@ -4089,19 +4209,22 @@
         <v>178</v>
       </c>
     </row>
-    <row r="162" spans="2:5">
-      <c r="B162">
+    <row r="162" spans="2:8">
+      <c r="B162" s="1">
         <v>3</v>
       </c>
-      <c r="C162">
-        <v>0</v>
-      </c>
-      <c r="D162">
-        <v>0</v>
-      </c>
-      <c r="E162" t="s">
+      <c r="C162" s="1">
+        <v>0</v>
+      </c>
+      <c r="D162" s="1">
+        <v>0</v>
+      </c>
+      <c r="E162" s="1" t="s">
         <v>179</v>
       </c>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
     </row>
     <row r="163" spans="2:5">
       <c r="B163">
@@ -4113,37 +4236,43 @@
       <c r="D163">
         <v>1</v>
       </c>
-      <c r="E163" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="164" spans="2:5">
-      <c r="B164">
+      <c r="E163" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8">
+      <c r="B164" s="1">
         <v>5</v>
       </c>
-      <c r="C164">
-        <v>1</v>
-      </c>
-      <c r="D164">
-        <v>1</v>
-      </c>
-      <c r="E164" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="165" spans="2:5">
-      <c r="B165">
+      <c r="C164" s="1">
+        <v>1</v>
+      </c>
+      <c r="D164" s="1">
+        <v>1</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+    </row>
+    <row r="165" spans="2:8">
+      <c r="B165" s="2">
         <v>6</v>
       </c>
-      <c r="C165">
-        <v>1</v>
-      </c>
-      <c r="D165">
-        <v>1</v>
-      </c>
-      <c r="E165" t="s">
-        <v>181</v>
-      </c>
+      <c r="C165" s="2">
+        <v>1</v>
+      </c>
+      <c r="D165" s="2">
+        <v>1</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
     </row>
     <row r="166" spans="2:5">
       <c r="B166">
@@ -4156,7 +4285,7 @@
         <v>1</v>
       </c>
       <c r="E166" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="167" spans="2:5">
@@ -4170,36 +4299,42 @@
         <v>2</v>
       </c>
       <c r="E167" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="168" spans="2:5">
-      <c r="B168">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8">
+      <c r="B168" s="1">
         <v>9</v>
       </c>
-      <c r="C168">
-        <v>2</v>
-      </c>
-      <c r="D168">
-        <v>2</v>
-      </c>
-      <c r="E168" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="169" spans="2:5">
-      <c r="B169">
+      <c r="C168" s="1">
+        <v>2</v>
+      </c>
+      <c r="D168" s="1">
+        <v>2</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+    </row>
+    <row r="169" spans="2:8">
+      <c r="B169" s="1">
         <v>10</v>
       </c>
-      <c r="C169">
-        <v>2</v>
-      </c>
-      <c r="D169">
-        <v>2</v>
-      </c>
-      <c r="E169" t="s">
-        <v>185</v>
-      </c>
+      <c r="C169" s="1">
+        <v>2</v>
+      </c>
+      <c r="D169" s="1">
+        <v>2</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
@@ -4207,18 +4342,18 @@
         <v>14</v>
       </c>
       <c r="C171" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="172" spans="2:4">
       <c r="B172" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C172" t="s">
+        <v>45</v>
+      </c>
+      <c r="D172" t="s">
         <v>46</v>
-      </c>
-      <c r="D172" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="173" spans="2:5">
@@ -4232,22 +4367,25 @@
         <v>0</v>
       </c>
       <c r="E173" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="174" spans="2:5">
-      <c r="B174">
-        <v>2</v>
-      </c>
-      <c r="C174">
-        <v>0</v>
-      </c>
-      <c r="D174">
-        <v>0</v>
-      </c>
-      <c r="E174" t="s">
         <v>188</v>
       </c>
+    </row>
+    <row r="174" spans="2:8">
+      <c r="B174" s="1">
+        <v>2</v>
+      </c>
+      <c r="C174" s="1">
+        <v>0</v>
+      </c>
+      <c r="D174" s="1">
+        <v>0</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1"/>
     </row>
     <row r="175" spans="2:5">
       <c r="B175">
@@ -4260,7 +4398,7 @@
         <v>0</v>
       </c>
       <c r="E175" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="176" spans="2:5">
@@ -4274,7 +4412,7 @@
         <v>1</v>
       </c>
       <c r="E176" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="177" spans="2:5">
@@ -4288,22 +4426,25 @@
         <v>1</v>
       </c>
       <c r="E177" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="178" spans="2:5">
-      <c r="B178">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8">
+      <c r="B178" s="1">
         <v>6</v>
       </c>
-      <c r="C178">
-        <v>1</v>
-      </c>
-      <c r="D178">
-        <v>1</v>
-      </c>
-      <c r="E178" t="s">
-        <v>192</v>
-      </c>
+      <c r="C178" s="1">
+        <v>1</v>
+      </c>
+      <c r="D178" s="1">
+        <v>1</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
     </row>
     <row r="179" spans="2:5">
       <c r="B179">
@@ -4316,22 +4457,25 @@
         <v>1</v>
       </c>
       <c r="E179" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="180" spans="2:5">
-      <c r="B180">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8">
+      <c r="B180" s="1">
         <v>8</v>
       </c>
-      <c r="C180">
-        <v>1</v>
-      </c>
-      <c r="D180">
-        <v>2</v>
-      </c>
-      <c r="E180" t="s">
-        <v>194</v>
-      </c>
+      <c r="C180" s="1">
+        <v>1</v>
+      </c>
+      <c r="D180" s="1">
+        <v>2</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
     </row>
     <row r="181" spans="2:5">
       <c r="B181">
@@ -4344,22 +4488,25 @@
         <v>2</v>
       </c>
       <c r="E181" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="182" spans="2:5">
-      <c r="B182">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8">
+      <c r="B182" s="1">
         <v>10</v>
       </c>
-      <c r="C182">
-        <v>2</v>
-      </c>
-      <c r="D182">
-        <v>2</v>
-      </c>
-      <c r="E182" t="s">
-        <v>196</v>
-      </c>
+      <c r="C182" s="1">
+        <v>2</v>
+      </c>
+      <c r="D182" s="1">
+        <v>2</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
@@ -4367,18 +4514,18 @@
         <v>15</v>
       </c>
       <c r="C184" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="185" spans="2:4">
       <c r="B185" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C185" t="s">
+        <v>45</v>
+      </c>
+      <c r="D185" t="s">
         <v>46</v>
-      </c>
-      <c r="D185" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="186" spans="2:5">
@@ -4392,22 +4539,25 @@
         <v>0</v>
       </c>
       <c r="E186" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="187" spans="2:5">
-      <c r="B187">
-        <v>2</v>
-      </c>
-      <c r="C187">
-        <v>1</v>
-      </c>
-      <c r="D187">
-        <v>0</v>
-      </c>
-      <c r="E187" t="s">
-        <v>198</v>
-      </c>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8">
+      <c r="B187" s="1">
+        <v>2</v>
+      </c>
+      <c r="C187" s="1">
+        <v>1</v>
+      </c>
+      <c r="D187" s="1">
+        <v>0</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1"/>
+      <c r="H187" s="1"/>
     </row>
     <row r="188" spans="2:5">
       <c r="B188">
@@ -4420,7 +4570,7 @@
         <v>1</v>
       </c>
       <c r="E188" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="189" spans="2:5">
@@ -4434,22 +4584,25 @@
         <v>1</v>
       </c>
       <c r="E189" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="190" spans="2:5">
-      <c r="B190">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8">
+      <c r="B190" s="1">
         <v>5</v>
       </c>
-      <c r="C190">
-        <v>2</v>
-      </c>
-      <c r="D190">
-        <v>1</v>
-      </c>
-      <c r="E190" t="s">
-        <v>201</v>
-      </c>
+      <c r="C190" s="1">
+        <v>2</v>
+      </c>
+      <c r="D190" s="1">
+        <v>1</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F190" s="1"/>
+      <c r="G190" s="1"/>
+      <c r="H190" s="1"/>
     </row>
     <row r="191" spans="2:5">
       <c r="B191">
@@ -4462,7 +4615,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="192" spans="2:5">
@@ -4476,22 +4629,25 @@
         <v>2</v>
       </c>
       <c r="E192" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="193" spans="2:5">
-      <c r="B193">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="193" spans="2:8">
+      <c r="B193" s="1">
         <v>8</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="1">
         <v>3</v>
       </c>
-      <c r="D193">
-        <v>2</v>
-      </c>
-      <c r="E193" t="s">
-        <v>204</v>
-      </c>
+      <c r="D193" s="1">
+        <v>2</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F193" s="1"/>
+      <c r="G193" s="1"/>
+      <c r="H193" s="1"/>
     </row>
     <row r="194" spans="2:5">
       <c r="B194">
@@ -4504,22 +4660,25 @@
         <v>2</v>
       </c>
       <c r="E194" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="195" spans="2:5">
-      <c r="B195">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8">
+      <c r="B195" s="1">
         <v>10</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="1">
         <v>3</v>
       </c>
-      <c r="D195">
+      <c r="D195" s="1">
         <v>3</v>
       </c>
-      <c r="E195" t="s">
-        <v>206</v>
-      </c>
+      <c r="E195" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F195" s="1"/>
+      <c r="G195" s="1"/>
+      <c r="H195" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4533,7 +4692,7 @@
   <sheetPr/>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4541,10 +4700,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/design/cardgame.xlsx
+++ b/design/cardgame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="基础规则" sheetId="1" r:id="rId1"/>
@@ -489,24 +489,24 @@
     <t>我方持有时，此牌点数为5</t>
   </si>
   <si>
-    <t>我方打出此牌，本回合所有手牌点数+1</t>
+    <t>我方打出此牌，本回合所有手牌点数+1，最多10点</t>
   </si>
   <si>
     <t>我方打出此牌，本回合所有手牌点数+1，10点会变为X点</t>
   </si>
   <si>
-    <t>我方持有时，此牌至多可当作2张5点通常牌使用</t>
+    <t>我方持有时，此牌至多可当作2张通常牌使用</t>
+  </si>
+  <si>
+    <t>我方打出此牌，本回合我方炸弹造成伤害*1.5</t>
+  </si>
+  <si>
+    <t>我方持有时，此牌至多可当作3张通常牌使用</t>
   </si>
   <si>
     <t>打出此牌后，炸弹的要求牌数-1</t>
   </si>
   <si>
-    <t>我方持有时，此牌至多可当作3张通常牌使用</t>
-  </si>
-  <si>
-    <t>我方打出此牌，本回合我方炸弹造成伤害*1.5</t>
-  </si>
-  <si>
     <t>我方出牌带有此牌的炸弹不可反击对抗</t>
   </si>
   <si>
@@ -519,7 +519,7 @@
     <t>我方打出此牌，如果造成伤害，本回合所有伤害*2</t>
   </si>
   <si>
-    <t>我方打出此牌，此次对抗结束前，所有牌点数+1</t>
+    <t>我方打出此牌，此对抗结束前，所有牌点数+1</t>
   </si>
   <si>
     <t>我方打出此牌，如果造成伤害，则每段伤害递增2点</t>
@@ -653,9 +653,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -664,120 +664,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -797,10 +683,84 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -810,13 +770,59 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -832,7 +838,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,13 +958,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,145 +1006,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,80 +1023,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1117,6 +1049,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1125,10 +1131,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1137,137 +1143,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1275,6 +1281,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1630,7 +1642,7 @@
   <sheetPr/>
   <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
@@ -1649,7 +1661,7 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2068,8 +2080,8 @@
   <sheetPr/>
   <dimension ref="A2:I195"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="N168" sqref="N168"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="O137" sqref="O137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3861,14 +3873,14 @@
       <c r="D135" s="1">
         <v>0</v>
       </c>
-      <c r="E135" s="1" t="s">
+      <c r="E135" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
-    </row>
-    <row r="136" spans="2:5">
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+    </row>
+    <row r="136" spans="2:8">
       <c r="B136">
         <v>3</v>
       </c>
@@ -3878,9 +3890,12 @@
       <c r="D136">
         <v>1</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E136" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
     </row>
     <row r="137" spans="2:5">
       <c r="B137">

--- a/design/cardgame.xlsx
+++ b/design/cardgame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="28245" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="基础规则" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="235">
   <si>
     <t>规则</t>
   </si>
@@ -45,7 +45,7 @@
     <t>与相应英雄配套的卡牌,1到10点</t>
   </si>
   <si>
-    <t>点数：随着点数改变，10点以上的卡为X卡，可以代替任意点数出牌，1点以下为0卡，只能单独打出，不能与其他卡组成牌组打出</t>
+    <t>点数：随着点数改变，10点以上的卡为X卡，可以代替任意点数出牌，1点以下为D卡，只能单独打出，不能与其他卡组成牌组打出</t>
   </si>
   <si>
     <t>开始双方有1000hp，hp为0则游戏失败</t>
@@ -150,6 +150,12 @@
     <t>等等</t>
   </si>
   <si>
+    <t>PVP技能</t>
+  </si>
+  <si>
+    <t>红白</t>
+  </si>
+  <si>
     <t>特点：回避伤害，多次伤害</t>
   </si>
   <si>
@@ -174,12 +180,12 @@
     <t>我方打出此牌，额外造成一段伤害</t>
   </si>
   <si>
+    <t>己方打出此牌，额外造成1段伤害</t>
+  </si>
+  <si>
     <t>对方打出此牌，产生伤害时，1段伤害无效</t>
   </si>
   <si>
-    <t>己方打出此牌，额外造成1段伤害</t>
-  </si>
-  <si>
     <t>己方打出此牌，获得2层BUFF，回避2次伤害</t>
   </si>
   <si>
@@ -189,16 +195,19 @@
     <t>己方打出此牌，并产生伤害时，再次造成2遍伤害</t>
   </si>
   <si>
-    <t>己方打出此牌，本回合回避所有伤害</t>
+    <t>己方打出此牌，本轮回避所有伤害</t>
+  </si>
+  <si>
+    <t>黑白</t>
   </si>
   <si>
     <t>特点：攻击加强，窃取卡牌</t>
   </si>
   <si>
-    <t>己方打出此牌，本回合攻击+2</t>
-  </si>
-  <si>
-    <t>任意方打出此牌，本回合我方攻击+3</t>
+    <t>己方打出此牌，本轮攻击+2</t>
+  </si>
+  <si>
+    <t>任意方打出此牌，本轮我方攻击+3</t>
   </si>
   <si>
     <t>己方打出此牌，如果造成伤害，造成的伤害*1.5</t>
@@ -207,22 +216,25 @@
     <t>己方打出此牌，窃取对手1张点数为7的牌，如果没有则给对手造成20点伤害</t>
   </si>
   <si>
+    <t>己方打出此牌，本轮伤害*1.5，包括本次出牌的伤害</t>
+  </si>
+  <si>
     <t>该牌如果参与造成伤害，造成的伤害*2</t>
   </si>
   <si>
-    <t>己方打出此牌，本回合伤害*1.5，包括本次出牌的伤害</t>
-  </si>
-  <si>
     <t>己方打出此牌，攻击永久+2</t>
   </si>
   <si>
-    <t>己方打出此牌，本回合伤害*2，包括本次出牌的伤害</t>
+    <t>己方打出此牌，本轮伤害*2，包括本次出牌的伤害</t>
   </si>
   <si>
     <t>己方打出此牌，此次对抗，我方造成的伤害*3</t>
   </si>
   <si>
-    <t>己方打出此牌，如果造成伤害，额外增加一次本回合所有出牌数*30的伤害，一次性伤害</t>
+    <t>己方打出此牌，如果造成伤害，额外增加一次本轮所有出牌数*30的伤害，一次性伤害</t>
+  </si>
+  <si>
+    <t>pad长</t>
   </si>
   <si>
     <t>特点：直接伤害，牌权</t>
@@ -240,6 +252,9 @@
     <t>己方打出此牌，可以选择再出一次牌</t>
   </si>
   <si>
+    <t>对手打出此牌，受到我方10点3次伤害</t>
+  </si>
+  <si>
     <t>对手打出此牌，受到我方20点3次伤害</t>
   </si>
   <si>
@@ -249,13 +264,16 @@
     <t>己方打出此牌，无论对手是否对抗，直接伤害通过，造成伤害</t>
   </si>
   <si>
-    <t>己方打出此牌，本回合无论谁先出完牌，下回合强制获得先手</t>
+    <t>己方打出此牌，本轮无论谁先出完牌，下轮强制获得先手</t>
   </si>
   <si>
     <t>己方打出此牌，本次对抗自己伤害免疫，并强制获得下次牌权</t>
   </si>
   <si>
-    <t>己方打出此牌，本回合对手无法出牌</t>
+    <t>己方打出此牌，本轮对手无法出牌</t>
+  </si>
+  <si>
+    <t>荷城</t>
   </si>
   <si>
     <t>特点：减伤，护盾</t>
@@ -273,22 +291,25 @@
     <t>任一方打出此牌后，我方获得10护盾</t>
   </si>
   <si>
-    <t>我方打出此牌后，本回合防御+10</t>
-  </si>
-  <si>
-    <t>我方打出此牌后，我方本回合受到伤害*0.8</t>
+    <t>我方打出此牌后，本轮防御+10</t>
+  </si>
+  <si>
+    <t>我方打出此牌后，我方本轮受到伤害*0.8</t>
   </si>
   <si>
     <t>我方打出此牌后，防御永久+1，获得5护盾</t>
   </si>
   <si>
-    <t>任意一方出牌后，我方本回合受到伤害*0.8</t>
+    <t>任意一方出牌后，我方本轮受到伤害*0.8</t>
   </si>
   <si>
     <t>我方打出此牌后，本次对抗按照我方出牌数*10+防御值数获得护盾，如果此次对抗胜利，使用当前护盾值造成伤害并清除护盾值</t>
   </si>
   <si>
-    <t>我方打出此牌后，2回合内护盾获得反伤被动效果</t>
+    <t>我方打出此牌后，2轮内护盾获得反伤被动效果</t>
+  </si>
+  <si>
+    <t>⑨</t>
   </si>
   <si>
     <t>特点：控制，扰乱</t>
@@ -300,10 +321,10 @@
     <t>对手打出此牌，如果对抗产生伤害，伤害减少2段</t>
   </si>
   <si>
-    <t>任一方打出此牌，我方获得一张临时通用5点牌，临时牌本回合结束后消失</t>
-  </si>
-  <si>
-    <t>任一方打出此牌，对方获得一张临时通用6点牌，临时牌本回合结束后消失</t>
+    <t>任一方打出此牌，我方获得一张临时通用5点牌，临时牌本轮结束后消失</t>
+  </si>
+  <si>
+    <t>任一方打出此牌，对方获得一张临时通用6点牌，临时牌本轮结束后消失</t>
   </si>
   <si>
     <t>对手打出此牌，受到50点伤害，我方获得此牌</t>
@@ -318,16 +339,22 @@
     <t>对手打出此牌，对抗强制结束，伤害不计，我方获得牌权</t>
   </si>
   <si>
-    <t>对手打出此牌后，本回合无法再次出牌</t>
+    <t>对手打出此牌后，本轮无法再次出牌</t>
   </si>
   <si>
     <t>我方持有此牌相当于X牌，对手持有此牌相当于0点牌</t>
   </si>
   <si>
+    <t>我方持有此牌相当于X牌，对手持有此牌相当于D点牌</t>
+  </si>
+  <si>
+    <t>大小姐</t>
+  </si>
+  <si>
     <t>特点：吸血，控制牌</t>
   </si>
   <si>
-    <t>如果被丢弃，对手下回合第一张将抽取此牌</t>
+    <t>如果被丢弃，对手下轮第一张将抽取此牌</t>
   </si>
   <si>
     <t>打出此牌，从牌堆抽取1张牌，再丢弃1张牌</t>
@@ -354,18 +381,24 @@
     <t>任意一方打出此牌，我方从牌组抽取5张牌，再从手牌选择0-5张送给对手或丢弃</t>
   </si>
   <si>
+    <t>二妹</t>
+  </si>
+  <si>
     <t>特点：吸血，毁灭牌</t>
   </si>
   <si>
-    <t>我方持有时，回合开始直接丢弃此牌</t>
-  </si>
-  <si>
-    <t>我方持有时，回合开始直接毁灭此牌，毁灭：同名牌在本局游戏中不再出现，复制牌也被视作同名牌，会从牌堆去掉</t>
+    <t>我方持有时，轮开始直接丢弃此牌</t>
+  </si>
+  <si>
+    <t>我方持有时，轮开始直接毁灭此牌，毁灭：同名牌在本局游戏中不再出现，复制牌也被视作同名牌，会从牌堆去掉</t>
   </si>
   <si>
     <t>己方打出此牌后，如果造成伤害，吸取30%伤害的生命</t>
   </si>
   <si>
+    <t>己方打出此牌，如果对方出牌对抗，此牌与对抗牌的最大点数的随机1张同时毁灭,对对方造成50伤害</t>
+  </si>
+  <si>
     <t>己方打出此牌，选择0-1张牌丢弃</t>
   </si>
   <si>
@@ -375,10 +408,16 @@
     <t>任意一方打出此牌，对手收到已毁灭的牌*10点伤害</t>
   </si>
   <si>
-    <t>己方打出此牌，对手本回合的弃牌均会毁灭，每毁灭一张造成50伤害，回合结束后此牌毁灭</t>
-  </si>
-  <si>
-    <t>己方打出此牌，本回合对手每次的出牌都会毁灭并对对手造成出牌*10伤害，回合结束此牌毁灭</t>
+    <t>己方打出此牌，此次对抗造成的任何伤害50%恢复己方生命</t>
+  </si>
+  <si>
+    <t>己方打出此牌，对手本轮的弃牌均会毁灭，每毁灭一张造成50伤害，轮结束后此牌毁灭</t>
+  </si>
+  <si>
+    <t>己方打出此牌，本轮对手每次的出牌都会毁灭并对对手造成出牌*10伤害，轮结束此牌毁灭</t>
+  </si>
+  <si>
+    <t>小五</t>
   </si>
   <si>
     <t>特点：看对手牌，交换牌</t>
@@ -396,22 +435,25 @@
     <t>打出此牌，指定手中1张与看到的牌指定1张交换，如果没有看到的牌，则不交换</t>
   </si>
   <si>
-    <t>任意一方打出此牌，造成看牌数*10伤害，我方看牌数-1</t>
+    <t>任意一方打出此牌，造成看牌数*10伤害，我方看牌数-2</t>
   </si>
   <si>
     <t>出此牌时，可复制一张牌看到的牌来成牌</t>
   </si>
   <si>
-    <t>对手打出此牌，本次游戏看牌数+2，本回合看牌数暂时+3</t>
-  </si>
-  <si>
-    <t>打出此牌，我方看到的对手的牌本回合不发动任何效果，当作通用牌使用</t>
-  </si>
-  <si>
-    <t>打出此牌，本回合对手展示所有牌，并同时造成牌数*10的伤害</t>
-  </si>
-  <si>
-    <t>任意一方打出此牌后，3回合内我方可以看到对手所有牌</t>
+    <t>对手打出此牌，本次游戏看牌数+2，本轮看牌数暂时+3</t>
+  </si>
+  <si>
+    <t>打出此牌，我方看到的对手的牌本轮不发动任何效果，当作通用牌使用</t>
+  </si>
+  <si>
+    <t>打出此牌，本轮对手展示所有牌，并同时造成牌数*10的伤害</t>
+  </si>
+  <si>
+    <t>任意一方打出此牌后，3轮内我方可以看到对手所有牌</t>
+  </si>
+  <si>
+    <t>恋恋</t>
   </si>
   <si>
     <t>特点：修改对手牌，交换牌</t>
@@ -420,15 +462,18 @@
     <t>我方持有此牌时，对抗胜利后可以用此牌交换一张对的随机手牌</t>
   </si>
   <si>
+    <t>我方打出此牌，对手随机丢弃一张牌并把此牌放入手牌</t>
+  </si>
+  <si>
     <t>我方持有此牌时，对抗失败后可以用此牌交换一张对的随机手牌</t>
   </si>
   <si>
-    <t>我方打出此牌，对手随机丢弃一张牌并把此牌放入手牌</t>
-  </si>
-  <si>
     <t>我方使用此牌打出组牌时，可以利用对手1张牌当作X点牌使用，但是会相当于对手出那1张牌发动效果</t>
   </si>
   <si>
+    <t>我方使用此牌打出组牌时，可以利用对手最大1张牌当作X点牌使用，但是会相当于对手出那1张牌，可能会发动效果</t>
+  </si>
+  <si>
     <t>我方打出此牌时，可以选择0-2张手牌与对手随机牌交换</t>
   </si>
   <si>
@@ -438,13 +483,16 @@
     <t>任一方打出此牌，对手随机丢弃一张牌并把此牌放入手牌，并且此牌点数修改为1</t>
   </si>
   <si>
+    <t>己方打出此牌，把一张d点通用牌的复制加入对手手牌</t>
+  </si>
+  <si>
     <t>己方打出此牌，对手丢弃1张最大点数手牌，然后抽两张牌</t>
   </si>
   <si>
-    <t>己方打出此牌，把1点，3点两张通用牌的复制加入对手手牌</t>
-  </si>
-  <si>
-    <t>此牌在牌堆或弃牌堆时，回合开始加入手牌，点数为X，同时对手回合开始加入一张0点通用牌</t>
+    <t>此牌在牌堆或弃牌堆时，轮开始加入手牌，点数为X，同时对手轮开始加入一张0点通用牌</t>
+  </si>
+  <si>
+    <t>记者</t>
   </si>
   <si>
     <t>特点：额外出牌，复制对手牌</t>
@@ -471,6 +519,9 @@
     <t>己方打出此牌，复制对手所有7以上的牌，点数修改为10</t>
   </si>
   <si>
+    <t>己方打出此牌时，所有复制牌可以选择附带随之打出</t>
+  </si>
+  <si>
     <t>己方打出此牌时，所有复制牌可以选择随之打出</t>
   </si>
   <si>
@@ -480,25 +531,31 @@
     <t>己方持有此牌时，所有复制牌点数均为X点</t>
   </si>
   <si>
+    <t>阿空</t>
+  </si>
+  <si>
     <t>特点：增强点数，增强牌数</t>
   </si>
   <si>
+    <t>特点：增强点数，增强牌数，炸弹</t>
+  </si>
+  <si>
     <t>我方持有时，此牌点数为3</t>
   </si>
   <si>
-    <t>我方持有时，此牌点数为5</t>
-  </si>
-  <si>
-    <t>我方打出此牌，本回合所有手牌点数+1，最多10点</t>
-  </si>
-  <si>
-    <t>我方打出此牌，本回合所有手牌点数+1，10点会变为X点</t>
-  </si>
-  <si>
-    <t>我方持有时，此牌至多可当作2张通常牌使用</t>
-  </si>
-  <si>
-    <t>我方打出此牌，本回合我方炸弹造成伤害*1.5</t>
+    <t>我方持有时，此牌点数为6</t>
+  </si>
+  <si>
+    <t>我方打出此牌，本轮所有手牌点数+1，最多10点</t>
+  </si>
+  <si>
+    <t>我方打出此牌，本轮所有手牌点数+1，10点会变为X点</t>
+  </si>
+  <si>
+    <t>我方持有时，此牌至多可当作2张6点通常牌使用</t>
+  </si>
+  <si>
+    <t>我方打出此牌，本轮我方炸弹造成伤害*1.5</t>
   </si>
   <si>
     <t>我方持有时，此牌至多可当作3张通常牌使用</t>
@@ -513,10 +570,13 @@
     <t>我方持有时，此牌变为3张通常的X牌</t>
   </si>
   <si>
+    <t>中国</t>
+  </si>
+  <si>
     <t>特点：连续攻击增强，对抗优势</t>
   </si>
   <si>
-    <t>我方打出此牌，如果造成伤害，本回合所有伤害*2</t>
+    <t>我方打出此牌，如果造成伤害，本轮所有伤害*2</t>
   </si>
   <si>
     <t>我方打出此牌，此对抗结束前，所有牌点数+1</t>
@@ -525,16 +585,16 @@
     <t>我方打出此牌，如果造成伤害，则每段伤害递增2点</t>
   </si>
   <si>
-    <t>我方打出此牌后，本回合我方造成每次伤害增加5*出牌次数</t>
-  </si>
-  <si>
-    <t>我方带有此牌打出时，打出的牌组所有点数+1，如果有牌超过10点，则直接造成伤害，对抗直接胜利</t>
+    <t>我方打出此牌后，本轮我方造成每次伤害增加5*出牌次数</t>
+  </si>
+  <si>
+    <t>我方带有此牌打出时，打出的牌组所有点数+1</t>
   </si>
   <si>
     <t>我方打出此牌，如果造成伤害，根据对抗胜利次数再次造成牌组伤害</t>
   </si>
   <si>
-    <t>我方带有此牌打出时，打出牌组所有点数再增加此次对抗出牌次数，如果突破10点则直接造成伤害，对抗直接胜利</t>
+    <t>我方带有此牌打出时，打出的牌组所有点数+2，如果突破10点则直接造成伤害，对抗直接胜利</t>
   </si>
   <si>
     <t>我方打出此牌，如果造成伤害，如果上次对抗胜利，则伤害*3</t>
@@ -546,18 +606,21 @@
     <t>我方打出此牌，如果为终结牌，则额外再造成999伤害</t>
   </si>
   <si>
+    <t>饼梦</t>
+  </si>
+  <si>
     <t>特点：复制牌，反击</t>
   </si>
   <si>
     <t>我方打出此牌，加入一张通常4的复制</t>
   </si>
   <si>
+    <t>我方打出此牌，下次对我方伤害的20%反击给对方</t>
+  </si>
+  <si>
     <t>我方打出此牌，加入一张通常6的复制</t>
   </si>
   <si>
-    <t>我方打出此牌，下次对我方伤害的20%反击给对方</t>
-  </si>
-  <si>
     <t>我方打出此牌，下次对我方伤害的30%反击给对方</t>
   </si>
   <si>
@@ -570,13 +633,16 @@
     <t>我方获得此牌时，获得2张复制的7点通常牌</t>
   </si>
   <si>
-    <t>我方打出此牌，本回合针对我方伤害的50%反击给对手</t>
-  </si>
-  <si>
     <t>我方打出此牌，复制上一次我方出牌发动的效果</t>
   </si>
   <si>
-    <t>我方打出此牌后，本回合受到任何伤害由对方承受</t>
+    <t>我方打出此牌，本轮针对我方伤害的50%反击给对手</t>
+  </si>
+  <si>
+    <t>我方打出此牌后，本轮受到任何伤害由对方承受</t>
+  </si>
+  <si>
+    <t>UUZ</t>
   </si>
   <si>
     <t>特点：衰退对手牌，失效对手牌</t>
@@ -591,19 +657,25 @@
     <t>对手打出此牌，如果造成伤害，则伤害*0.5</t>
   </si>
   <si>
-    <t>对手打出此牌，本回合受到伤害*0.8</t>
+    <t>对手打出此牌，本轮受到伤害*0.8</t>
+  </si>
+  <si>
+    <t>我方打出此牌，本轮，对手所有手牌点数-1，X牌变为10点</t>
   </si>
   <si>
     <t>对手持有此牌，对手所有手牌点数-1，最小1点，X牌变为10点</t>
   </si>
   <si>
-    <t>我方打出此牌，本回合，对手所有手牌点数-1，最小1点，X牌变为10点</t>
+    <t>我方打出此牌，本轮，对手所有手牌点数-1，最小1点，X牌变为10点</t>
   </si>
   <si>
     <t>我方打出此牌，对手炸弹要求牌数+1</t>
   </si>
   <si>
-    <t>对手打出此牌，本回合，其他手牌点数-1，最小1点，X牌变为10</t>
+    <t>对手打出此牌，本轮，其他手牌点数-1，X牌变为10</t>
+  </si>
+  <si>
+    <t>对手打出此牌，本轮，其他手牌点数-1，最小1点，X牌变为10</t>
   </si>
   <si>
     <t>我方打出此牌，对手所有牌变为相同点数的通用牌的复制</t>
@@ -612,6 +684,9 @@
     <t>我方每次获得此牌，添加一个指示计，如果指示计到达3个，则直接胜利</t>
   </si>
   <si>
+    <t>BB</t>
+  </si>
+  <si>
     <t>特点：换牌，弃牌，回手牌</t>
   </si>
   <si>
@@ -621,25 +696,25 @@
     <t>我方打出此牌，对手点数最大的牌随机丢弃1张，对方再抽取3张牌</t>
   </si>
   <si>
-    <t>我方打出此牌，本回合，双方每丢弃一张牌，对手受到10点伤害</t>
-  </si>
-  <si>
-    <t>我方打出此牌，下回合开始可以选择从弃牌堆选择1张加入手牌</t>
-  </si>
-  <si>
-    <t>我方打出此牌，本回合的任何弃牌可以选择下回合获得到手牌</t>
+    <t>我方打出此牌，本轮，双方每丢弃一张牌，对手受到10点伤害</t>
+  </si>
+  <si>
+    <t>我方打出此牌，下轮开始可以选择从弃牌堆选择1张加入手牌</t>
+  </si>
+  <si>
+    <t>我方打出此牌，本轮的任何弃牌可以选择下轮获得到手牌</t>
   </si>
   <si>
     <t>对手打出此牌，我方可以选择0-5张牌丢弃</t>
   </si>
   <si>
-    <t>我方打出此牌，下一回合可以选择再次回到手牌，再次回到手牌点数+1，最多加到X点</t>
-  </si>
-  <si>
-    <t>我方打出此牌，所出的牌下回合可选择再次回到手牌，回到手牌时对对手造成一次伤害</t>
-  </si>
-  <si>
-    <t>对方打出或弃掉此牌，对方受到80伤害，对手获得此牌时，点数为1，只能单牌打出，回合开始时，从牌堆。弃牌堆进入对方手牌</t>
+    <t>我方打出此牌，所出的牌下轮可选择再次回到手牌，回到手牌时对对手造成一次20点伤害</t>
+  </si>
+  <si>
+    <t>我方打出此牌，下一轮可以选择再次回到手牌，再次回到手牌点数+1，最多加到X点</t>
+  </si>
+  <si>
+    <t>对方打出或弃掉此牌，对方受到80伤害，对手获得此牌时，点数为d牌，轮开始时，从牌堆。弃牌堆进入对方手牌</t>
   </si>
   <si>
     <t>吴</t>
@@ -653,10 +728,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -668,45 +743,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -721,7 +772,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -729,14 +788,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -757,15 +817,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -780,7 +842,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -788,15 +850,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -810,8 +864,29 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -826,7 +901,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,7 +1021,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,91 +1057,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,73 +1081,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,56 +1098,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1109,17 +1145,50 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1131,10 +1200,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1143,34 +1212,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1179,101 +1251,98 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1284,9 +1353,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1642,8 +1708,8 @@
   <sheetPr/>
   <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1661,7 +1727,7 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2078,10 +2144,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:I195"/>
+  <dimension ref="A1:S195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="O137" sqref="O137"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I199" sqref="I199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2090,31 +2156,65 @@
     <col min="4" max="4" width="6.88333333333333" customWidth="1"/>
     <col min="5" max="5" width="9.11666666666667" customWidth="1"/>
     <col min="6" max="6" width="9.7" customWidth="1"/>
+    <col min="14" max="14" width="6.63333333333333" customWidth="1"/>
+    <col min="15" max="15" width="6.88333333333333" customWidth="1"/>
+    <col min="16" max="16" width="9.11666666666667" customWidth="1"/>
+    <col min="17" max="17" width="9.7" customWidth="1"/>
+    <col min="19" max="19" width="17.7833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="1" spans="13:13">
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
       <c r="C2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
+        <v>46</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16">
       <c r="B3" t="s">
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="2:8">
+      <c r="O3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -2125,13 +2225,31 @@
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:5">
+      <c r="M4" s="1">
+        <f>B4</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <f>C4</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <f>D4</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="2:19">
       <c r="B5">
         <v>2</v>
       </c>
@@ -2142,10 +2260,28 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+        <v>51</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" ref="M5:M13" si="0">B5</f>
+        <v>2</v>
+      </c>
+      <c r="N5" s="1">
+        <f>C5</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="2:19">
       <c r="B6">
         <v>3</v>
       </c>
@@ -2156,10 +2292,28 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N6" s="1">
+        <f>C6</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <f>D6</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="2:5">
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="2:19">
       <c r="B7">
         <v>4</v>
       </c>
@@ -2170,10 +2324,28 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+        <v>53</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N7" s="1">
+        <f>C7</f>
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <f>D7</f>
+        <v>1</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="2:19">
       <c r="B8">
         <v>5</v>
       </c>
@@ -2184,10 +2356,28 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
+        <v>55</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N8" s="1">
+        <f>C8</f>
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
+        <f>D8</f>
+        <v>1</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="2:19">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -2198,13 +2388,31 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="2:5">
+      <c r="M9" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N9" s="1">
+        <f>C9</f>
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
+        <f>D9</f>
+        <v>1</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="2:19">
       <c r="B10">
         <v>7</v>
       </c>
@@ -2215,10 +2423,28 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
+        <v>56</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N10" s="1">
+        <f>C10</f>
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <f>D10</f>
+        <v>1</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="2:19">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -2229,14 +2455,32 @@
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="2:5">
+      <c r="M11" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N11" s="1">
+        <f>C11</f>
+        <v>2</v>
+      </c>
+      <c r="O11" s="1">
+        <f>D11</f>
+        <v>2</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="2:19">
       <c r="B12">
         <v>9</v>
       </c>
@@ -2247,10 +2491,28 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
+        <v>58</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" ref="N12:N26" si="1">C12</f>
+        <v>2</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" ref="O12:O26" si="2">D12</f>
+        <v>2</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="2:19">
       <c r="B13" s="1">
         <v>10</v>
       </c>
@@ -2261,37 +2523,80 @@
         <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
+      <c r="M13" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
     </row>
     <row r="14" ht="27" customHeight="1"/>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:14">
       <c r="A15">
         <f>A2+1</f>
         <v>2</v>
       </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
       <c r="C15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
+        <v>61</v>
+      </c>
+      <c r="L15">
+        <f>L2+1</f>
+        <v>2</v>
+      </c>
+      <c r="M15" t="s">
+        <v>60</v>
+      </c>
+      <c r="N15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16">
       <c r="B16" t="s">
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="2:5">
+      <c r="O16" t="s">
+        <v>48</v>
+      </c>
+      <c r="P16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19">
       <c r="B17">
         <v>1</v>
       </c>
@@ -2302,10 +2607,28 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
+        <v>62</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" ref="M17:M26" si="3">B17</f>
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="2:19">
       <c r="B18" s="1">
         <v>2</v>
       </c>
@@ -2316,13 +2639,31 @@
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="2:5">
+      <c r="M18" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="2:19">
       <c r="B19">
         <v>3</v>
       </c>
@@ -2333,10 +2674,28 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
+        <v>64</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="2:19">
       <c r="B20">
         <v>4</v>
       </c>
@@ -2347,10 +2706,28 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
+        <v>65</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" spans="2:19">
       <c r="B21">
         <v>5</v>
       </c>
@@ -2361,10 +2738,28 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
+        <v>67</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="2:19">
       <c r="B22" s="1">
         <v>6</v>
       </c>
@@ -2375,14 +2770,32 @@
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="2:8">
+      <c r="M22" s="1">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="2:19">
       <c r="B23" s="1">
         <v>7</v>
       </c>
@@ -2393,13 +2806,31 @@
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="2:5">
+      <c r="M23" s="1">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="2:19">
       <c r="B24">
         <v>8</v>
       </c>
@@ -2410,10 +2841,28 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
+        <v>69</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="2:19">
       <c r="B25">
         <v>9</v>
       </c>
@@ -2424,10 +2873,28 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
+        <v>70</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="2:19">
       <c r="B26" s="1">
         <v>10</v>
       </c>
@@ -2438,34 +2905,74 @@
         <v>2</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
+      <c r="M26" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
     </row>
     <row r="27" ht="30" customHeight="1"/>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:14">
       <c r="A28">
         <f>A15+1</f>
         <v>3</v>
       </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
       <c r="C28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
+        <v>73</v>
+      </c>
+      <c r="L28">
+        <f>L15+1</f>
+        <v>3</v>
+      </c>
+      <c r="M28" t="s">
+        <v>72</v>
+      </c>
+      <c r="N28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15">
       <c r="B29" t="s">
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
+        <v>48</v>
+      </c>
+      <c r="M29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N29" t="s">
+        <v>47</v>
+      </c>
+      <c r="O29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19">
       <c r="B30" s="1">
         <v>1</v>
       </c>
@@ -2476,13 +2983,31 @@
         <v>0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="2:5">
+      <c r="M30" s="1">
+        <f t="shared" ref="M30:M39" si="4">B30</f>
+        <v>1</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" ref="N30:N39" si="5">C30</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" ref="O30:O39" si="6">D30</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31" spans="2:19">
       <c r="B31">
         <v>2</v>
       </c>
@@ -2493,10 +3018,28 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5">
+        <v>75</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N31" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32" spans="2:19">
       <c r="B32">
         <v>3</v>
       </c>
@@ -2507,10 +3050,28 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
+        <v>76</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="N32" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="2:19">
       <c r="B33">
         <v>4</v>
       </c>
@@ -2521,10 +3082,28 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
+        <v>77</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="N33" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="2:19">
       <c r="B34" s="1">
         <v>5</v>
       </c>
@@ -2535,13 +3114,31 @@
         <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="2:5">
+      <c r="M34" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="N34" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O34" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+    </row>
+    <row r="35" spans="2:19">
       <c r="B35">
         <v>6</v>
       </c>
@@ -2552,10 +3149,28 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5">
+        <v>80</v>
+      </c>
+      <c r="M35" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="N35" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O35" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+    </row>
+    <row r="36" spans="2:19">
       <c r="B36">
         <v>7</v>
       </c>
@@ -2566,10 +3181,28 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8">
+        <v>81</v>
+      </c>
+      <c r="M36" s="1">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="N36" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O36" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+    </row>
+    <row r="37" spans="2:19">
       <c r="B37" s="1">
         <v>8</v>
       </c>
@@ -2580,13 +3213,31 @@
         <v>2</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="2:5">
+      <c r="M37" s="1">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="N37" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="O37" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+    </row>
+    <row r="38" spans="2:19">
       <c r="B38">
         <v>9</v>
       </c>
@@ -2597,10 +3248,28 @@
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8">
+        <v>83</v>
+      </c>
+      <c r="M38" s="1">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="N38" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="O38" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+    </row>
+    <row r="39" spans="2:19">
       <c r="B39" s="1">
         <v>10</v>
       </c>
@@ -2611,33 +3280,73 @@
         <v>2</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="M39" s="1">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="N39" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="O39" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41">
         <f>A28+1</f>
         <v>4</v>
       </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
       <c r="C41" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
+        <v>86</v>
+      </c>
+      <c r="L41">
+        <f>L28+1</f>
+        <v>4</v>
+      </c>
+      <c r="M41" t="s">
+        <v>85</v>
+      </c>
+      <c r="N41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15">
       <c r="B42" t="s">
         <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D42" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5">
+        <v>48</v>
+      </c>
+      <c r="M42" t="s">
+        <v>29</v>
+      </c>
+      <c r="N42" t="s">
+        <v>47</v>
+      </c>
+      <c r="O42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19">
       <c r="B43">
         <v>1</v>
       </c>
@@ -2648,10 +3357,28 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8">
+        <v>87</v>
+      </c>
+      <c r="M43" s="1">
+        <f t="shared" ref="M43:M52" si="7">B43</f>
+        <v>1</v>
+      </c>
+      <c r="N43" s="1">
+        <f t="shared" ref="N43:N52" si="8">C43</f>
+        <v>0</v>
+      </c>
+      <c r="O43" s="1">
+        <f t="shared" ref="O43:O52" si="9">D43</f>
+        <v>1</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+    </row>
+    <row r="44" spans="2:19">
       <c r="B44" s="1">
         <v>2</v>
       </c>
@@ -2662,13 +3389,31 @@
         <v>1</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="2:5">
+      <c r="M44" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="N44" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+    </row>
+    <row r="45" spans="2:19">
       <c r="B45">
         <v>3</v>
       </c>
@@ -2679,10 +3424,28 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8">
+        <v>89</v>
+      </c>
+      <c r="M45" s="1">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="N45" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+    </row>
+    <row r="46" spans="2:19">
       <c r="B46" s="1">
         <v>4</v>
       </c>
@@ -2693,13 +3456,31 @@
         <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="2:5">
+      <c r="M46" s="1">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="N46" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+    </row>
+    <row r="47" spans="2:19">
       <c r="B47">
         <v>5</v>
       </c>
@@ -2710,10 +3491,28 @@
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5">
+        <v>91</v>
+      </c>
+      <c r="M47" s="1">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="N47" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+    </row>
+    <row r="48" spans="2:19">
       <c r="B48">
         <v>6</v>
       </c>
@@ -2724,10 +3523,28 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8">
+        <v>92</v>
+      </c>
+      <c r="M48" s="1">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="N48" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O48" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+    </row>
+    <row r="49" spans="2:19">
       <c r="B49" s="1">
         <v>7</v>
       </c>
@@ -2738,13 +3555,31 @@
         <v>3</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="2:5">
+      <c r="M49" s="1">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="N49" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O49" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+    </row>
+    <row r="50" spans="2:19">
       <c r="B50">
         <v>8</v>
       </c>
@@ -2755,10 +3590,28 @@
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5">
+        <v>94</v>
+      </c>
+      <c r="M50" s="1">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="N50" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O50" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+    </row>
+    <row r="51" spans="2:19">
       <c r="B51">
         <v>9</v>
       </c>
@@ -2769,10 +3622,28 @@
         <v>4</v>
       </c>
       <c r="E51" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8">
+        <v>95</v>
+      </c>
+      <c r="M51" s="1">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="N51" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O51" s="1">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+    </row>
+    <row r="52" spans="2:19">
       <c r="B52" s="1">
         <v>10</v>
       </c>
@@ -2783,33 +3654,73 @@
         <v>4</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="M52" s="1">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="N52" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O52" s="1">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54">
         <f>A41+1</f>
         <v>5</v>
       </c>
+      <c r="B54" t="s">
+        <v>97</v>
+      </c>
       <c r="C54" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4">
+        <v>98</v>
+      </c>
+      <c r="L54">
+        <f>L41+1</f>
+        <v>5</v>
+      </c>
+      <c r="M54" t="s">
+        <v>97</v>
+      </c>
+      <c r="N54" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15">
       <c r="B55" t="s">
         <v>29</v>
       </c>
       <c r="C55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D55" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5">
+        <v>48</v>
+      </c>
+      <c r="M55" t="s">
+        <v>29</v>
+      </c>
+      <c r="N55" t="s">
+        <v>47</v>
+      </c>
+      <c r="O55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19">
       <c r="B56">
         <v>1</v>
       </c>
@@ -2820,10 +3731,28 @@
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8">
+        <v>99</v>
+      </c>
+      <c r="M56" s="1">
+        <f t="shared" ref="M56:M65" si="10">B56</f>
+        <v>1</v>
+      </c>
+      <c r="N56" s="1">
+        <f t="shared" ref="N56:N65" si="11">C56</f>
+        <v>0</v>
+      </c>
+      <c r="O56" s="1">
+        <f t="shared" ref="O56:O65" si="12">D56</f>
+        <v>0</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+    </row>
+    <row r="57" spans="2:19">
       <c r="B57" s="1">
         <v>2</v>
       </c>
@@ -2834,13 +3763,31 @@
         <v>0</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="2:5">
+      <c r="M57" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="N57" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O57" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+    </row>
+    <row r="58" spans="2:19">
       <c r="B58">
         <v>3</v>
       </c>
@@ -2851,10 +3798,28 @@
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5">
+        <v>101</v>
+      </c>
+      <c r="M58" s="1">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="N58" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O58" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+    </row>
+    <row r="59" spans="2:19">
       <c r="B59">
         <v>4</v>
       </c>
@@ -2865,10 +3830,28 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8">
+        <v>102</v>
+      </c>
+      <c r="M59" s="1">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="N59" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O59" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+    </row>
+    <row r="60" spans="2:19">
       <c r="B60" s="1">
         <v>5</v>
       </c>
@@ -2879,13 +3862,31 @@
         <v>1</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="2:5">
+      <c r="M60" s="1">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="N60" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O60" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+    </row>
+    <row r="61" spans="2:19">
       <c r="B61">
         <v>6</v>
       </c>
@@ -2896,10 +3897,28 @@
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5">
+        <v>104</v>
+      </c>
+      <c r="M61" s="1">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="N61" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="O61" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+    </row>
+    <row r="62" spans="2:19">
       <c r="B62">
         <v>7</v>
       </c>
@@ -2910,10 +3929,28 @@
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8">
+        <v>105</v>
+      </c>
+      <c r="M62" s="1">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="N62" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="O62" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+    </row>
+    <row r="63" spans="2:19">
       <c r="B63" s="1">
         <v>8</v>
       </c>
@@ -2924,13 +3961,31 @@
         <v>2</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-    </row>
-    <row r="64" spans="2:5">
+      <c r="M63" s="1">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="N63" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="O63" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+    </row>
+    <row r="64" spans="2:19">
       <c r="B64">
         <v>9</v>
       </c>
@@ -2941,10 +3996,28 @@
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8">
+        <v>107</v>
+      </c>
+      <c r="M64" s="1">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="N64" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="O64" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+    </row>
+    <row r="65" spans="2:19">
       <c r="B65" s="1">
         <v>10</v>
       </c>
@@ -2955,33 +4028,73 @@
         <v>3</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="M65" s="1">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="N65" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="O65" s="1">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67">
         <f>A54+1</f>
         <v>6</v>
       </c>
+      <c r="B67" t="s">
+        <v>110</v>
+      </c>
       <c r="C67" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4">
+        <v>111</v>
+      </c>
+      <c r="L67">
+        <f>L54+1</f>
+        <v>6</v>
+      </c>
+      <c r="M67" t="s">
+        <v>110</v>
+      </c>
+      <c r="N67" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15">
       <c r="B68" t="s">
         <v>29</v>
       </c>
       <c r="C68" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D68" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5">
+        <v>48</v>
+      </c>
+      <c r="M68" t="s">
+        <v>29</v>
+      </c>
+      <c r="N68" t="s">
+        <v>47</v>
+      </c>
+      <c r="O68" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19">
       <c r="B69">
         <v>1</v>
       </c>
@@ -2992,10 +4105,28 @@
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8">
+        <v>112</v>
+      </c>
+      <c r="M69" s="1">
+        <f t="shared" ref="M69:M78" si="13">B69</f>
+        <v>1</v>
+      </c>
+      <c r="N69" s="1">
+        <f t="shared" ref="N69:N78" si="14">C69</f>
+        <v>1</v>
+      </c>
+      <c r="O69" s="1">
+        <f t="shared" ref="O69:O78" si="15">D69</f>
+        <v>0</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+    </row>
+    <row r="70" spans="2:19">
       <c r="B70" s="1">
         <v>2</v>
       </c>
@@ -3006,13 +4137,31 @@
         <v>0</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
-    </row>
-    <row r="71" spans="2:5">
+      <c r="M70" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="N70" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="O70" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+    </row>
+    <row r="71" spans="2:19">
       <c r="B71">
         <v>3</v>
       </c>
@@ -3023,10 +4172,28 @@
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8">
+        <v>114</v>
+      </c>
+      <c r="M71" s="1">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="N71" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="O71" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+    </row>
+    <row r="72" spans="2:19">
       <c r="B72" s="1">
         <v>4</v>
       </c>
@@ -3037,13 +4204,31 @@
         <v>1</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
-    </row>
-    <row r="73" spans="2:5">
+      <c r="M72" s="1">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="N72" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="O72" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+    </row>
+    <row r="73" spans="2:19">
       <c r="B73">
         <v>5</v>
       </c>
@@ -3054,10 +4239,28 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5">
+        <v>115</v>
+      </c>
+      <c r="M73" s="1">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="N73" s="1">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="O73" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+    </row>
+    <row r="74" spans="2:19">
       <c r="B74">
         <v>6</v>
       </c>
@@ -3068,10 +4271,28 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8">
+        <v>116</v>
+      </c>
+      <c r="M74" s="1">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="N74" s="1">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="O74" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+    </row>
+    <row r="75" spans="2:19">
       <c r="B75" s="1">
         <v>7</v>
       </c>
@@ -3082,13 +4303,31 @@
         <v>2</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
-    </row>
-    <row r="76" spans="2:5">
+      <c r="M75" s="1">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="N75" s="1">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="O75" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+    </row>
+    <row r="76" spans="2:19">
       <c r="B76">
         <v>8</v>
       </c>
@@ -3099,10 +4338,28 @@
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5">
+        <v>118</v>
+      </c>
+      <c r="M76" s="1">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="N76" s="1">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="O76" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+    </row>
+    <row r="77" spans="2:19">
       <c r="B77">
         <v>9</v>
       </c>
@@ -3113,10 +4370,28 @@
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8">
+        <v>119</v>
+      </c>
+      <c r="M77" s="1">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="N77" s="1">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="O77" s="1">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+    </row>
+    <row r="78" spans="2:19">
       <c r="B78" s="1">
         <v>10</v>
       </c>
@@ -3127,33 +4402,73 @@
         <v>3</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="M78" s="1">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="N78" s="1">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="O78" s="1">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80">
         <f>A67+1</f>
         <v>7</v>
       </c>
+      <c r="B80" t="s">
+        <v>121</v>
+      </c>
       <c r="C80" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4">
+        <v>122</v>
+      </c>
+      <c r="L80">
+        <f>L67+1</f>
+        <v>7</v>
+      </c>
+      <c r="M80" t="s">
+        <v>121</v>
+      </c>
+      <c r="N80" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15">
       <c r="B81" t="s">
         <v>29</v>
       </c>
       <c r="C81" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D81" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5">
+        <v>48</v>
+      </c>
+      <c r="M81" t="s">
+        <v>29</v>
+      </c>
+      <c r="N81" t="s">
+        <v>47</v>
+      </c>
+      <c r="O81" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="2:19">
       <c r="B82">
         <v>1</v>
       </c>
@@ -3164,10 +4479,28 @@
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8">
+        <v>123</v>
+      </c>
+      <c r="M82" s="1">
+        <f t="shared" ref="M82:M91" si="16">B82</f>
+        <v>1</v>
+      </c>
+      <c r="N82" s="1">
+        <f t="shared" ref="N82:N91" si="17">C82</f>
+        <v>1</v>
+      </c>
+      <c r="O82" s="1">
+        <f t="shared" ref="O82:O91" si="18">D82</f>
+        <v>0</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+    </row>
+    <row r="83" spans="2:19">
       <c r="B83" s="1">
         <v>2</v>
       </c>
@@ -3178,13 +4511,31 @@
         <v>0</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
-    </row>
-    <row r="84" spans="2:5">
+      <c r="M83" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="N83" s="1">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="O83" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+    </row>
+    <row r="84" spans="2:19">
       <c r="B84">
         <v>3</v>
       </c>
@@ -3195,10 +4546,28 @@
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5">
+        <v>125</v>
+      </c>
+      <c r="M84" s="1">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="N84" s="1">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="O84" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+    </row>
+    <row r="85" spans="2:19">
       <c r="B85">
         <v>4</v>
       </c>
@@ -3209,10 +4578,28 @@
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5">
+        <v>114</v>
+      </c>
+      <c r="M85" s="1">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="N85" s="1">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="O85" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+    </row>
+    <row r="86" spans="2:19">
       <c r="B86">
         <v>5</v>
       </c>
@@ -3223,10 +4610,28 @@
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8">
+        <v>127</v>
+      </c>
+      <c r="M86" s="1">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="N86" s="1">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="O86" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+    </row>
+    <row r="87" spans="2:19">
       <c r="B87" s="1">
         <v>6</v>
       </c>
@@ -3237,13 +4642,31 @@
         <v>1</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
-    </row>
-    <row r="88" spans="2:5">
+      <c r="M87" s="1">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="N87" s="1">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="O87" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+    </row>
+    <row r="88" spans="2:19">
       <c r="B88">
         <v>7</v>
       </c>
@@ -3254,10 +4677,28 @@
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8">
+        <v>129</v>
+      </c>
+      <c r="M88" s="1">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="N88" s="1">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="O88" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="P88" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+    </row>
+    <row r="89" spans="2:19">
       <c r="B89" s="1">
         <v>8</v>
       </c>
@@ -3268,13 +4709,31 @@
         <v>2</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
-    </row>
-    <row r="90" spans="2:5">
+      <c r="M89" s="1">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="N89" s="1">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="O89" s="1">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+    </row>
+    <row r="90" spans="2:19">
       <c r="B90">
         <v>9</v>
       </c>
@@ -3285,10 +4744,28 @@
         <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8">
+        <v>131</v>
+      </c>
+      <c r="M90" s="1">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="N90" s="1">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="O90" s="1">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+    </row>
+    <row r="91" spans="2:19">
       <c r="B91" s="1">
         <v>10</v>
       </c>
@@ -3299,33 +4776,73 @@
         <v>2</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="M91" s="1">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="N91" s="1">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="O91" s="1">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93">
         <f>A80+1</f>
         <v>8</v>
       </c>
+      <c r="B93" t="s">
+        <v>133</v>
+      </c>
       <c r="C93" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4">
+        <v>134</v>
+      </c>
+      <c r="L93">
+        <f>L80+1</f>
+        <v>8</v>
+      </c>
+      <c r="M93" t="s">
+        <v>133</v>
+      </c>
+      <c r="N93" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15">
       <c r="B94" t="s">
         <v>29</v>
       </c>
       <c r="C94" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D94" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5">
+        <v>48</v>
+      </c>
+      <c r="M94" t="s">
+        <v>29</v>
+      </c>
+      <c r="N94" t="s">
+        <v>47</v>
+      </c>
+      <c r="O94" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" spans="2:19">
       <c r="B95">
         <v>1</v>
       </c>
@@ -3336,10 +4853,28 @@
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8">
+        <v>135</v>
+      </c>
+      <c r="M95" s="1">
+        <f t="shared" ref="M95:M104" si="19">B95</f>
+        <v>1</v>
+      </c>
+      <c r="N95" s="1">
+        <f t="shared" ref="N95:N104" si="20">C95</f>
+        <v>0</v>
+      </c>
+      <c r="O95" s="1">
+        <f t="shared" ref="O95:O104" si="21">D95</f>
+        <v>0</v>
+      </c>
+      <c r="P95" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+    </row>
+    <row r="96" spans="2:19">
       <c r="B96" s="1">
         <v>2</v>
       </c>
@@ -3350,13 +4885,31 @@
         <v>0</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
-    </row>
-    <row r="97" spans="2:5">
+      <c r="M96" s="1">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="N96" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O96" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="P96" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+    </row>
+    <row r="97" spans="2:19">
       <c r="B97">
         <v>3</v>
       </c>
@@ -3367,10 +4920,28 @@
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5">
+        <v>137</v>
+      </c>
+      <c r="M97" s="1">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="N97" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O97" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="P97" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+    </row>
+    <row r="98" spans="2:19">
       <c r="B98">
         <v>4</v>
       </c>
@@ -3381,10 +4952,28 @@
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="99" spans="2:8">
+        <v>138</v>
+      </c>
+      <c r="M98" s="1">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="N98" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O98" s="1">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="P98" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+    </row>
+    <row r="99" spans="2:19">
       <c r="B99" s="1">
         <v>5</v>
       </c>
@@ -3395,13 +4984,31 @@
         <v>1</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
-    </row>
-    <row r="100" spans="2:5">
+      <c r="M99" s="1">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="N99" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O99" s="1">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+    </row>
+    <row r="100" spans="2:19">
       <c r="B100">
         <v>6</v>
       </c>
@@ -3412,10 +5019,28 @@
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5">
+        <v>140</v>
+      </c>
+      <c r="M100" s="1">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="N100" s="1">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="O100" s="1">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="P100" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+    </row>
+    <row r="101" spans="2:19">
       <c r="B101">
         <v>7</v>
       </c>
@@ -3426,10 +5051,28 @@
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8">
+        <v>141</v>
+      </c>
+      <c r="M101" s="1">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="N101" s="1">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="O101" s="1">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="P101" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+    </row>
+    <row r="102" spans="2:19">
       <c r="B102" s="1">
         <v>8</v>
       </c>
@@ -3440,13 +5083,31 @@
         <v>2</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
-    </row>
-    <row r="103" spans="2:5">
+      <c r="M102" s="1">
+        <f t="shared" si="19"/>
+        <v>8</v>
+      </c>
+      <c r="N102" s="1">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="O102" s="1">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="P102" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+    </row>
+    <row r="103" spans="2:19">
       <c r="B103">
         <v>9</v>
       </c>
@@ -3457,10 +5118,28 @@
         <v>2</v>
       </c>
       <c r="E103" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="104" spans="2:8">
+        <v>143</v>
+      </c>
+      <c r="M103" s="1">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="N103" s="1">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="O103" s="1">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="P103" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+    </row>
+    <row r="104" spans="2:19">
       <c r="B104" s="1">
         <v>10</v>
       </c>
@@ -3471,33 +5150,73 @@
         <v>2</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="M104" s="1">
+        <f t="shared" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="N104" s="1">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="O104" s="1">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="P104" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106">
         <f>A93+1</f>
         <v>9</v>
       </c>
+      <c r="B106" t="s">
+        <v>145</v>
+      </c>
       <c r="C106" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4">
+        <v>146</v>
+      </c>
+      <c r="L106">
+        <f>L93+1</f>
+        <v>9</v>
+      </c>
+      <c r="M106" t="s">
+        <v>145</v>
+      </c>
+      <c r="N106" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="107" spans="2:15">
       <c r="B107" t="s">
         <v>29</v>
       </c>
       <c r="C107" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D107" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5">
+        <v>48</v>
+      </c>
+      <c r="M107" t="s">
+        <v>29</v>
+      </c>
+      <c r="N107" t="s">
+        <v>47</v>
+      </c>
+      <c r="O107" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="108" spans="2:19">
       <c r="B108">
         <v>1</v>
       </c>
@@ -3508,10 +5227,28 @@
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5">
+        <v>147</v>
+      </c>
+      <c r="M108" s="1">
+        <f t="shared" ref="M108:M117" si="22">B108</f>
+        <v>1</v>
+      </c>
+      <c r="N108" s="1">
+        <f t="shared" ref="N108:N117" si="23">C108</f>
+        <v>0</v>
+      </c>
+      <c r="O108" s="1">
+        <f t="shared" ref="O108:O117" si="24">D108</f>
+        <v>0</v>
+      </c>
+      <c r="P108" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+    </row>
+    <row r="109" spans="2:19">
       <c r="B109">
         <v>2</v>
       </c>
@@ -3522,10 +5259,28 @@
         <v>0</v>
       </c>
       <c r="E109" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9">
+        <v>149</v>
+      </c>
+      <c r="M109" s="1">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="N109" s="1">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O109" s="1">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P109" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+    </row>
+    <row r="110" spans="2:19">
       <c r="B110" s="1">
         <v>3</v>
       </c>
@@ -3536,14 +5291,32 @@
         <v>0</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="2:9">
+      <c r="M110" s="1">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="N110" s="1">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O110" s="1">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P110" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
+    </row>
+    <row r="111" spans="2:19">
       <c r="B111" s="1">
         <v>4</v>
       </c>
@@ -3554,14 +5327,32 @@
         <v>1</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
-    </row>
-    <row r="112" spans="2:5">
+      <c r="M111" s="1">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="N111" s="1">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O111" s="1">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="P111" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="1"/>
+      <c r="S111" s="1"/>
+    </row>
+    <row r="112" spans="2:19">
       <c r="B112">
         <v>5</v>
       </c>
@@ -3572,10 +5363,28 @@
         <v>1</v>
       </c>
       <c r="E112" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="113" spans="2:5">
+        <v>152</v>
+      </c>
+      <c r="M112" s="1">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="N112" s="1">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O112" s="1">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="P112" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="1"/>
+      <c r="S112" s="1"/>
+    </row>
+    <row r="113" spans="2:19">
       <c r="B113">
         <v>6</v>
       </c>
@@ -3586,10 +5395,28 @@
         <v>1</v>
       </c>
       <c r="E113" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5">
+        <v>153</v>
+      </c>
+      <c r="M113" s="1">
+        <f t="shared" si="22"/>
+        <v>6</v>
+      </c>
+      <c r="N113" s="1">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="O113" s="1">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="P113" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q113" s="1"/>
+      <c r="R113" s="1"/>
+      <c r="S113" s="1"/>
+    </row>
+    <row r="114" spans="2:19">
       <c r="B114">
         <v>7</v>
       </c>
@@ -3600,10 +5427,28 @@
         <v>1</v>
       </c>
       <c r="E114" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5">
+        <v>154</v>
+      </c>
+      <c r="M114" s="1">
+        <f t="shared" si="22"/>
+        <v>7</v>
+      </c>
+      <c r="N114" s="1">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="O114" s="1">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="P114" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q114" s="1"/>
+      <c r="R114" s="1"/>
+      <c r="S114" s="1"/>
+    </row>
+    <row r="115" spans="2:19">
       <c r="B115">
         <v>8</v>
       </c>
@@ -3614,10 +5459,28 @@
         <v>2</v>
       </c>
       <c r="E115" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9">
+        <v>156</v>
+      </c>
+      <c r="M115" s="1">
+        <f t="shared" si="22"/>
+        <v>8</v>
+      </c>
+      <c r="N115" s="1">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="O115" s="1">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="P115" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q115" s="1"/>
+      <c r="R115" s="1"/>
+      <c r="S115" s="1"/>
+    </row>
+    <row r="116" spans="2:19">
       <c r="B116" s="1">
         <v>9</v>
       </c>
@@ -3628,14 +5491,32 @@
         <v>2</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="2:9">
+      <c r="M116" s="1">
+        <f t="shared" si="22"/>
+        <v>9</v>
+      </c>
+      <c r="N116" s="1">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="O116" s="1">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="P116" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q116" s="1"/>
+      <c r="R116" s="1"/>
+      <c r="S116" s="1"/>
+    </row>
+    <row r="117" spans="2:19">
       <c r="B117" s="1">
         <v>10</v>
       </c>
@@ -3646,34 +5527,74 @@
         <v>2</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="M117" s="1">
+        <f t="shared" si="22"/>
+        <v>10</v>
+      </c>
+      <c r="N117" s="1">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="O117" s="1">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="P117" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q117" s="1"/>
+      <c r="R117" s="1"/>
+      <c r="S117" s="1"/>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119">
         <f>A106+1</f>
         <v>10</v>
       </c>
+      <c r="B119" t="s">
+        <v>158</v>
+      </c>
       <c r="C119" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="120" spans="2:4">
+        <v>159</v>
+      </c>
+      <c r="L119">
+        <f>L106+1</f>
+        <v>10</v>
+      </c>
+      <c r="M119" t="s">
+        <v>158</v>
+      </c>
+      <c r="N119" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="120" spans="2:15">
       <c r="B120" t="s">
         <v>29</v>
       </c>
       <c r="C120" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D120" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="121" spans="2:8">
+        <v>48</v>
+      </c>
+      <c r="M120" t="s">
+        <v>29</v>
+      </c>
+      <c r="N120" t="s">
+        <v>47</v>
+      </c>
+      <c r="O120" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="121" spans="2:19">
       <c r="B121" s="1">
         <v>1</v>
       </c>
@@ -3684,13 +5605,31 @@
         <v>0</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
-    </row>
-    <row r="122" spans="2:5">
+      <c r="M121" s="1">
+        <f t="shared" ref="M121:M130" si="25">B121</f>
+        <v>1</v>
+      </c>
+      <c r="N121" s="1">
+        <f t="shared" ref="N121:N130" si="26">C121</f>
+        <v>0</v>
+      </c>
+      <c r="O121" s="1">
+        <f t="shared" ref="O121:O130" si="27">D121</f>
+        <v>0</v>
+      </c>
+      <c r="P121" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q121" s="1"/>
+      <c r="R121" s="1"/>
+      <c r="S121" s="1"/>
+    </row>
+    <row r="122" spans="2:19">
       <c r="B122">
         <v>2</v>
       </c>
@@ -3701,10 +5640,28 @@
         <v>0</v>
       </c>
       <c r="E122" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9">
+        <v>161</v>
+      </c>
+      <c r="M122" s="1">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="N122" s="1">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O122" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="P122" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q122" s="1"/>
+      <c r="R122" s="1"/>
+      <c r="S122" s="1"/>
+    </row>
+    <row r="123" spans="2:19">
       <c r="B123" s="2">
         <v>3</v>
       </c>
@@ -3715,14 +5672,32 @@
         <v>0</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
-    </row>
-    <row r="124" spans="2:5">
+      <c r="M123" s="1">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="N123" s="1">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O123" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="P123" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q123" s="1"/>
+      <c r="R123" s="1"/>
+      <c r="S123" s="1"/>
+    </row>
+    <row r="124" spans="2:19">
       <c r="B124">
         <v>4</v>
       </c>
@@ -3733,10 +5708,28 @@
         <v>1</v>
       </c>
       <c r="E124" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="125" spans="2:8">
+        <v>163</v>
+      </c>
+      <c r="M124" s="1">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="N124" s="1">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="O124" s="1">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="P124" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q124" s="1"/>
+      <c r="R124" s="1"/>
+      <c r="S124" s="1"/>
+    </row>
+    <row r="125" spans="2:19">
       <c r="B125" s="1">
         <v>5</v>
       </c>
@@ -3747,13 +5740,31 @@
         <v>1</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
-    </row>
-    <row r="126" spans="2:5">
+      <c r="M125" s="1">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="N125" s="1">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="O125" s="1">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="P125" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q125" s="1"/>
+      <c r="R125" s="1"/>
+      <c r="S125" s="1"/>
+    </row>
+    <row r="126" spans="2:19">
       <c r="B126">
         <v>6</v>
       </c>
@@ -3764,10 +5775,28 @@
         <v>1</v>
       </c>
       <c r="E126" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="127" spans="2:5">
+        <v>165</v>
+      </c>
+      <c r="M126" s="1">
+        <f t="shared" si="25"/>
+        <v>6</v>
+      </c>
+      <c r="N126" s="1">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="O126" s="1">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="P126" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q126" s="1"/>
+      <c r="R126" s="1"/>
+      <c r="S126" s="1"/>
+    </row>
+    <row r="127" spans="2:19">
       <c r="B127">
         <v>7</v>
       </c>
@@ -3778,10 +5807,28 @@
         <v>1</v>
       </c>
       <c r="E127" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="128" spans="2:8">
+        <v>166</v>
+      </c>
+      <c r="M127" s="1">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="N127" s="1">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="O127" s="1">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="P127" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q127" s="1"/>
+      <c r="R127" s="1"/>
+      <c r="S127" s="1"/>
+    </row>
+    <row r="128" spans="2:19">
       <c r="B128" s="1">
         <v>8</v>
       </c>
@@ -3792,13 +5839,31 @@
         <v>2</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
-    </row>
-    <row r="129" spans="2:5">
+      <c r="M128" s="1">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="N128" s="1">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="O128" s="1">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="P128" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q128" s="1"/>
+      <c r="R128" s="1"/>
+      <c r="S128" s="1"/>
+    </row>
+    <row r="129" spans="2:19">
       <c r="B129">
         <v>9</v>
       </c>
@@ -3809,10 +5874,28 @@
         <v>2</v>
       </c>
       <c r="E129" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="130" spans="2:8">
+        <v>169</v>
+      </c>
+      <c r="M129" s="1">
+        <f t="shared" si="25"/>
+        <v>9</v>
+      </c>
+      <c r="N129" s="1">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="O129" s="1">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="P129" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q129" s="1"/>
+      <c r="R129" s="1"/>
+      <c r="S129" s="1"/>
+    </row>
+    <row r="130" spans="2:19">
       <c r="B130" s="1">
         <v>10</v>
       </c>
@@ -3823,33 +5906,73 @@
         <v>2</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
-    </row>
-    <row r="132" spans="1:3">
+      <c r="M130" s="1">
+        <f t="shared" si="25"/>
+        <v>10</v>
+      </c>
+      <c r="N130" s="1">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="O130" s="1">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="P130" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q130" s="1"/>
+      <c r="R130" s="1"/>
+      <c r="S130" s="1"/>
+    </row>
+    <row r="132" spans="1:14">
       <c r="A132">
         <f>A119+1</f>
         <v>11</v>
       </c>
+      <c r="B132" t="s">
+        <v>171</v>
+      </c>
       <c r="C132" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="133" spans="2:4">
+        <v>172</v>
+      </c>
+      <c r="L132">
+        <f>L119+1</f>
+        <v>11</v>
+      </c>
+      <c r="M132" t="s">
+        <v>171</v>
+      </c>
+      <c r="N132" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="133" spans="2:15">
       <c r="B133" t="s">
         <v>29</v>
       </c>
       <c r="C133" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D133" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="134" spans="2:5">
+        <v>48</v>
+      </c>
+      <c r="M133" t="s">
+        <v>29</v>
+      </c>
+      <c r="N133" t="s">
+        <v>47</v>
+      </c>
+      <c r="O133" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="134" spans="2:19">
       <c r="B134">
         <v>1</v>
       </c>
@@ -3860,10 +5983,28 @@
         <v>0</v>
       </c>
       <c r="E134" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="135" spans="2:8">
+        <v>174</v>
+      </c>
+      <c r="M134" s="1">
+        <f t="shared" ref="M134:M143" si="28">B134</f>
+        <v>1</v>
+      </c>
+      <c r="N134" s="1">
+        <f t="shared" ref="N134:N143" si="29">C134</f>
+        <v>1</v>
+      </c>
+      <c r="O134" s="1">
+        <f t="shared" ref="O134:O143" si="30">D134</f>
+        <v>0</v>
+      </c>
+      <c r="P134" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q134" s="1"/>
+      <c r="R134" s="1"/>
+      <c r="S134" s="1"/>
+    </row>
+    <row r="135" spans="2:19">
       <c r="B135" s="1">
         <v>2</v>
       </c>
@@ -3873,14 +6014,32 @@
       <c r="D135" s="1">
         <v>0</v>
       </c>
-      <c r="E135" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F135" s="3"/>
-      <c r="G135" s="3"/>
-      <c r="H135" s="3"/>
-    </row>
-    <row r="136" spans="2:8">
+      <c r="E135" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="M135" s="1">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="N135" s="1">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="O135" s="1">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="P135" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q135" s="1"/>
+      <c r="R135" s="1"/>
+      <c r="S135" s="1"/>
+    </row>
+    <row r="136" spans="2:19">
       <c r="B136">
         <v>3</v>
       </c>
@@ -3890,14 +6049,32 @@
       <c r="D136">
         <v>1</v>
       </c>
-      <c r="E136" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
-      <c r="H136" s="4"/>
-    </row>
-    <row r="137" spans="2:5">
+      <c r="E136" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3"/>
+      <c r="M136" s="1">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="N136" s="1">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="O136" s="1">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="P136" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q136" s="1"/>
+      <c r="R136" s="1"/>
+      <c r="S136" s="1"/>
+    </row>
+    <row r="137" spans="2:19">
       <c r="B137">
         <v>4</v>
       </c>
@@ -3908,10 +6085,28 @@
         <v>1</v>
       </c>
       <c r="E137" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="138" spans="2:8">
+        <v>177</v>
+      </c>
+      <c r="M137" s="1">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="N137" s="1">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="O137" s="1">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="P137" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q137" s="1"/>
+      <c r="R137" s="1"/>
+      <c r="S137" s="1"/>
+    </row>
+    <row r="138" spans="2:19">
       <c r="B138" s="1">
         <v>5</v>
       </c>
@@ -3922,13 +6117,31 @@
         <v>1</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
-    </row>
-    <row r="139" spans="2:5">
+      <c r="M138" s="1">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="N138" s="1">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="O138" s="1">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="P138" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q138" s="1"/>
+      <c r="R138" s="1"/>
+      <c r="S138" s="1"/>
+    </row>
+    <row r="139" spans="2:19">
       <c r="B139">
         <v>6</v>
       </c>
@@ -3939,10 +6152,28 @@
         <v>2</v>
       </c>
       <c r="E139" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="140" spans="2:5">
+        <v>179</v>
+      </c>
+      <c r="M139" s="1">
+        <f t="shared" si="28"/>
+        <v>6</v>
+      </c>
+      <c r="N139" s="1">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="O139" s="1">
+        <f t="shared" si="30"/>
+        <v>2</v>
+      </c>
+      <c r="P139" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q139" s="1"/>
+      <c r="R139" s="1"/>
+      <c r="S139" s="1"/>
+    </row>
+    <row r="140" spans="2:19">
       <c r="B140">
         <v>7</v>
       </c>
@@ -3953,10 +6184,28 @@
         <v>2</v>
       </c>
       <c r="E140" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="141" spans="2:8">
+        <v>180</v>
+      </c>
+      <c r="M140" s="1">
+        <f t="shared" si="28"/>
+        <v>7</v>
+      </c>
+      <c r="N140" s="1">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+      <c r="O140" s="1">
+        <f t="shared" si="30"/>
+        <v>2</v>
+      </c>
+      <c r="P140" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q140" s="1"/>
+      <c r="R140" s="1"/>
+      <c r="S140" s="1"/>
+    </row>
+    <row r="141" spans="2:19">
       <c r="B141" s="1">
         <v>8</v>
       </c>
@@ -3967,13 +6216,31 @@
         <v>3</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
-    </row>
-    <row r="142" spans="2:5">
+      <c r="M141" s="1">
+        <f t="shared" si="28"/>
+        <v>8</v>
+      </c>
+      <c r="N141" s="1">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+      <c r="O141" s="1">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="P141" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q141" s="1"/>
+      <c r="R141" s="1"/>
+      <c r="S141" s="1"/>
+    </row>
+    <row r="142" spans="2:19">
       <c r="B142">
         <v>9</v>
       </c>
@@ -3984,10 +6251,28 @@
         <v>3</v>
       </c>
       <c r="E142" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="143" spans="2:8">
+        <v>182</v>
+      </c>
+      <c r="M142" s="1">
+        <f t="shared" si="28"/>
+        <v>9</v>
+      </c>
+      <c r="N142" s="1">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+      <c r="O142" s="1">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="P142" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q142" s="1"/>
+      <c r="R142" s="1"/>
+      <c r="S142" s="1"/>
+    </row>
+    <row r="143" spans="2:19">
       <c r="B143" s="1">
         <v>10</v>
       </c>
@@ -3998,33 +6283,73 @@
         <v>4</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
-    </row>
-    <row r="145" spans="1:3">
+      <c r="M143" s="1">
+        <f t="shared" si="28"/>
+        <v>10</v>
+      </c>
+      <c r="N143" s="1">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+      <c r="O143" s="1">
+        <f t="shared" si="30"/>
+        <v>4</v>
+      </c>
+      <c r="P143" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q143" s="1"/>
+      <c r="R143" s="1"/>
+      <c r="S143" s="1"/>
+    </row>
+    <row r="145" spans="1:14">
       <c r="A145">
         <f>A132+1</f>
         <v>12</v>
       </c>
+      <c r="B145" t="s">
+        <v>184</v>
+      </c>
       <c r="C145" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="146" spans="2:4">
+        <v>185</v>
+      </c>
+      <c r="L145">
+        <f>L132+1</f>
+        <v>12</v>
+      </c>
+      <c r="M145" t="s">
+        <v>184</v>
+      </c>
+      <c r="N145" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="146" spans="2:15">
       <c r="B146" t="s">
         <v>29</v>
       </c>
       <c r="C146" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D146" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="147" spans="2:5">
+        <v>48</v>
+      </c>
+      <c r="M146" t="s">
+        <v>29</v>
+      </c>
+      <c r="N146" t="s">
+        <v>47</v>
+      </c>
+      <c r="O146" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="147" spans="2:19">
       <c r="B147">
         <v>1</v>
       </c>
@@ -4035,10 +6360,28 @@
         <v>0</v>
       </c>
       <c r="E147" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="148" spans="2:8">
+        <v>186</v>
+      </c>
+      <c r="M147" s="1">
+        <f t="shared" ref="M147:M156" si="31">B147</f>
+        <v>1</v>
+      </c>
+      <c r="N147" s="1">
+        <f t="shared" ref="N147:N156" si="32">C147</f>
+        <v>0</v>
+      </c>
+      <c r="O147" s="1">
+        <f t="shared" ref="O147:O156" si="33">D147</f>
+        <v>0</v>
+      </c>
+      <c r="P147" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q147" s="1"/>
+      <c r="R147" s="1"/>
+      <c r="S147" s="1"/>
+    </row>
+    <row r="148" spans="2:19">
       <c r="B148" s="1">
         <v>2</v>
       </c>
@@ -4049,13 +6392,31 @@
         <v>0</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
-    </row>
-    <row r="149" spans="2:5">
+      <c r="M148" s="1">
+        <f t="shared" si="31"/>
+        <v>2</v>
+      </c>
+      <c r="N148" s="1">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="O148" s="1">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="P148" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q148" s="1"/>
+      <c r="R148" s="1"/>
+      <c r="S148" s="1"/>
+    </row>
+    <row r="149" spans="2:19">
       <c r="B149">
         <v>3</v>
       </c>
@@ -4066,10 +6427,28 @@
         <v>0</v>
       </c>
       <c r="E149" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5">
+        <v>188</v>
+      </c>
+      <c r="M149" s="1">
+        <f t="shared" si="31"/>
+        <v>3</v>
+      </c>
+      <c r="N149" s="1">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="O149" s="1">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="P149" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q149" s="1"/>
+      <c r="R149" s="1"/>
+      <c r="S149" s="1"/>
+    </row>
+    <row r="150" spans="2:19">
       <c r="B150">
         <v>4</v>
       </c>
@@ -4080,10 +6459,28 @@
         <v>1</v>
       </c>
       <c r="E150" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="151" spans="2:8">
+        <v>189</v>
+      </c>
+      <c r="M150" s="1">
+        <f t="shared" si="31"/>
+        <v>4</v>
+      </c>
+      <c r="N150" s="1">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="O150" s="1">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="P150" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q150" s="1"/>
+      <c r="R150" s="1"/>
+      <c r="S150" s="1"/>
+    </row>
+    <row r="151" spans="2:19">
       <c r="B151" s="1">
         <v>5</v>
       </c>
@@ -4094,13 +6491,31 @@
         <v>1</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
-    </row>
-    <row r="152" spans="2:5">
+      <c r="M151" s="1">
+        <f t="shared" si="31"/>
+        <v>5</v>
+      </c>
+      <c r="N151" s="1">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="O151" s="1">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="P151" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q151" s="1"/>
+      <c r="R151" s="1"/>
+      <c r="S151" s="1"/>
+    </row>
+    <row r="152" spans="2:19">
       <c r="B152">
         <v>6</v>
       </c>
@@ -4111,10 +6526,28 @@
         <v>1</v>
       </c>
       <c r="E152" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="153" spans="2:5">
+        <v>191</v>
+      </c>
+      <c r="M152" s="1">
+        <f t="shared" si="31"/>
+        <v>6</v>
+      </c>
+      <c r="N152" s="1">
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+      <c r="O152" s="1">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="P152" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q152" s="1"/>
+      <c r="R152" s="1"/>
+      <c r="S152" s="1"/>
+    </row>
+    <row r="153" spans="2:19">
       <c r="B153">
         <v>7</v>
       </c>
@@ -4125,10 +6558,28 @@
         <v>1</v>
       </c>
       <c r="E153" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="154" spans="2:8">
+        <v>192</v>
+      </c>
+      <c r="M153" s="1">
+        <f t="shared" si="31"/>
+        <v>7</v>
+      </c>
+      <c r="N153" s="1">
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+      <c r="O153" s="1">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="P153" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q153" s="1"/>
+      <c r="R153" s="1"/>
+      <c r="S153" s="1"/>
+    </row>
+    <row r="154" spans="2:19">
       <c r="B154" s="1">
         <v>8</v>
       </c>
@@ -4139,13 +6590,31 @@
         <v>2</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
-    </row>
-    <row r="155" spans="2:5">
+      <c r="M154" s="1">
+        <f t="shared" si="31"/>
+        <v>8</v>
+      </c>
+      <c r="N154" s="1">
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+      <c r="O154" s="1">
+        <f t="shared" si="33"/>
+        <v>2</v>
+      </c>
+      <c r="P154" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q154" s="1"/>
+      <c r="R154" s="1"/>
+      <c r="S154" s="1"/>
+    </row>
+    <row r="155" spans="2:19">
       <c r="B155">
         <v>9</v>
       </c>
@@ -4156,10 +6625,28 @@
         <v>2</v>
       </c>
       <c r="E155" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="156" spans="2:8">
+        <v>194</v>
+      </c>
+      <c r="M155" s="1">
+        <f t="shared" si="31"/>
+        <v>9</v>
+      </c>
+      <c r="N155" s="1">
+        <f t="shared" si="32"/>
+        <v>3</v>
+      </c>
+      <c r="O155" s="1">
+        <f t="shared" si="33"/>
+        <v>2</v>
+      </c>
+      <c r="P155" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q155" s="1"/>
+      <c r="R155" s="1"/>
+      <c r="S155" s="1"/>
+    </row>
+    <row r="156" spans="2:19">
       <c r="B156" s="1">
         <v>10</v>
       </c>
@@ -4170,33 +6657,73 @@
         <v>2</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
-    </row>
-    <row r="158" spans="1:3">
+      <c r="M156" s="1">
+        <f t="shared" si="31"/>
+        <v>10</v>
+      </c>
+      <c r="N156" s="1">
+        <f t="shared" si="32"/>
+        <v>3</v>
+      </c>
+      <c r="O156" s="1">
+        <f t="shared" si="33"/>
+        <v>2</v>
+      </c>
+      <c r="P156" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q156" s="1"/>
+      <c r="R156" s="1"/>
+      <c r="S156" s="1"/>
+    </row>
+    <row r="158" spans="1:14">
       <c r="A158">
         <f>A145+1</f>
         <v>13</v>
       </c>
+      <c r="B158" t="s">
+        <v>196</v>
+      </c>
       <c r="C158" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="159" spans="2:4">
+        <v>197</v>
+      </c>
+      <c r="L158">
+        <f>L145+1</f>
+        <v>13</v>
+      </c>
+      <c r="M158" t="s">
+        <v>196</v>
+      </c>
+      <c r="N158" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="159" spans="2:15">
       <c r="B159" t="s">
         <v>29</v>
       </c>
       <c r="C159" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D159" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="160" spans="2:5">
+        <v>48</v>
+      </c>
+      <c r="M159" t="s">
+        <v>29</v>
+      </c>
+      <c r="N159" t="s">
+        <v>47</v>
+      </c>
+      <c r="O159" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="160" spans="2:19">
       <c r="B160">
         <v>1</v>
       </c>
@@ -4207,10 +6734,28 @@
         <v>0</v>
       </c>
       <c r="E160" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="161" spans="2:5">
+        <v>198</v>
+      </c>
+      <c r="M160" s="1">
+        <f t="shared" ref="M160:M169" si="34">B160</f>
+        <v>1</v>
+      </c>
+      <c r="N160" s="1">
+        <f t="shared" ref="N160:N169" si="35">C160</f>
+        <v>0</v>
+      </c>
+      <c r="O160" s="1">
+        <f t="shared" ref="O160:O169" si="36">D160</f>
+        <v>0</v>
+      </c>
+      <c r="P160" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q160" s="1"/>
+      <c r="R160" s="1"/>
+      <c r="S160" s="1"/>
+    </row>
+    <row r="161" spans="2:19">
       <c r="B161">
         <v>2</v>
       </c>
@@ -4221,10 +6766,28 @@
         <v>0</v>
       </c>
       <c r="E161" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="162" spans="2:8">
+        <v>200</v>
+      </c>
+      <c r="M161" s="1">
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
+      <c r="N161" s="1">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="O161" s="1">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="P161" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q161" s="1"/>
+      <c r="R161" s="1"/>
+      <c r="S161" s="1"/>
+    </row>
+    <row r="162" spans="2:19">
       <c r="B162" s="1">
         <v>3</v>
       </c>
@@ -4235,13 +6798,31 @@
         <v>0</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
-    </row>
-    <row r="163" spans="2:5">
+      <c r="M162" s="1">
+        <f t="shared" si="34"/>
+        <v>3</v>
+      </c>
+      <c r="N162" s="1">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="O162" s="1">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="P162" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q162" s="1"/>
+      <c r="R162" s="1"/>
+      <c r="S162" s="1"/>
+    </row>
+    <row r="163" spans="2:19">
       <c r="B163">
         <v>4</v>
       </c>
@@ -4252,10 +6833,28 @@
         <v>1</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="164" spans="2:8">
+        <v>201</v>
+      </c>
+      <c r="M163" s="1">
+        <f t="shared" si="34"/>
+        <v>4</v>
+      </c>
+      <c r="N163" s="1">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="O163" s="1">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="P163" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q163" s="1"/>
+      <c r="R163" s="1"/>
+      <c r="S163" s="1"/>
+    </row>
+    <row r="164" spans="2:19">
       <c r="B164" s="1">
         <v>5</v>
       </c>
@@ -4266,13 +6865,31 @@
         <v>1</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
-    </row>
-    <row r="165" spans="2:8">
+      <c r="M164" s="1">
+        <f t="shared" si="34"/>
+        <v>5</v>
+      </c>
+      <c r="N164" s="1">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="O164" s="1">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="P164" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q164" s="1"/>
+      <c r="R164" s="1"/>
+      <c r="S164" s="1"/>
+    </row>
+    <row r="165" spans="2:19">
       <c r="B165" s="2">
         <v>6</v>
       </c>
@@ -4283,13 +6900,31 @@
         <v>1</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
-    </row>
-    <row r="166" spans="2:5">
+      <c r="M165" s="1">
+        <f t="shared" si="34"/>
+        <v>6</v>
+      </c>
+      <c r="N165" s="1">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="O165" s="1">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="P165" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q165" s="1"/>
+      <c r="R165" s="1"/>
+      <c r="S165" s="1"/>
+    </row>
+    <row r="166" spans="2:19">
       <c r="B166">
         <v>7</v>
       </c>
@@ -4300,10 +6935,28 @@
         <v>1</v>
       </c>
       <c r="E166" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="167" spans="2:5">
+        <v>204</v>
+      </c>
+      <c r="M166" s="1">
+        <f t="shared" si="34"/>
+        <v>7</v>
+      </c>
+      <c r="N166" s="1">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="O166" s="1">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="P166" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q166" s="1"/>
+      <c r="R166" s="1"/>
+      <c r="S166" s="1"/>
+    </row>
+    <row r="167" spans="2:19">
       <c r="B167">
         <v>8</v>
       </c>
@@ -4314,10 +6967,28 @@
         <v>2</v>
       </c>
       <c r="E167" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="168" spans="2:8">
+        <v>206</v>
+      </c>
+      <c r="M167" s="1">
+        <f t="shared" si="34"/>
+        <v>8</v>
+      </c>
+      <c r="N167" s="1">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="O167" s="1">
+        <f t="shared" si="36"/>
+        <v>2</v>
+      </c>
+      <c r="P167" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q167" s="1"/>
+      <c r="R167" s="1"/>
+      <c r="S167" s="1"/>
+    </row>
+    <row r="168" spans="2:19">
       <c r="B168" s="1">
         <v>9</v>
       </c>
@@ -4328,13 +6999,31 @@
         <v>2</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
-    </row>
-    <row r="169" spans="2:8">
+      <c r="M168" s="1">
+        <f t="shared" si="34"/>
+        <v>9</v>
+      </c>
+      <c r="N168" s="1">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="O168" s="1">
+        <f t="shared" si="36"/>
+        <v>2</v>
+      </c>
+      <c r="P168" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q168" s="1"/>
+      <c r="R168" s="1"/>
+      <c r="S168" s="1"/>
+    </row>
+    <row r="169" spans="2:19">
       <c r="B169" s="1">
         <v>10</v>
       </c>
@@ -4345,33 +7034,73 @@
         <v>2</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
-    </row>
-    <row r="171" spans="1:3">
+      <c r="M169" s="1">
+        <f t="shared" si="34"/>
+        <v>10</v>
+      </c>
+      <c r="N169" s="1">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="O169" s="1">
+        <f t="shared" si="36"/>
+        <v>2</v>
+      </c>
+      <c r="P169" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q169" s="1"/>
+      <c r="R169" s="1"/>
+      <c r="S169" s="1"/>
+    </row>
+    <row r="171" spans="1:14">
       <c r="A171">
         <f>A158+1</f>
         <v>14</v>
       </c>
+      <c r="B171" t="s">
+        <v>208</v>
+      </c>
       <c r="C171" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="172" spans="2:4">
+        <v>209</v>
+      </c>
+      <c r="L171">
+        <f>L158+1</f>
+        <v>14</v>
+      </c>
+      <c r="M171" t="s">
+        <v>208</v>
+      </c>
+      <c r="N171" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="172" spans="2:15">
       <c r="B172" t="s">
         <v>29</v>
       </c>
       <c r="C172" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D172" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="173" spans="2:5">
+        <v>48</v>
+      </c>
+      <c r="M172" t="s">
+        <v>29</v>
+      </c>
+      <c r="N172" t="s">
+        <v>47</v>
+      </c>
+      <c r="O172" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="173" spans="2:19">
       <c r="B173">
         <v>1</v>
       </c>
@@ -4382,10 +7111,28 @@
         <v>0</v>
       </c>
       <c r="E173" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="174" spans="2:8">
+        <v>210</v>
+      </c>
+      <c r="M173" s="1">
+        <f t="shared" ref="M173:M182" si="37">B173</f>
+        <v>1</v>
+      </c>
+      <c r="N173" s="1">
+        <f t="shared" ref="N173:N182" si="38">C173</f>
+        <v>0</v>
+      </c>
+      <c r="O173" s="1">
+        <f t="shared" ref="O173:O182" si="39">D173</f>
+        <v>0</v>
+      </c>
+      <c r="P173" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q173" s="1"/>
+      <c r="R173" s="1"/>
+      <c r="S173" s="1"/>
+    </row>
+    <row r="174" spans="2:19">
       <c r="B174" s="1">
         <v>2</v>
       </c>
@@ -4396,13 +7143,31 @@
         <v>0</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
-    </row>
-    <row r="175" spans="2:5">
+      <c r="M174" s="1">
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
+      <c r="N174" s="1">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="O174" s="1">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="P174" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q174" s="1"/>
+      <c r="R174" s="1"/>
+      <c r="S174" s="1"/>
+    </row>
+    <row r="175" spans="2:19">
       <c r="B175">
         <v>3</v>
       </c>
@@ -4413,10 +7178,28 @@
         <v>0</v>
       </c>
       <c r="E175" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="176" spans="2:5">
+        <v>212</v>
+      </c>
+      <c r="M175" s="1">
+        <f t="shared" si="37"/>
+        <v>3</v>
+      </c>
+      <c r="N175" s="1">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="O175" s="1">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="P175" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q175" s="1"/>
+      <c r="R175" s="1"/>
+      <c r="S175" s="1"/>
+    </row>
+    <row r="176" spans="2:19">
       <c r="B176">
         <v>4</v>
       </c>
@@ -4427,10 +7210,28 @@
         <v>1</v>
       </c>
       <c r="E176" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="177" spans="2:5">
+        <v>213</v>
+      </c>
+      <c r="M176" s="1">
+        <f t="shared" si="37"/>
+        <v>4</v>
+      </c>
+      <c r="N176" s="1">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="O176" s="1">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="P176" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q176" s="1"/>
+      <c r="R176" s="1"/>
+      <c r="S176" s="1"/>
+    </row>
+    <row r="177" spans="2:19">
       <c r="B177">
         <v>5</v>
       </c>
@@ -4441,10 +7242,28 @@
         <v>1</v>
       </c>
       <c r="E177" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="178" spans="2:8">
+        <v>215</v>
+      </c>
+      <c r="M177" s="1">
+        <f t="shared" si="37"/>
+        <v>5</v>
+      </c>
+      <c r="N177" s="1">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="O177" s="1">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="P177" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q177" s="1"/>
+      <c r="R177" s="1"/>
+      <c r="S177" s="1"/>
+    </row>
+    <row r="178" spans="2:19">
       <c r="B178" s="1">
         <v>6</v>
       </c>
@@ -4455,13 +7274,31 @@
         <v>1</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
-    </row>
-    <row r="179" spans="2:5">
+      <c r="M178" s="1">
+        <f t="shared" si="37"/>
+        <v>6</v>
+      </c>
+      <c r="N178" s="1">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="O178" s="1">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="P178" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q178" s="1"/>
+      <c r="R178" s="1"/>
+      <c r="S178" s="1"/>
+    </row>
+    <row r="179" spans="2:19">
       <c r="B179">
         <v>7</v>
       </c>
@@ -4472,10 +7309,28 @@
         <v>1</v>
       </c>
       <c r="E179" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="180" spans="2:8">
+        <v>217</v>
+      </c>
+      <c r="M179" s="1">
+        <f t="shared" si="37"/>
+        <v>7</v>
+      </c>
+      <c r="N179" s="1">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="O179" s="1">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="P179" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q179" s="1"/>
+      <c r="R179" s="1"/>
+      <c r="S179" s="1"/>
+    </row>
+    <row r="180" spans="2:19">
       <c r="B180" s="1">
         <v>8</v>
       </c>
@@ -4486,13 +7341,31 @@
         <v>2</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
-    </row>
-    <row r="181" spans="2:5">
+      <c r="M180" s="1">
+        <f t="shared" si="37"/>
+        <v>8</v>
+      </c>
+      <c r="N180" s="1">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="O180" s="1">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+      <c r="P180" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q180" s="1"/>
+      <c r="R180" s="1"/>
+      <c r="S180" s="1"/>
+    </row>
+    <row r="181" spans="2:19">
       <c r="B181">
         <v>9</v>
       </c>
@@ -4503,10 +7376,28 @@
         <v>2</v>
       </c>
       <c r="E181" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="182" spans="2:8">
+        <v>220</v>
+      </c>
+      <c r="M181" s="1">
+        <f t="shared" si="37"/>
+        <v>9</v>
+      </c>
+      <c r="N181" s="1">
+        <f t="shared" si="38"/>
+        <v>2</v>
+      </c>
+      <c r="O181" s="1">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+      <c r="P181" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q181" s="1"/>
+      <c r="R181" s="1"/>
+      <c r="S181" s="1"/>
+    </row>
+    <row r="182" spans="2:19">
       <c r="B182" s="1">
         <v>10</v>
       </c>
@@ -4517,33 +7408,73 @@
         <v>2</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
-    </row>
-    <row r="184" spans="1:3">
+      <c r="M182" s="1">
+        <f t="shared" si="37"/>
+        <v>10</v>
+      </c>
+      <c r="N182" s="1">
+        <f t="shared" si="38"/>
+        <v>2</v>
+      </c>
+      <c r="O182" s="1">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+      <c r="P182" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q182" s="1"/>
+      <c r="R182" s="1"/>
+      <c r="S182" s="1"/>
+    </row>
+    <row r="184" spans="1:14">
       <c r="A184">
         <f>A171+1</f>
         <v>15</v>
       </c>
+      <c r="B184" t="s">
+        <v>222</v>
+      </c>
       <c r="C184" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="185" spans="2:4">
+        <v>223</v>
+      </c>
+      <c r="L184">
+        <f>L171+1</f>
+        <v>15</v>
+      </c>
+      <c r="M184" t="s">
+        <v>222</v>
+      </c>
+      <c r="N184" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="185" spans="2:15">
       <c r="B185" t="s">
         <v>29</v>
       </c>
       <c r="C185" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D185" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="186" spans="2:5">
+        <v>48</v>
+      </c>
+      <c r="M185" t="s">
+        <v>29</v>
+      </c>
+      <c r="N185" t="s">
+        <v>47</v>
+      </c>
+      <c r="O185" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="186" spans="2:19">
       <c r="B186">
         <v>1</v>
       </c>
@@ -4554,10 +7485,28 @@
         <v>0</v>
       </c>
       <c r="E186" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="187" spans="2:8">
+        <v>224</v>
+      </c>
+      <c r="M186" s="1">
+        <f t="shared" ref="M186:M195" si="40">B186</f>
+        <v>1</v>
+      </c>
+      <c r="N186" s="1">
+        <f t="shared" ref="N186:N195" si="41">C186</f>
+        <v>0</v>
+      </c>
+      <c r="O186" s="1">
+        <f t="shared" ref="O186:O195" si="42">D186</f>
+        <v>0</v>
+      </c>
+      <c r="P186" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q186" s="1"/>
+      <c r="R186" s="1"/>
+      <c r="S186" s="1"/>
+    </row>
+    <row r="187" spans="2:19">
       <c r="B187" s="1">
         <v>2</v>
       </c>
@@ -4568,13 +7517,31 @@
         <v>0</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
-    </row>
-    <row r="188" spans="2:5">
+      <c r="M187" s="1">
+        <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="N187" s="1">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="O187" s="1">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P187" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q187" s="1"/>
+      <c r="R187" s="1"/>
+      <c r="S187" s="1"/>
+    </row>
+    <row r="188" spans="2:19">
       <c r="B188">
         <v>3</v>
       </c>
@@ -4585,10 +7552,28 @@
         <v>1</v>
       </c>
       <c r="E188" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="189" spans="2:5">
+        <v>225</v>
+      </c>
+      <c r="M188" s="1">
+        <f t="shared" si="40"/>
+        <v>3</v>
+      </c>
+      <c r="N188" s="1">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="O188" s="1">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="P188" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q188" s="1"/>
+      <c r="R188" s="1"/>
+      <c r="S188" s="1"/>
+    </row>
+    <row r="189" spans="2:19">
       <c r="B189">
         <v>4</v>
       </c>
@@ -4599,10 +7584,28 @@
         <v>1</v>
       </c>
       <c r="E189" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="190" spans="2:8">
+        <v>226</v>
+      </c>
+      <c r="M189" s="1">
+        <f t="shared" si="40"/>
+        <v>4</v>
+      </c>
+      <c r="N189" s="1">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="O189" s="1">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="P189" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q189" s="1"/>
+      <c r="R189" s="1"/>
+      <c r="S189" s="1"/>
+    </row>
+    <row r="190" spans="2:19">
       <c r="B190" s="1">
         <v>5</v>
       </c>
@@ -4613,13 +7616,31 @@
         <v>1</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
-    </row>
-    <row r="191" spans="2:5">
+      <c r="M190" s="1">
+        <f t="shared" si="40"/>
+        <v>5</v>
+      </c>
+      <c r="N190" s="1">
+        <f t="shared" si="41"/>
+        <v>2</v>
+      </c>
+      <c r="O190" s="1">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="P190" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q190" s="1"/>
+      <c r="R190" s="1"/>
+      <c r="S190" s="1"/>
+    </row>
+    <row r="191" spans="2:19">
       <c r="B191">
         <v>6</v>
       </c>
@@ -4630,10 +7651,28 @@
         <v>1</v>
       </c>
       <c r="E191" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="192" spans="2:5">
+        <v>228</v>
+      </c>
+      <c r="M191" s="1">
+        <f t="shared" si="40"/>
+        <v>6</v>
+      </c>
+      <c r="N191" s="1">
+        <f t="shared" si="41"/>
+        <v>2</v>
+      </c>
+      <c r="O191" s="1">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="P191" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q191" s="1"/>
+      <c r="R191" s="1"/>
+      <c r="S191" s="1"/>
+    </row>
+    <row r="192" spans="2:19">
       <c r="B192">
         <v>7</v>
       </c>
@@ -4644,41 +7683,98 @@
         <v>2</v>
       </c>
       <c r="E192" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="193" spans="2:8">
-      <c r="B193" s="1">
+        <v>229</v>
+      </c>
+      <c r="M192" s="1">
+        <f t="shared" si="40"/>
+        <v>7</v>
+      </c>
+      <c r="N192" s="1">
+        <f t="shared" si="41"/>
+        <v>2</v>
+      </c>
+      <c r="O192" s="1">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="P192" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q192" s="1"/>
+      <c r="R192" s="1"/>
+      <c r="S192" s="1"/>
+    </row>
+    <row r="193" spans="2:19">
+      <c r="B193" s="3">
         <v>8</v>
       </c>
-      <c r="C193" s="1">
-        <v>3</v>
-      </c>
-      <c r="D193" s="1">
-        <v>2</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F193" s="1"/>
-      <c r="G193" s="1"/>
-      <c r="H193" s="1"/>
-    </row>
-    <row r="194" spans="2:5">
-      <c r="B194">
+      <c r="C193" s="3">
+        <v>3</v>
+      </c>
+      <c r="D193" s="3">
+        <v>2</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
+      <c r="H193" s="3"/>
+      <c r="M193" s="1">
+        <f t="shared" si="40"/>
+        <v>8</v>
+      </c>
+      <c r="N193" s="1">
+        <f t="shared" si="41"/>
+        <v>3</v>
+      </c>
+      <c r="O193" s="1">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="P193" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q193" s="1"/>
+      <c r="R193" s="1"/>
+      <c r="S193" s="1"/>
+    </row>
+    <row r="194" spans="2:19">
+      <c r="B194" s="1">
         <v>9</v>
       </c>
-      <c r="C194">
-        <v>3</v>
-      </c>
-      <c r="D194">
-        <v>2</v>
-      </c>
-      <c r="E194" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="195" spans="2:8">
+      <c r="C194" s="1">
+        <v>3</v>
+      </c>
+      <c r="D194" s="1">
+        <v>2</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="M194" s="1">
+        <f t="shared" si="40"/>
+        <v>9</v>
+      </c>
+      <c r="N194" s="1">
+        <f t="shared" si="41"/>
+        <v>3</v>
+      </c>
+      <c r="O194" s="1">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="P194" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q194" s="1"/>
+      <c r="R194" s="1"/>
+      <c r="S194" s="1"/>
+    </row>
+    <row r="195" spans="2:19">
       <c r="B195" s="1">
         <v>10</v>
       </c>
@@ -4689,11 +7785,29 @@
         <v>3</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
+      <c r="M195" s="1">
+        <f t="shared" si="40"/>
+        <v>10</v>
+      </c>
+      <c r="N195" s="1">
+        <f t="shared" si="41"/>
+        <v>3</v>
+      </c>
+      <c r="O195" s="1">
+        <f t="shared" si="42"/>
+        <v>3</v>
+      </c>
+      <c r="P195" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q195" s="1"/>
+      <c r="R195" s="1"/>
+      <c r="S195" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4715,10 +7829,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/design/cardgame.xlsx
+++ b/design/cardgame.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="236">
   <si>
     <t>规则</t>
   </si>
@@ -222,7 +222,7 @@
     <t>该牌如果参与造成伤害，造成的伤害*2</t>
   </si>
   <si>
-    <t>己方打出此牌，攻击永久+2</t>
+    <t>己方打出此牌，攻击永久+3</t>
   </si>
   <si>
     <t>己方打出此牌，本轮伤害*2，包括本次出牌的伤害</t>
@@ -252,7 +252,7 @@
     <t>己方打出此牌，可以选择再出一次牌</t>
   </si>
   <si>
-    <t>对手打出此牌，受到我方10点3次伤害</t>
+    <t>其他人打出此牌，受到我方10点3次伤害</t>
   </si>
   <si>
     <t>对手打出此牌，受到我方20点3次伤害</t>
@@ -415,6 +415,9 @@
   </si>
   <si>
     <t>己方打出此牌，本轮对手每次的出牌都会毁灭并对对手造成出牌*10伤害，轮结束此牌毁灭</t>
+  </si>
+  <si>
+    <t>己方打出此牌，本轮对手每次的出牌都会毁灭，并对对手造成出牌*10伤害，本轮结束此牌毁灭</t>
   </si>
   <si>
     <t>小五</t>
@@ -728,10 +731,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -756,10 +759,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -771,11 +775,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -787,10 +827,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -810,10 +851,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -833,38 +874,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -872,15 +881,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -901,13 +904,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,7 +952,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,49 +1000,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,13 +1030,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1009,19 +1060,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,55 +1072,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,7 +1102,27 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1136,11 +1159,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1160,15 +1181,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1183,15 +1195,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1200,10 +1203,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1212,16 +1215,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1230,126 +1233,123 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -1727,7 +1727,7 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2146,8 +2146,8 @@
   <sheetPr/>
   <dimension ref="A1:S195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I199" sqref="I199"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="P91" sqref="P91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2235,11 +2235,11 @@
         <v>1</v>
       </c>
       <c r="N4" s="1">
-        <f>C4</f>
+        <f t="shared" ref="N4:N11" si="0">C4</f>
         <v>0</v>
       </c>
       <c r="O4" s="1">
-        <f>D4</f>
+        <f t="shared" ref="O4:O11" si="1">D4</f>
         <v>0</v>
       </c>
       <c r="P4" s="1" t="s">
@@ -2263,15 +2263,15 @@
         <v>51</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" ref="M5:M13" si="0">B5</f>
+        <f t="shared" ref="M5:M13" si="2">B5</f>
         <v>2</v>
       </c>
       <c r="N5" s="1">
-        <f>C5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O5" s="1">
-        <f>D5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P5" s="1" t="s">
@@ -2295,15 +2295,15 @@
         <v>52</v>
       </c>
       <c r="M6" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N6" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N6" s="1">
-        <f>C6</f>
         <v>0</v>
       </c>
       <c r="O6" s="1">
-        <f>D6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P6" s="1" t="s">
@@ -2327,15 +2327,15 @@
         <v>53</v>
       </c>
       <c r="M7" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N7" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="N7" s="1">
-        <f>C7</f>
         <v>1</v>
       </c>
       <c r="O7" s="1">
-        <f>D7</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P7" s="1" t="s">
@@ -2359,15 +2359,15 @@
         <v>55</v>
       </c>
       <c r="M8" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N8" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N8" s="1">
-        <f>C8</f>
         <v>1</v>
       </c>
       <c r="O8" s="1">
-        <f>D8</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P8" s="1" t="s">
@@ -2394,15 +2394,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="M9" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="N9" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N9" s="1">
-        <f>C9</f>
         <v>1</v>
       </c>
       <c r="O9" s="1">
-        <f>D9</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P9" s="1" t="s">
@@ -2426,15 +2426,15 @@
         <v>56</v>
       </c>
       <c r="M10" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="N10" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="N10" s="1">
-        <f>C10</f>
         <v>1</v>
       </c>
       <c r="O10" s="1">
-        <f>D10</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P10" s="1" t="s">
@@ -2462,15 +2462,15 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="M11" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="N11" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="N11" s="1">
-        <f>C11</f>
         <v>2</v>
       </c>
       <c r="O11" s="1">
-        <f>D11</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="P11" s="1" t="s">
@@ -2494,15 +2494,15 @@
         <v>58</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" ref="N12:N26" si="1">C12</f>
+        <f t="shared" ref="N12:N26" si="3">C12</f>
         <v>2</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" ref="O12:O26" si="2">D12</f>
+        <f t="shared" ref="O12:O26" si="4">D12</f>
         <v>2</v>
       </c>
       <c r="P12" s="1" t="s">
@@ -2529,15 +2529,15 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="M13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="P13" s="1" t="s">
@@ -2610,15 +2610,15 @@
         <v>62</v>
       </c>
       <c r="M17" s="1">
-        <f t="shared" ref="M17:M26" si="3">B17</f>
+        <f t="shared" ref="M17:M26" si="5">B17</f>
         <v>1</v>
       </c>
       <c r="N17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P17" s="1" t="s">
@@ -2645,15 +2645,15 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="M18" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N18" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="N18" s="1">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P18" s="1" t="s">
@@ -2677,15 +2677,15 @@
         <v>64</v>
       </c>
       <c r="M19" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="N19" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="N19" s="1">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P19" s="1" t="s">
@@ -2709,15 +2709,15 @@
         <v>65</v>
       </c>
       <c r="M20" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="N20" s="1">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="N20" s="1">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P20" s="1" t="s">
@@ -2741,15 +2741,15 @@
         <v>67</v>
       </c>
       <c r="M21" s="1">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N21" s="1">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="N21" s="1">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P21" s="1" t="s">
@@ -2777,15 +2777,15 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="M22" s="1">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="N22" s="1">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="N22" s="1">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="O22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P22" s="1" t="s">
@@ -2812,15 +2812,15 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="M23" s="1">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="N23" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="N23" s="1">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="O23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P23" s="1" t="s">
@@ -2844,15 +2844,15 @@
         <v>69</v>
       </c>
       <c r="M24" s="1">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="N24" s="1">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="N24" s="1">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="O24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P24" s="1" t="s">
@@ -2876,15 +2876,15 @@
         <v>70</v>
       </c>
       <c r="M25" s="1">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="N25" s="1">
         <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="N25" s="1">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="O25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="P25" s="1" t="s">
@@ -2911,15 +2911,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="M26" s="1">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="N26" s="1">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="N26" s="1">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="O26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="P26" s="1" t="s">
@@ -2989,15 +2989,15 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="M30" s="1">
-        <f t="shared" ref="M30:M39" si="4">B30</f>
+        <f t="shared" ref="M30:M39" si="6">B30</f>
         <v>1</v>
       </c>
       <c r="N30" s="1">
-        <f t="shared" ref="N30:N39" si="5">C30</f>
+        <f t="shared" ref="N30:N39" si="7">C30</f>
         <v>0</v>
       </c>
       <c r="O30" s="1">
-        <f t="shared" ref="O30:O39" si="6">D30</f>
+        <f t="shared" ref="O30:O39" si="8">D30</f>
         <v>0</v>
       </c>
       <c r="P30" s="1" t="s">
@@ -3021,15 +3021,15 @@
         <v>75</v>
       </c>
       <c r="M31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="N31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P31" s="1" t="s">
@@ -3053,15 +3053,15 @@
         <v>76</v>
       </c>
       <c r="M32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="N32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P32" s="1" t="s">
@@ -3085,15 +3085,15 @@
         <v>77</v>
       </c>
       <c r="M33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="N33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P33" s="1" t="s">
@@ -3120,15 +3120,15 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="M34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="N34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P34" s="1" t="s">
@@ -3152,15 +3152,15 @@
         <v>80</v>
       </c>
       <c r="M35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="N35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P35" s="1" t="s">
@@ -3184,15 +3184,15 @@
         <v>81</v>
       </c>
       <c r="M36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="N36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P36" s="1" t="s">
@@ -3219,15 +3219,15 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="M37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="N37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="O37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="P37" s="1" t="s">
@@ -3251,15 +3251,15 @@
         <v>83</v>
       </c>
       <c r="M38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="N38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="O38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="P38" s="1" t="s">
@@ -3286,15 +3286,15 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="M39" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="N39" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="O39" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="P39" s="1" t="s">
@@ -3360,15 +3360,15 @@
         <v>87</v>
       </c>
       <c r="M43" s="1">
-        <f t="shared" ref="M43:M52" si="7">B43</f>
+        <f t="shared" ref="M43:M52" si="9">B43</f>
         <v>1</v>
       </c>
       <c r="N43" s="1">
-        <f t="shared" ref="N43:N52" si="8">C43</f>
+        <f t="shared" ref="N43:N52" si="10">C43</f>
         <v>0</v>
       </c>
       <c r="O43" s="1">
-        <f t="shared" ref="O43:O52" si="9">D43</f>
+        <f t="shared" ref="O43:O52" si="11">D43</f>
         <v>1</v>
       </c>
       <c r="P43" s="1" t="s">
@@ -3395,15 +3395,15 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="M44" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="N44" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O44" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P44" s="1" t="s">
@@ -3427,15 +3427,15 @@
         <v>89</v>
       </c>
       <c r="M45" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="N45" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O45" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P45" s="1" t="s">
@@ -3462,15 +3462,15 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="M46" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="N46" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O46" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P46" s="1" t="s">
@@ -3494,15 +3494,15 @@
         <v>91</v>
       </c>
       <c r="M47" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O47" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="P47" s="1" t="s">
@@ -3526,15 +3526,15 @@
         <v>92</v>
       </c>
       <c r="M48" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="N48" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="O48" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="P48" s="1" t="s">
@@ -3561,15 +3561,15 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="M49" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="N49" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="O49" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="P49" s="1" t="s">
@@ -3593,15 +3593,15 @@
         <v>94</v>
       </c>
       <c r="M50" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N50" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="O50" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="P50" s="1" t="s">
@@ -3625,15 +3625,15 @@
         <v>95</v>
       </c>
       <c r="M51" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="N51" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="O51" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="P51" s="1" t="s">
@@ -3660,15 +3660,15 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="M52" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="N52" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="O52" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="P52" s="1" t="s">
@@ -3734,15 +3734,15 @@
         <v>99</v>
       </c>
       <c r="M56" s="1">
-        <f t="shared" ref="M56:M65" si="10">B56</f>
+        <f t="shared" ref="M56:M65" si="12">B56</f>
         <v>1</v>
       </c>
       <c r="N56" s="1">
-        <f t="shared" ref="N56:N65" si="11">C56</f>
+        <f t="shared" ref="N56:N65" si="13">C56</f>
         <v>0</v>
       </c>
       <c r="O56" s="1">
-        <f t="shared" ref="O56:O65" si="12">D56</f>
+        <f t="shared" ref="O56:O65" si="14">D56</f>
         <v>0</v>
       </c>
       <c r="P56" s="1" t="s">
@@ -3769,15 +3769,15 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="M57" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="N57" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O57" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P57" s="1" t="s">
@@ -3801,15 +3801,15 @@
         <v>101</v>
       </c>
       <c r="M58" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="N58" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O58" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P58" s="1" t="s">
@@ -3833,15 +3833,15 @@
         <v>102</v>
       </c>
       <c r="M59" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="N59" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O59" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="P59" s="1" t="s">
@@ -3868,15 +3868,15 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="M60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="N60" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O60" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="P60" s="1" t="s">
@@ -3900,15 +3900,15 @@
         <v>104</v>
       </c>
       <c r="M61" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="N61" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="O61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="P61" s="1" t="s">
@@ -3932,15 +3932,15 @@
         <v>105</v>
       </c>
       <c r="M62" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="N62" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="O62" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="P62" s="1" t="s">
@@ -3967,15 +3967,15 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="M63" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="N63" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="O63" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="P63" s="1" t="s">
@@ -3999,15 +3999,15 @@
         <v>107</v>
       </c>
       <c r="M64" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="N64" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="O64" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="P64" s="1" t="s">
@@ -4034,15 +4034,15 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="M65" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="N65" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="O65" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="P65" s="1" t="s">
@@ -4108,15 +4108,15 @@
         <v>112</v>
       </c>
       <c r="M69" s="1">
-        <f t="shared" ref="M69:M78" si="13">B69</f>
+        <f t="shared" ref="M69:M78" si="15">B69</f>
         <v>1</v>
       </c>
       <c r="N69" s="1">
-        <f t="shared" ref="N69:N78" si="14">C69</f>
+        <f t="shared" ref="N69:N78" si="16">C69</f>
         <v>1</v>
       </c>
       <c r="O69" s="1">
-        <f t="shared" ref="O69:O78" si="15">D69</f>
+        <f t="shared" ref="O69:O78" si="17">D69</f>
         <v>0</v>
       </c>
       <c r="P69" s="1" t="s">
@@ -4143,15 +4143,15 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="M70" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="N70" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="O70" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P70" s="1" t="s">
@@ -4175,15 +4175,15 @@
         <v>114</v>
       </c>
       <c r="M71" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="N71" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="O71" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="P71" s="1" t="s">
@@ -4210,15 +4210,15 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="M72" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="N72" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="O72" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="P72" s="1" t="s">
@@ -4242,15 +4242,15 @@
         <v>115</v>
       </c>
       <c r="M73" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="N73" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="O73" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="P73" s="1" t="s">
@@ -4274,15 +4274,15 @@
         <v>116</v>
       </c>
       <c r="M74" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="N74" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="O74" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="P74" s="1" t="s">
@@ -4309,15 +4309,15 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="M75" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="N75" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="O75" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="P75" s="1" t="s">
@@ -4341,15 +4341,15 @@
         <v>118</v>
       </c>
       <c r="M76" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="N76" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="O76" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="P76" s="1" t="s">
@@ -4373,15 +4373,15 @@
         <v>119</v>
       </c>
       <c r="M77" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="N77" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="O77" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="P77" s="1" t="s">
@@ -4408,15 +4408,15 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="M78" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="N78" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="O78" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="P78" s="1" t="s">
@@ -4482,15 +4482,15 @@
         <v>123</v>
       </c>
       <c r="M82" s="1">
-        <f t="shared" ref="M82:M91" si="16">B82</f>
+        <f t="shared" ref="M82:M91" si="18">B82</f>
         <v>1</v>
       </c>
       <c r="N82" s="1">
-        <f t="shared" ref="N82:N91" si="17">C82</f>
+        <f t="shared" ref="N82:N91" si="19">C82</f>
         <v>1</v>
       </c>
       <c r="O82" s="1">
-        <f t="shared" ref="O82:O91" si="18">D82</f>
+        <f t="shared" ref="O82:O91" si="20">D82</f>
         <v>0</v>
       </c>
       <c r="P82" s="1" t="s">
@@ -4517,15 +4517,15 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="M83" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="N83" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="O83" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="P83" s="1" t="s">
@@ -4549,15 +4549,15 @@
         <v>125</v>
       </c>
       <c r="M84" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="N84" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="O84" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="P84" s="1" t="s">
@@ -4581,15 +4581,15 @@
         <v>114</v>
       </c>
       <c r="M85" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="N85" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="O85" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="P85" s="1" t="s">
@@ -4613,15 +4613,15 @@
         <v>127</v>
       </c>
       <c r="M86" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="N86" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="O86" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="P86" s="1" t="s">
@@ -4648,15 +4648,15 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="M87" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="N87" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="O87" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="P87" s="1" t="s">
@@ -4680,15 +4680,15 @@
         <v>129</v>
       </c>
       <c r="M88" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
       <c r="N88" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="O88" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="P88" s="1" t="s">
@@ -4715,15 +4715,15 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="M89" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>8</v>
       </c>
       <c r="N89" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="O89" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="P89" s="1" t="s">
@@ -4747,15 +4747,15 @@
         <v>131</v>
       </c>
       <c r="M90" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9</v>
       </c>
       <c r="N90" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="O90" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="P90" s="1" t="s">
@@ -4782,19 +4782,19 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="M91" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="N91" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="O91" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
@@ -4806,20 +4806,20 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C93" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L93">
         <f>L80+1</f>
         <v>8</v>
       </c>
       <c r="M93" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N93" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="94" spans="2:15">
@@ -4853,22 +4853,22 @@
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M95" s="1">
-        <f t="shared" ref="M95:M104" si="19">B95</f>
+        <f t="shared" ref="M95:M104" si="21">B95</f>
         <v>1</v>
       </c>
       <c r="N95" s="1">
-        <f t="shared" ref="N95:N104" si="20">C95</f>
+        <f t="shared" ref="N95:N104" si="22">C95</f>
         <v>0</v>
       </c>
       <c r="O95" s="1">
-        <f t="shared" ref="O95:O104" si="21">D95</f>
+        <f t="shared" ref="O95:O104" si="23">D95</f>
         <v>0</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
@@ -4885,25 +4885,25 @@
         <v>0</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="M96" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="N96" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O96" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
@@ -4920,22 +4920,22 @@
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M97" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="N97" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O97" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
@@ -4952,22 +4952,22 @@
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M98" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="N98" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O98" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
@@ -4984,25 +4984,25 @@
         <v>1</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="M99" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="N99" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O99" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
@@ -5019,22 +5019,22 @@
         <v>1</v>
       </c>
       <c r="E100" t="s">
+        <v>141</v>
+      </c>
+      <c r="M100" s="1">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="N100" s="1">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="O100" s="1">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="P100" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="M100" s="1">
-        <f t="shared" si="19"/>
-        <v>6</v>
-      </c>
-      <c r="N100" s="1">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="O100" s="1">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="P100" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
@@ -5051,22 +5051,22 @@
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M101" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="N101" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="O101" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
@@ -5083,25 +5083,25 @@
         <v>2</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="M102" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="N102" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="O102" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
@@ -5118,22 +5118,22 @@
         <v>2</v>
       </c>
       <c r="E103" t="s">
+        <v>144</v>
+      </c>
+      <c r="M103" s="1">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="N103" s="1">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="O103" s="1">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="P103" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="M103" s="1">
-        <f t="shared" si="19"/>
-        <v>9</v>
-      </c>
-      <c r="N103" s="1">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="O103" s="1">
-        <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="P103" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
@@ -5150,25 +5150,25 @@
         <v>2</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="M104" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="N104" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="O104" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
@@ -5180,20 +5180,20 @@
         <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C106" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L106">
         <f>L93+1</f>
         <v>9</v>
       </c>
       <c r="M106" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N106" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="107" spans="2:15">
@@ -5227,22 +5227,22 @@
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M108" s="1">
-        <f t="shared" ref="M108:M117" si="22">B108</f>
+        <f t="shared" ref="M108:M117" si="24">B108</f>
         <v>1</v>
       </c>
       <c r="N108" s="1">
-        <f t="shared" ref="N108:N117" si="23">C108</f>
+        <f t="shared" ref="N108:N117" si="25">C108</f>
         <v>0</v>
       </c>
       <c r="O108" s="1">
-        <f t="shared" ref="O108:O117" si="24">D108</f>
+        <f t="shared" ref="O108:O117" si="26">D108</f>
         <v>0</v>
       </c>
       <c r="P108" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q108" s="1"/>
       <c r="R108" s="1"/>
@@ -5259,22 +5259,22 @@
         <v>0</v>
       </c>
       <c r="E109" t="s">
+        <v>150</v>
+      </c>
+      <c r="M109" s="1">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="N109" s="1">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="O109" s="1">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="P109" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="M109" s="1">
-        <f t="shared" si="22"/>
-        <v>2</v>
-      </c>
-      <c r="N109" s="1">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="O109" s="1">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="P109" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
@@ -5291,26 +5291,26 @@
         <v>0</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
       <c r="M110" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="N110" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O110" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P110" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q110" s="1"/>
       <c r="R110" s="1"/>
@@ -5327,26 +5327,26 @@
         <v>1</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
       <c r="M111" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="N111" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O111" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="P111" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
@@ -5363,22 +5363,22 @@
         <v>1</v>
       </c>
       <c r="E112" t="s">
+        <v>153</v>
+      </c>
+      <c r="M112" s="1">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="N112" s="1">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="O112" s="1">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="P112" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="M112" s="1">
-        <f t="shared" si="22"/>
-        <v>5</v>
-      </c>
-      <c r="N112" s="1">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="O112" s="1">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="P112" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
@@ -5395,22 +5395,22 @@
         <v>1</v>
       </c>
       <c r="E113" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M113" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>6</v>
       </c>
       <c r="N113" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O113" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="P113" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
@@ -5427,22 +5427,22 @@
         <v>1</v>
       </c>
       <c r="E114" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M114" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="N114" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O114" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q114" s="1"/>
       <c r="R114" s="1"/>
@@ -5459,22 +5459,22 @@
         <v>2</v>
       </c>
       <c r="E115" t="s">
+        <v>157</v>
+      </c>
+      <c r="M115" s="1">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="N115" s="1">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="O115" s="1">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="P115" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="M115" s="1">
-        <f t="shared" si="22"/>
-        <v>8</v>
-      </c>
-      <c r="N115" s="1">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="O115" s="1">
-        <f t="shared" si="24"/>
-        <v>2</v>
-      </c>
-      <c r="P115" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
@@ -5491,26 +5491,26 @@
         <v>2</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
       <c r="M116" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>9</v>
       </c>
       <c r="N116" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="O116" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="P116" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
@@ -5527,26 +5527,26 @@
         <v>2</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
       <c r="M117" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="N117" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="O117" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q117" s="1"/>
       <c r="R117" s="1"/>
@@ -5558,20 +5558,20 @@
         <v>10</v>
       </c>
       <c r="B119" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C119" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L119">
         <f>L106+1</f>
         <v>10</v>
       </c>
       <c r="M119" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N119" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120" spans="2:15">
@@ -5605,25 +5605,25 @@
         <v>0</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="M121" s="1">
-        <f t="shared" ref="M121:M130" si="25">B121</f>
+        <f t="shared" ref="M121:M130" si="27">B121</f>
         <v>1</v>
       </c>
       <c r="N121" s="1">
-        <f t="shared" ref="N121:N130" si="26">C121</f>
+        <f t="shared" ref="N121:N130" si="28">C121</f>
         <v>0</v>
       </c>
       <c r="O121" s="1">
-        <f t="shared" ref="O121:O130" si="27">D121</f>
+        <f t="shared" ref="O121:O130" si="29">D121</f>
         <v>0</v>
       </c>
       <c r="P121" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q121" s="1"/>
       <c r="R121" s="1"/>
@@ -5640,22 +5640,22 @@
         <v>0</v>
       </c>
       <c r="E122" t="s">
+        <v>162</v>
+      </c>
+      <c r="M122" s="1">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="N122" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="O122" s="1">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="P122" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="M122" s="1">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
-      <c r="N122" s="1">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="O122" s="1">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="P122" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="Q122" s="1"/>
       <c r="R122" s="1"/>
@@ -5672,26 +5672,26 @@
         <v>0</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
       <c r="M123" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="N123" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="O123" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="P123" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q123" s="1"/>
       <c r="R123" s="1"/>
@@ -5708,22 +5708,22 @@
         <v>1</v>
       </c>
       <c r="E124" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M124" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
       <c r="N124" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="O124" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="P124" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q124" s="1"/>
       <c r="R124" s="1"/>
@@ -5740,25 +5740,25 @@
         <v>1</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="M125" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5</v>
       </c>
       <c r="N125" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="O125" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="P125" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q125" s="1"/>
       <c r="R125" s="1"/>
@@ -5775,22 +5775,22 @@
         <v>1</v>
       </c>
       <c r="E126" t="s">
+        <v>166</v>
+      </c>
+      <c r="M126" s="1">
+        <f t="shared" si="27"/>
+        <v>6</v>
+      </c>
+      <c r="N126" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="O126" s="1">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="P126" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="M126" s="1">
-        <f t="shared" si="25"/>
-        <v>6</v>
-      </c>
-      <c r="N126" s="1">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="O126" s="1">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="P126" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
@@ -5807,22 +5807,22 @@
         <v>1</v>
       </c>
       <c r="E127" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M127" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="N127" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="O127" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="P127" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q127" s="1"/>
       <c r="R127" s="1"/>
@@ -5839,25 +5839,25 @@
         <v>2</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="M128" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="N128" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="O128" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="P128" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q128" s="1"/>
       <c r="R128" s="1"/>
@@ -5874,22 +5874,22 @@
         <v>2</v>
       </c>
       <c r="E129" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M129" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>9</v>
       </c>
       <c r="N129" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="O129" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="P129" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q129" s="1"/>
       <c r="R129" s="1"/>
@@ -5906,25 +5906,25 @@
         <v>2</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="M130" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>10</v>
       </c>
       <c r="N130" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="O130" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="P130" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q130" s="1"/>
       <c r="R130" s="1"/>
@@ -5936,20 +5936,20 @@
         <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C132" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L132">
         <f>L119+1</f>
         <v>11</v>
       </c>
       <c r="M132" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N132" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="133" spans="2:15">
@@ -5983,22 +5983,22 @@
         <v>0</v>
       </c>
       <c r="E134" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M134" s="1">
-        <f t="shared" ref="M134:M143" si="28">B134</f>
+        <f t="shared" ref="M134:M143" si="30">B134</f>
         <v>1</v>
       </c>
       <c r="N134" s="1">
-        <f t="shared" ref="N134:N143" si="29">C134</f>
+        <f t="shared" ref="N134:N143" si="31">C134</f>
         <v>1</v>
       </c>
       <c r="O134" s="1">
-        <f t="shared" ref="O134:O143" si="30">D134</f>
+        <f t="shared" ref="O134:O143" si="32">D134</f>
         <v>0</v>
       </c>
       <c r="P134" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q134" s="1"/>
       <c r="R134" s="1"/>
@@ -6015,25 +6015,25 @@
         <v>0</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
       <c r="M135" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="N135" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="O135" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P135" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q135" s="1"/>
       <c r="R135" s="1"/>
@@ -6049,26 +6049,26 @@
       <c r="D136">
         <v>1</v>
       </c>
-      <c r="E136" s="3" t="s">
+      <c r="E136" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="M136" s="1">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="N136" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="O136" s="1">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="P136" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="F136" s="3"/>
-      <c r="G136" s="3"/>
-      <c r="H136" s="3"/>
-      <c r="M136" s="1">
-        <f t="shared" si="28"/>
-        <v>3</v>
-      </c>
-      <c r="N136" s="1">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="O136" s="1">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="P136" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="Q136" s="1"/>
       <c r="R136" s="1"/>
@@ -6085,22 +6085,22 @@
         <v>1</v>
       </c>
       <c r="E137" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M137" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="N137" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="O137" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="P137" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q137" s="1"/>
       <c r="R137" s="1"/>
@@ -6117,25 +6117,25 @@
         <v>1</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="M138" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="N138" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="O138" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="P138" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q138" s="1"/>
       <c r="R138" s="1"/>
@@ -6152,22 +6152,22 @@
         <v>2</v>
       </c>
       <c r="E139" t="s">
+        <v>180</v>
+      </c>
+      <c r="M139" s="1">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
+      <c r="N139" s="1">
+        <f t="shared" si="31"/>
+        <v>2</v>
+      </c>
+      <c r="O139" s="1">
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+      <c r="P139" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="M139" s="1">
-        <f t="shared" si="28"/>
-        <v>6</v>
-      </c>
-      <c r="N139" s="1">
-        <f t="shared" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="O139" s="1">
-        <f t="shared" si="30"/>
-        <v>2</v>
-      </c>
-      <c r="P139" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="Q139" s="1"/>
       <c r="R139" s="1"/>
@@ -6184,22 +6184,22 @@
         <v>2</v>
       </c>
       <c r="E140" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M140" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>7</v>
       </c>
       <c r="N140" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="O140" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="P140" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q140" s="1"/>
       <c r="R140" s="1"/>
@@ -6216,25 +6216,25 @@
         <v>3</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="M141" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>8</v>
       </c>
       <c r="N141" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="O141" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="P141" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q141" s="1"/>
       <c r="R141" s="1"/>
@@ -6251,22 +6251,22 @@
         <v>3</v>
       </c>
       <c r="E142" t="s">
+        <v>183</v>
+      </c>
+      <c r="M142" s="1">
+        <f t="shared" si="30"/>
+        <v>9</v>
+      </c>
+      <c r="N142" s="1">
+        <f t="shared" si="31"/>
+        <v>4</v>
+      </c>
+      <c r="O142" s="1">
+        <f t="shared" si="32"/>
+        <v>3</v>
+      </c>
+      <c r="P142" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="M142" s="1">
-        <f t="shared" si="28"/>
-        <v>9</v>
-      </c>
-      <c r="N142" s="1">
-        <f t="shared" si="29"/>
-        <v>4</v>
-      </c>
-      <c r="O142" s="1">
-        <f t="shared" si="30"/>
-        <v>3</v>
-      </c>
-      <c r="P142" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="Q142" s="1"/>
       <c r="R142" s="1"/>
@@ -6283,25 +6283,25 @@
         <v>4</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="M143" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="N143" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="O143" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="P143" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q143" s="1"/>
       <c r="R143" s="1"/>
@@ -6313,20 +6313,20 @@
         <v>12</v>
       </c>
       <c r="B145" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C145" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L145">
         <f>L132+1</f>
         <v>12</v>
       </c>
       <c r="M145" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N145" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="146" spans="2:15">
@@ -6360,22 +6360,22 @@
         <v>0</v>
       </c>
       <c r="E147" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M147" s="1">
-        <f t="shared" ref="M147:M156" si="31">B147</f>
+        <f t="shared" ref="M147:M156" si="33">B147</f>
         <v>1</v>
       </c>
       <c r="N147" s="1">
-        <f t="shared" ref="N147:N156" si="32">C147</f>
+        <f t="shared" ref="N147:N156" si="34">C147</f>
         <v>0</v>
       </c>
       <c r="O147" s="1">
-        <f t="shared" ref="O147:O156" si="33">D147</f>
+        <f t="shared" ref="O147:O156" si="35">D147</f>
         <v>0</v>
       </c>
       <c r="P147" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q147" s="1"/>
       <c r="R147" s="1"/>
@@ -6392,25 +6392,25 @@
         <v>0</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="M148" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
       <c r="N148" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="O148" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="P148" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q148" s="1"/>
       <c r="R148" s="1"/>
@@ -6427,22 +6427,22 @@
         <v>0</v>
       </c>
       <c r="E149" t="s">
+        <v>189</v>
+      </c>
+      <c r="M149" s="1">
+        <f t="shared" si="33"/>
+        <v>3</v>
+      </c>
+      <c r="N149" s="1">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="O149" s="1">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="P149" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="M149" s="1">
-        <f t="shared" si="31"/>
-        <v>3</v>
-      </c>
-      <c r="N149" s="1">
-        <f t="shared" si="32"/>
-        <v>1</v>
-      </c>
-      <c r="O149" s="1">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="P149" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="Q149" s="1"/>
       <c r="R149" s="1"/>
@@ -6459,22 +6459,22 @@
         <v>1</v>
       </c>
       <c r="E150" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M150" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
       <c r="N150" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="O150" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="P150" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q150" s="1"/>
       <c r="R150" s="1"/>
@@ -6491,25 +6491,25 @@
         <v>1</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="M151" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
       <c r="N151" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="O151" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="P151" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q151" s="1"/>
       <c r="R151" s="1"/>
@@ -6526,22 +6526,22 @@
         <v>1</v>
       </c>
       <c r="E152" t="s">
+        <v>192</v>
+      </c>
+      <c r="M152" s="1">
+        <f t="shared" si="33"/>
+        <v>6</v>
+      </c>
+      <c r="N152" s="1">
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
+      <c r="O152" s="1">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="P152" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="M152" s="1">
-        <f t="shared" si="31"/>
-        <v>6</v>
-      </c>
-      <c r="N152" s="1">
-        <f t="shared" si="32"/>
-        <v>2</v>
-      </c>
-      <c r="O152" s="1">
-        <f t="shared" si="33"/>
-        <v>1</v>
-      </c>
-      <c r="P152" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="Q152" s="1"/>
       <c r="R152" s="1"/>
@@ -6558,22 +6558,22 @@
         <v>1</v>
       </c>
       <c r="E153" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M153" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>7</v>
       </c>
       <c r="N153" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>2</v>
       </c>
       <c r="O153" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="P153" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q153" s="1"/>
       <c r="R153" s="1"/>
@@ -6590,25 +6590,25 @@
         <v>2</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="M154" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8</v>
       </c>
       <c r="N154" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>2</v>
       </c>
       <c r="O154" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
       <c r="P154" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q154" s="1"/>
       <c r="R154" s="1"/>
@@ -6625,22 +6625,22 @@
         <v>2</v>
       </c>
       <c r="E155" t="s">
+        <v>195</v>
+      </c>
+      <c r="M155" s="1">
+        <f t="shared" si="33"/>
+        <v>9</v>
+      </c>
+      <c r="N155" s="1">
+        <f t="shared" si="34"/>
+        <v>3</v>
+      </c>
+      <c r="O155" s="1">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="P155" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="M155" s="1">
-        <f t="shared" si="31"/>
-        <v>9</v>
-      </c>
-      <c r="N155" s="1">
-        <f t="shared" si="32"/>
-        <v>3</v>
-      </c>
-      <c r="O155" s="1">
-        <f t="shared" si="33"/>
-        <v>2</v>
-      </c>
-      <c r="P155" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="Q155" s="1"/>
       <c r="R155" s="1"/>
@@ -6657,25 +6657,25 @@
         <v>2</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="M156" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="N156" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>3</v>
       </c>
       <c r="O156" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
       <c r="P156" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q156" s="1"/>
       <c r="R156" s="1"/>
@@ -6687,20 +6687,20 @@
         <v>13</v>
       </c>
       <c r="B158" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C158" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L158">
         <f>L145+1</f>
         <v>13</v>
       </c>
       <c r="M158" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N158" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="159" spans="2:15">
@@ -6734,22 +6734,22 @@
         <v>0</v>
       </c>
       <c r="E160" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M160" s="1">
-        <f t="shared" ref="M160:M169" si="34">B160</f>
+        <f t="shared" ref="M160:M169" si="36">B160</f>
         <v>1</v>
       </c>
       <c r="N160" s="1">
-        <f t="shared" ref="N160:N169" si="35">C160</f>
+        <f t="shared" ref="N160:N169" si="37">C160</f>
         <v>0</v>
       </c>
       <c r="O160" s="1">
-        <f t="shared" ref="O160:O169" si="36">D160</f>
+        <f t="shared" ref="O160:O169" si="38">D160</f>
         <v>0</v>
       </c>
       <c r="P160" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q160" s="1"/>
       <c r="R160" s="1"/>
@@ -6766,22 +6766,22 @@
         <v>0</v>
       </c>
       <c r="E161" t="s">
+        <v>201</v>
+      </c>
+      <c r="M161" s="1">
+        <f t="shared" si="36"/>
+        <v>2</v>
+      </c>
+      <c r="N161" s="1">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="O161" s="1">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="P161" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="M161" s="1">
-        <f t="shared" si="34"/>
-        <v>2</v>
-      </c>
-      <c r="N161" s="1">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="O161" s="1">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="P161" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="Q161" s="1"/>
       <c r="R161" s="1"/>
@@ -6798,25 +6798,25 @@
         <v>0</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="M162" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="N162" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="O162" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="P162" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q162" s="1"/>
       <c r="R162" s="1"/>
@@ -6833,22 +6833,22 @@
         <v>1</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M163" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="N163" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="O163" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="P163" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q163" s="1"/>
       <c r="R163" s="1"/>
@@ -6865,25 +6865,25 @@
         <v>1</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="M164" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="N164" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="O164" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="P164" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q164" s="1"/>
       <c r="R164" s="1"/>
@@ -6900,25 +6900,25 @@
         <v>1</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
       <c r="M165" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>6</v>
       </c>
       <c r="N165" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="O165" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="P165" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q165" s="1"/>
       <c r="R165" s="1"/>
@@ -6935,22 +6935,22 @@
         <v>1</v>
       </c>
       <c r="E166" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M166" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="N166" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="O166" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="P166" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q166" s="1"/>
       <c r="R166" s="1"/>
@@ -6967,22 +6967,22 @@
         <v>2</v>
       </c>
       <c r="E167" t="s">
+        <v>207</v>
+      </c>
+      <c r="M167" s="1">
+        <f t="shared" si="36"/>
+        <v>8</v>
+      </c>
+      <c r="N167" s="1">
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
+      <c r="O167" s="1">
+        <f t="shared" si="38"/>
+        <v>2</v>
+      </c>
+      <c r="P167" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="M167" s="1">
-        <f t="shared" si="34"/>
-        <v>8</v>
-      </c>
-      <c r="N167" s="1">
-        <f t="shared" si="35"/>
-        <v>2</v>
-      </c>
-      <c r="O167" s="1">
-        <f t="shared" si="36"/>
-        <v>2</v>
-      </c>
-      <c r="P167" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="Q167" s="1"/>
       <c r="R167" s="1"/>
@@ -6999,25 +6999,25 @@
         <v>2</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="M168" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>9</v>
       </c>
       <c r="N168" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="O168" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>2</v>
       </c>
       <c r="P168" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q168" s="1"/>
       <c r="R168" s="1"/>
@@ -7034,25 +7034,25 @@
         <v>2</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
       <c r="M169" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
       <c r="N169" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="O169" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>2</v>
       </c>
       <c r="P169" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q169" s="1"/>
       <c r="R169" s="1"/>
@@ -7064,20 +7064,20 @@
         <v>14</v>
       </c>
       <c r="B171" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C171" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L171">
         <f>L158+1</f>
         <v>14</v>
       </c>
       <c r="M171" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N171" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="172" spans="2:15">
@@ -7111,22 +7111,22 @@
         <v>0</v>
       </c>
       <c r="E173" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M173" s="1">
-        <f t="shared" ref="M173:M182" si="37">B173</f>
+        <f t="shared" ref="M173:M182" si="39">B173</f>
         <v>1</v>
       </c>
       <c r="N173" s="1">
-        <f t="shared" ref="N173:N182" si="38">C173</f>
+        <f t="shared" ref="N173:N182" si="40">C173</f>
         <v>0</v>
       </c>
       <c r="O173" s="1">
-        <f t="shared" ref="O173:O182" si="39">D173</f>
+        <f t="shared" ref="O173:O182" si="41">D173</f>
         <v>0</v>
       </c>
       <c r="P173" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q173" s="1"/>
       <c r="R173" s="1"/>
@@ -7143,25 +7143,25 @@
         <v>0</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
       <c r="M174" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="N174" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="O174" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="P174" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q174" s="1"/>
       <c r="R174" s="1"/>
@@ -7178,22 +7178,22 @@
         <v>0</v>
       </c>
       <c r="E175" t="s">
+        <v>213</v>
+      </c>
+      <c r="M175" s="1">
+        <f t="shared" si="39"/>
+        <v>3</v>
+      </c>
+      <c r="N175" s="1">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O175" s="1">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="P175" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M175" s="1">
-        <f t="shared" si="37"/>
-        <v>3</v>
-      </c>
-      <c r="N175" s="1">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="O175" s="1">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="P175" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="Q175" s="1"/>
       <c r="R175" s="1"/>
@@ -7210,22 +7210,22 @@
         <v>1</v>
       </c>
       <c r="E176" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M176" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>4</v>
       </c>
       <c r="N176" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="O176" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="P176" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q176" s="1"/>
       <c r="R176" s="1"/>
@@ -7242,22 +7242,22 @@
         <v>1</v>
       </c>
       <c r="E177" t="s">
+        <v>216</v>
+      </c>
+      <c r="M177" s="1">
+        <f t="shared" si="39"/>
+        <v>5</v>
+      </c>
+      <c r="N177" s="1">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O177" s="1">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="P177" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="M177" s="1">
-        <f t="shared" si="37"/>
-        <v>5</v>
-      </c>
-      <c r="N177" s="1">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="O177" s="1">
-        <f t="shared" si="39"/>
-        <v>1</v>
-      </c>
-      <c r="P177" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="Q177" s="1"/>
       <c r="R177" s="1"/>
@@ -7274,25 +7274,25 @@
         <v>1</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
       <c r="M178" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>6</v>
       </c>
       <c r="N178" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="O178" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="P178" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q178" s="1"/>
       <c r="R178" s="1"/>
@@ -7309,22 +7309,22 @@
         <v>1</v>
       </c>
       <c r="E179" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M179" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>7</v>
       </c>
       <c r="N179" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="O179" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="P179" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q179" s="1"/>
       <c r="R179" s="1"/>
@@ -7341,25 +7341,25 @@
         <v>2</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
       <c r="M180" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>8</v>
       </c>
       <c r="N180" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="O180" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2</v>
       </c>
       <c r="P180" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q180" s="1"/>
       <c r="R180" s="1"/>
@@ -7376,22 +7376,22 @@
         <v>2</v>
       </c>
       <c r="E181" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M181" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>9</v>
       </c>
       <c r="N181" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="O181" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2</v>
       </c>
       <c r="P181" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q181" s="1"/>
       <c r="R181" s="1"/>
@@ -7408,25 +7408,25 @@
         <v>2</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
       <c r="M182" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="N182" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="O182" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2</v>
       </c>
       <c r="P182" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q182" s="1"/>
       <c r="R182" s="1"/>
@@ -7438,20 +7438,20 @@
         <v>15</v>
       </c>
       <c r="B184" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C184" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L184">
         <f>L171+1</f>
         <v>15</v>
       </c>
       <c r="M184" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N184" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="185" spans="2:15">
@@ -7485,22 +7485,22 @@
         <v>0</v>
       </c>
       <c r="E186" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M186" s="1">
-        <f t="shared" ref="M186:M195" si="40">B186</f>
+        <f t="shared" ref="M186:M195" si="42">B186</f>
         <v>1</v>
       </c>
       <c r="N186" s="1">
-        <f t="shared" ref="N186:N195" si="41">C186</f>
+        <f t="shared" ref="N186:N195" si="43">C186</f>
         <v>0</v>
       </c>
       <c r="O186" s="1">
-        <f t="shared" ref="O186:O195" si="42">D186</f>
+        <f t="shared" ref="O186:O195" si="44">D186</f>
         <v>0</v>
       </c>
       <c r="P186" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q186" s="1"/>
       <c r="R186" s="1"/>
@@ -7517,25 +7517,25 @@
         <v>0</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
       <c r="M187" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>2</v>
       </c>
       <c r="N187" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="O187" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="P187" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q187" s="1"/>
       <c r="R187" s="1"/>
@@ -7552,22 +7552,22 @@
         <v>1</v>
       </c>
       <c r="E188" t="s">
+        <v>226</v>
+      </c>
+      <c r="M188" s="1">
+        <f t="shared" si="42"/>
+        <v>3</v>
+      </c>
+      <c r="N188" s="1">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="O188" s="1">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="P188" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="M188" s="1">
-        <f t="shared" si="40"/>
-        <v>3</v>
-      </c>
-      <c r="N188" s="1">
-        <f t="shared" si="41"/>
-        <v>1</v>
-      </c>
-      <c r="O188" s="1">
-        <f t="shared" si="42"/>
-        <v>1</v>
-      </c>
-      <c r="P188" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="Q188" s="1"/>
       <c r="R188" s="1"/>
@@ -7584,22 +7584,22 @@
         <v>1</v>
       </c>
       <c r="E189" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M189" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4</v>
       </c>
       <c r="N189" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="O189" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="P189" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q189" s="1"/>
       <c r="R189" s="1"/>
@@ -7616,25 +7616,25 @@
         <v>1</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
       <c r="M190" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5</v>
       </c>
       <c r="N190" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>2</v>
       </c>
       <c r="O190" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="P190" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q190" s="1"/>
       <c r="R190" s="1"/>
@@ -7651,22 +7651,22 @@
         <v>1</v>
       </c>
       <c r="E191" t="s">
+        <v>229</v>
+      </c>
+      <c r="M191" s="1">
+        <f t="shared" si="42"/>
+        <v>6</v>
+      </c>
+      <c r="N191" s="1">
+        <f t="shared" si="43"/>
+        <v>2</v>
+      </c>
+      <c r="O191" s="1">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="P191" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="M191" s="1">
-        <f t="shared" si="40"/>
-        <v>6</v>
-      </c>
-      <c r="N191" s="1">
-        <f t="shared" si="41"/>
-        <v>2</v>
-      </c>
-      <c r="O191" s="1">
-        <f t="shared" si="42"/>
-        <v>1</v>
-      </c>
-      <c r="P191" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="Q191" s="1"/>
       <c r="R191" s="1"/>
@@ -7683,57 +7683,57 @@
         <v>2</v>
       </c>
       <c r="E192" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M192" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>7</v>
       </c>
       <c r="N192" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>2</v>
       </c>
       <c r="O192" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>2</v>
       </c>
       <c r="P192" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q192" s="1"/>
       <c r="R192" s="1"/>
       <c r="S192" s="1"/>
     </row>
     <row r="193" spans="2:19">
-      <c r="B193" s="3">
+      <c r="B193" s="2">
         <v>8</v>
       </c>
-      <c r="C193" s="3">
-        <v>3</v>
-      </c>
-      <c r="D193" s="3">
-        <v>2</v>
-      </c>
-      <c r="E193" s="3" t="s">
+      <c r="C193" s="2">
+        <v>3</v>
+      </c>
+      <c r="D193" s="2">
+        <v>2</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
+      <c r="H193" s="2"/>
+      <c r="M193" s="1">
+        <f t="shared" si="42"/>
+        <v>8</v>
+      </c>
+      <c r="N193" s="1">
+        <f t="shared" si="43"/>
+        <v>3</v>
+      </c>
+      <c r="O193" s="1">
+        <f t="shared" si="44"/>
+        <v>2</v>
+      </c>
+      <c r="P193" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="F193" s="3"/>
-      <c r="G193" s="3"/>
-      <c r="H193" s="3"/>
-      <c r="M193" s="1">
-        <f t="shared" si="40"/>
-        <v>8</v>
-      </c>
-      <c r="N193" s="1">
-        <f t="shared" si="41"/>
-        <v>3</v>
-      </c>
-      <c r="O193" s="1">
-        <f t="shared" si="42"/>
-        <v>2</v>
-      </c>
-      <c r="P193" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="Q193" s="1"/>
       <c r="R193" s="1"/>
@@ -7750,25 +7750,25 @@
         <v>2</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
       <c r="M194" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>9</v>
       </c>
       <c r="N194" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>3</v>
       </c>
       <c r="O194" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>2</v>
       </c>
       <c r="P194" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q194" s="1"/>
       <c r="R194" s="1"/>
@@ -7785,25 +7785,25 @@
         <v>3</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
       <c r="M195" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="N195" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>3</v>
       </c>
       <c r="O195" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>3</v>
       </c>
       <c r="P195" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q195" s="1"/>
       <c r="R195" s="1"/>
@@ -7829,10 +7829,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/design/cardgame.xlsx
+++ b/design/cardgame.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="238">
   <si>
     <t>规则</t>
   </si>
@@ -357,43 +357,49 @@
     <t>如果被丢弃，对手下轮第一张将抽取此牌</t>
   </si>
   <si>
-    <t>打出此牌，从牌堆抽取1张牌，再丢弃1张牌</t>
+    <t>打出此牌，抽1张牌，再丢弃最小点数的1张牌</t>
+  </si>
+  <si>
+    <t>打出此牌，抽一张牌，再丢弃最小点数的一张牌</t>
+  </si>
+  <si>
+    <t>己方打出此牌，如果造成伤害，吸取50%伤害的生命</t>
+  </si>
+  <si>
+    <t>己方打出此牌，从牌组抽取5张观看，选择0-2张丢弃，其他放回牌堆洗牌</t>
+  </si>
+  <si>
+    <t>任意一方打出此牌，从牌堆抽取2张牌，再丢弃2张牌</t>
+  </si>
+  <si>
+    <t>对方打出此牌，丢弃点数最高的1张牌，并抽取1张牌</t>
+  </si>
+  <si>
+    <t>己方打出此牌，此次对抗造成的伤害50%恢复己方生命</t>
+  </si>
+  <si>
+    <t>己方打出此牌，抽取5张牌，给对手最小的3张牌，并丢弃2张最小的牌</t>
+  </si>
+  <si>
+    <t>任意一方打出此牌，我方从牌组抽取5张牌，再把最小的5张牌给对手</t>
+  </si>
+  <si>
+    <t>二妹</t>
+  </si>
+  <si>
+    <t>特点：吸血，毁灭牌</t>
+  </si>
+  <si>
+    <t>我方持有时，轮开始直接丢弃此牌</t>
+  </si>
+  <si>
+    <t>我方持有时，轮开始直接毁灭此牌，毁灭：同名牌在本局游戏中不再出现，复制牌也被视作同名牌，会从牌堆去掉</t>
+  </si>
+  <si>
+    <t>己方打出此牌后，如果造成伤害，吸取30%伤害的生命</t>
   </si>
   <si>
     <t>己方打出此牌，如果造成伤害，吸取30%伤害的生命</t>
-  </si>
-  <si>
-    <t>己方打出此牌，从牌组抽取5张观看，选择0-2张丢弃，其他放回牌堆洗牌</t>
-  </si>
-  <si>
-    <t>任意一方打出此牌，从牌堆抽取2张牌，再丢弃2张牌</t>
-  </si>
-  <si>
-    <t>对方打出此牌，丢弃点数最高的1张牌，并抽取1张牌</t>
-  </si>
-  <si>
-    <t>己方打出此牌，此次对抗造成的伤害50%恢复己方生命</t>
-  </si>
-  <si>
-    <t>己方打出此牌，抽取5张牌，选择3张加入对手手牌</t>
-  </si>
-  <si>
-    <t>任意一方打出此牌，我方从牌组抽取5张牌，再从手牌选择0-5张送给对手或丢弃</t>
-  </si>
-  <si>
-    <t>二妹</t>
-  </si>
-  <si>
-    <t>特点：吸血，毁灭牌</t>
-  </si>
-  <si>
-    <t>我方持有时，轮开始直接丢弃此牌</t>
-  </si>
-  <si>
-    <t>我方持有时，轮开始直接毁灭此牌，毁灭：同名牌在本局游戏中不再出现，复制牌也被视作同名牌，会从牌堆去掉</t>
-  </si>
-  <si>
-    <t>己方打出此牌后，如果造成伤害，吸取30%伤害的生命</t>
   </si>
   <si>
     <t>己方打出此牌，如果对方出牌对抗，此牌与对抗牌的最大点数的随机1张同时毁灭,对对方造成50伤害</t>
@@ -731,10 +737,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -753,7 +759,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -769,37 +850,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -807,13 +858,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -828,7 +872,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -843,47 +887,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -904,7 +910,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,13 +1024,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,31 +1066,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,109 +1084,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1101,19 +1107,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1121,8 +1146,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1142,56 +1191,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1203,10 +1209,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1218,106 +1224,88 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1326,22 +1314,40 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2146,8 +2152,8 @@
   <sheetPr/>
   <dimension ref="A1:S195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="P91" sqref="P91"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="Q195" sqref="Q195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4137,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -4172,7 +4178,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M71" s="1">
         <f t="shared" si="15"/>
@@ -4204,7 +4210,7 @@
         <v>1</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -4222,7 +4228,7 @@
         <v>1</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
@@ -4239,7 +4245,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M73" s="1">
         <f t="shared" si="15"/>
@@ -4254,7 +4260,7 @@
         <v>1</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
@@ -4271,7 +4277,7 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M74" s="1">
         <f t="shared" si="15"/>
@@ -4286,7 +4292,7 @@
         <v>1</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
@@ -4303,7 +4309,7 @@
         <v>2</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -4321,7 +4327,7 @@
         <v>2</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
@@ -4338,7 +4344,7 @@
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M76" s="1">
         <f t="shared" si="15"/>
@@ -4353,7 +4359,7 @@
         <v>2</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
@@ -4370,7 +4376,7 @@
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M77" s="1">
         <f t="shared" si="15"/>
@@ -4385,7 +4391,7 @@
         <v>2</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
@@ -4402,7 +4408,7 @@
         <v>3</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -4420,7 +4426,7 @@
         <v>3</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
@@ -4432,20 +4438,20 @@
         <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C80" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L80">
         <f>L67+1</f>
         <v>7</v>
       </c>
       <c r="M80" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N80" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="81" spans="2:15">
@@ -4479,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M82" s="1">
         <f t="shared" ref="M82:M91" si="18">B82</f>
@@ -4494,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
@@ -4511,7 +4517,7 @@
         <v>0</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -4529,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
@@ -4546,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M84" s="1">
         <f t="shared" si="18"/>
@@ -4561,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
@@ -4578,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="M85" s="1">
         <f t="shared" si="18"/>
@@ -4593,7 +4599,7 @@
         <v>1</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
@@ -4610,7 +4616,7 @@
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M86" s="1">
         <f t="shared" si="18"/>
@@ -4625,7 +4631,7 @@
         <v>1</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
@@ -4642,7 +4648,7 @@
         <v>1</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -4660,7 +4666,7 @@
         <v>1</v>
       </c>
       <c r="P87" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
@@ -4677,7 +4683,7 @@
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M88" s="1">
         <f t="shared" si="18"/>
@@ -4692,7 +4698,7 @@
         <v>1</v>
       </c>
       <c r="P88" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
@@ -4709,7 +4715,7 @@
         <v>2</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -4727,7 +4733,7 @@
         <v>2</v>
       </c>
       <c r="P89" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
@@ -4744,7 +4750,7 @@
         <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M90" s="1">
         <f t="shared" si="18"/>
@@ -4759,7 +4765,7 @@
         <v>2</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
@@ -4776,7 +4782,7 @@
         <v>2</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -4794,7 +4800,7 @@
         <v>2</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
@@ -4806,20 +4812,20 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C93" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L93">
         <f>L80+1</f>
         <v>8</v>
       </c>
       <c r="M93" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="N93" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94" spans="2:15">
@@ -4853,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M95" s="1">
         <f t="shared" ref="M95:M104" si="21">B95</f>
@@ -4868,7 +4874,7 @@
         <v>0</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
@@ -4885,7 +4891,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
@@ -4903,7 +4909,7 @@
         <v>0</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
@@ -4920,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M97" s="1">
         <f t="shared" si="21"/>
@@ -4935,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
@@ -4952,7 +4958,7 @@
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M98" s="1">
         <f t="shared" si="21"/>
@@ -4967,7 +4973,7 @@
         <v>1</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
@@ -4984,7 +4990,7 @@
         <v>1</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
@@ -5002,7 +5008,7 @@
         <v>1</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
@@ -5019,7 +5025,7 @@
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M100" s="1">
         <f t="shared" si="21"/>
@@ -5034,7 +5040,7 @@
         <v>1</v>
       </c>
       <c r="P100" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
@@ -5051,7 +5057,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M101" s="1">
         <f t="shared" si="21"/>
@@ -5066,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
@@ -5083,7 +5089,7 @@
         <v>2</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -5101,7 +5107,7 @@
         <v>2</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
@@ -5118,7 +5124,7 @@
         <v>2</v>
       </c>
       <c r="E103" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M103" s="1">
         <f t="shared" si="21"/>
@@ -5133,7 +5139,7 @@
         <v>2</v>
       </c>
       <c r="P103" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
@@ -5150,7 +5156,7 @@
         <v>2</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
@@ -5168,7 +5174,7 @@
         <v>2</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
@@ -5180,20 +5186,20 @@
         <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C106" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L106">
         <f>L93+1</f>
         <v>9</v>
       </c>
       <c r="M106" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N106" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="107" spans="2:15">
@@ -5227,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M108" s="1">
         <f t="shared" ref="M108:M117" si="24">B108</f>
@@ -5242,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="P108" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q108" s="1"/>
       <c r="R108" s="1"/>
@@ -5259,7 +5265,7 @@
         <v>0</v>
       </c>
       <c r="E109" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M109" s="1">
         <f t="shared" si="24"/>
@@ -5274,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
@@ -5291,7 +5297,7 @@
         <v>0</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
@@ -5310,7 +5316,7 @@
         <v>0</v>
       </c>
       <c r="P110" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q110" s="1"/>
       <c r="R110" s="1"/>
@@ -5327,7 +5333,7 @@
         <v>1</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
@@ -5346,7 +5352,7 @@
         <v>1</v>
       </c>
       <c r="P111" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
@@ -5363,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="E112" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M112" s="1">
         <f t="shared" si="24"/>
@@ -5378,7 +5384,7 @@
         <v>1</v>
       </c>
       <c r="P112" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
@@ -5395,7 +5401,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M113" s="1">
         <f t="shared" si="24"/>
@@ -5410,7 +5416,7 @@
         <v>1</v>
       </c>
       <c r="P113" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
@@ -5427,7 +5433,7 @@
         <v>1</v>
       </c>
       <c r="E114" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M114" s="1">
         <f t="shared" si="24"/>
@@ -5442,7 +5448,7 @@
         <v>1</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q114" s="1"/>
       <c r="R114" s="1"/>
@@ -5459,7 +5465,7 @@
         <v>2</v>
       </c>
       <c r="E115" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M115" s="1">
         <f t="shared" si="24"/>
@@ -5474,7 +5480,7 @@
         <v>2</v>
       </c>
       <c r="P115" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
@@ -5491,7 +5497,7 @@
         <v>2</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
@@ -5510,7 +5516,7 @@
         <v>2</v>
       </c>
       <c r="P116" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
@@ -5527,7 +5533,7 @@
         <v>2</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
@@ -5546,7 +5552,7 @@
         <v>2</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q117" s="1"/>
       <c r="R117" s="1"/>
@@ -5558,20 +5564,20 @@
         <v>10</v>
       </c>
       <c r="B119" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C119" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L119">
         <f>L106+1</f>
         <v>10</v>
       </c>
       <c r="M119" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N119" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="120" spans="2:15">
@@ -5605,7 +5611,7 @@
         <v>0</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
@@ -5623,7 +5629,7 @@
         <v>0</v>
       </c>
       <c r="P121" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q121" s="1"/>
       <c r="R121" s="1"/>
@@ -5640,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="E122" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M122" s="1">
         <f t="shared" si="27"/>
@@ -5655,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="P122" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q122" s="1"/>
       <c r="R122" s="1"/>
@@ -5672,7 +5678,7 @@
         <v>0</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
@@ -5691,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="P123" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q123" s="1"/>
       <c r="R123" s="1"/>
@@ -5708,7 +5714,7 @@
         <v>1</v>
       </c>
       <c r="E124" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M124" s="1">
         <f t="shared" si="27"/>
@@ -5723,7 +5729,7 @@
         <v>1</v>
       </c>
       <c r="P124" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q124" s="1"/>
       <c r="R124" s="1"/>
@@ -5740,7 +5746,7 @@
         <v>1</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
@@ -5758,7 +5764,7 @@
         <v>1</v>
       </c>
       <c r="P125" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q125" s="1"/>
       <c r="R125" s="1"/>
@@ -5775,7 +5781,7 @@
         <v>1</v>
       </c>
       <c r="E126" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M126" s="1">
         <f t="shared" si="27"/>
@@ -5790,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="P126" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
@@ -5807,7 +5813,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M127" s="1">
         <f t="shared" si="27"/>
@@ -5822,7 +5828,7 @@
         <v>1</v>
       </c>
       <c r="P127" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q127" s="1"/>
       <c r="R127" s="1"/>
@@ -5839,7 +5845,7 @@
         <v>2</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
@@ -5857,7 +5863,7 @@
         <v>2</v>
       </c>
       <c r="P128" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q128" s="1"/>
       <c r="R128" s="1"/>
@@ -5874,7 +5880,7 @@
         <v>2</v>
       </c>
       <c r="E129" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M129" s="1">
         <f t="shared" si="27"/>
@@ -5889,7 +5895,7 @@
         <v>2</v>
       </c>
       <c r="P129" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q129" s="1"/>
       <c r="R129" s="1"/>
@@ -5906,7 +5912,7 @@
         <v>2</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
@@ -5924,7 +5930,7 @@
         <v>2</v>
       </c>
       <c r="P130" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q130" s="1"/>
       <c r="R130" s="1"/>
@@ -5936,20 +5942,20 @@
         <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C132" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L132">
         <f>L119+1</f>
         <v>11</v>
       </c>
       <c r="M132" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="N132" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="133" spans="2:15">
@@ -5983,7 +5989,7 @@
         <v>0</v>
       </c>
       <c r="E134" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M134" s="1">
         <f t="shared" ref="M134:M143" si="30">B134</f>
@@ -5998,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="P134" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q134" s="1"/>
       <c r="R134" s="1"/>
@@ -6015,7 +6021,7 @@
         <v>0</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
@@ -6033,7 +6039,7 @@
         <v>0</v>
       </c>
       <c r="P135" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q135" s="1"/>
       <c r="R135" s="1"/>
@@ -6050,7 +6056,7 @@
         <v>1</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
@@ -6068,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="P136" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q136" s="1"/>
       <c r="R136" s="1"/>
@@ -6085,7 +6091,7 @@
         <v>1</v>
       </c>
       <c r="E137" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M137" s="1">
         <f t="shared" si="30"/>
@@ -6100,7 +6106,7 @@
         <v>1</v>
       </c>
       <c r="P137" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q137" s="1"/>
       <c r="R137" s="1"/>
@@ -6117,7 +6123,7 @@
         <v>1</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
@@ -6135,7 +6141,7 @@
         <v>1</v>
       </c>
       <c r="P138" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q138" s="1"/>
       <c r="R138" s="1"/>
@@ -6152,7 +6158,7 @@
         <v>2</v>
       </c>
       <c r="E139" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M139" s="1">
         <f t="shared" si="30"/>
@@ -6167,7 +6173,7 @@
         <v>2</v>
       </c>
       <c r="P139" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q139" s="1"/>
       <c r="R139" s="1"/>
@@ -6184,7 +6190,7 @@
         <v>2</v>
       </c>
       <c r="E140" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M140" s="1">
         <f t="shared" si="30"/>
@@ -6199,7 +6205,7 @@
         <v>2</v>
       </c>
       <c r="P140" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q140" s="1"/>
       <c r="R140" s="1"/>
@@ -6216,7 +6222,7 @@
         <v>3</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
@@ -6234,7 +6240,7 @@
         <v>3</v>
       </c>
       <c r="P141" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q141" s="1"/>
       <c r="R141" s="1"/>
@@ -6251,7 +6257,7 @@
         <v>3</v>
       </c>
       <c r="E142" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M142" s="1">
         <f t="shared" si="30"/>
@@ -6266,7 +6272,7 @@
         <v>3</v>
       </c>
       <c r="P142" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q142" s="1"/>
       <c r="R142" s="1"/>
@@ -6283,7 +6289,7 @@
         <v>4</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
@@ -6301,7 +6307,7 @@
         <v>4</v>
       </c>
       <c r="P143" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q143" s="1"/>
       <c r="R143" s="1"/>
@@ -6313,20 +6319,20 @@
         <v>12</v>
       </c>
       <c r="B145" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C145" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L145">
         <f>L132+1</f>
         <v>12</v>
       </c>
       <c r="M145" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="N145" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="146" spans="2:15">
@@ -6360,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="E147" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M147" s="1">
         <f t="shared" ref="M147:M156" si="33">B147</f>
@@ -6375,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="P147" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q147" s="1"/>
       <c r="R147" s="1"/>
@@ -6392,7 +6398,7 @@
         <v>0</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
@@ -6410,7 +6416,7 @@
         <v>0</v>
       </c>
       <c r="P148" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q148" s="1"/>
       <c r="R148" s="1"/>
@@ -6427,7 +6433,7 @@
         <v>0</v>
       </c>
       <c r="E149" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M149" s="1">
         <f t="shared" si="33"/>
@@ -6442,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="P149" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q149" s="1"/>
       <c r="R149" s="1"/>
@@ -6459,7 +6465,7 @@
         <v>1</v>
       </c>
       <c r="E150" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M150" s="1">
         <f t="shared" si="33"/>
@@ -6474,7 +6480,7 @@
         <v>1</v>
       </c>
       <c r="P150" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q150" s="1"/>
       <c r="R150" s="1"/>
@@ -6491,7 +6497,7 @@
         <v>1</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
@@ -6509,7 +6515,7 @@
         <v>1</v>
       </c>
       <c r="P151" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q151" s="1"/>
       <c r="R151" s="1"/>
@@ -6526,7 +6532,7 @@
         <v>1</v>
       </c>
       <c r="E152" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M152" s="1">
         <f t="shared" si="33"/>
@@ -6541,7 +6547,7 @@
         <v>1</v>
       </c>
       <c r="P152" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q152" s="1"/>
       <c r="R152" s="1"/>
@@ -6558,7 +6564,7 @@
         <v>1</v>
       </c>
       <c r="E153" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M153" s="1">
         <f t="shared" si="33"/>
@@ -6573,7 +6579,7 @@
         <v>1</v>
       </c>
       <c r="P153" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q153" s="1"/>
       <c r="R153" s="1"/>
@@ -6590,7 +6596,7 @@
         <v>2</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
@@ -6608,7 +6614,7 @@
         <v>2</v>
       </c>
       <c r="P154" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q154" s="1"/>
       <c r="R154" s="1"/>
@@ -6625,7 +6631,7 @@
         <v>2</v>
       </c>
       <c r="E155" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M155" s="1">
         <f t="shared" si="33"/>
@@ -6640,7 +6646,7 @@
         <v>2</v>
       </c>
       <c r="P155" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q155" s="1"/>
       <c r="R155" s="1"/>
@@ -6657,7 +6663,7 @@
         <v>2</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
@@ -6675,7 +6681,7 @@
         <v>2</v>
       </c>
       <c r="P156" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q156" s="1"/>
       <c r="R156" s="1"/>
@@ -6687,20 +6693,20 @@
         <v>13</v>
       </c>
       <c r="B158" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C158" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L158">
         <f>L145+1</f>
         <v>13</v>
       </c>
       <c r="M158" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N158" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="159" spans="2:15">
@@ -6734,7 +6740,7 @@
         <v>0</v>
       </c>
       <c r="E160" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M160" s="1">
         <f t="shared" ref="M160:M169" si="36">B160</f>
@@ -6749,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="P160" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q160" s="1"/>
       <c r="R160" s="1"/>
@@ -6766,7 +6772,7 @@
         <v>0</v>
       </c>
       <c r="E161" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M161" s="1">
         <f t="shared" si="36"/>
@@ -6781,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="P161" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q161" s="1"/>
       <c r="R161" s="1"/>
@@ -6798,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
@@ -6816,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="P162" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q162" s="1"/>
       <c r="R162" s="1"/>
@@ -6833,7 +6839,7 @@
         <v>1</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M163" s="1">
         <f t="shared" si="36"/>
@@ -6848,7 +6854,7 @@
         <v>1</v>
       </c>
       <c r="P163" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q163" s="1"/>
       <c r="R163" s="1"/>
@@ -6865,7 +6871,7 @@
         <v>1</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
@@ -6883,7 +6889,7 @@
         <v>1</v>
       </c>
       <c r="P164" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q164" s="1"/>
       <c r="R164" s="1"/>
@@ -6900,7 +6906,7 @@
         <v>1</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
@@ -6918,7 +6924,7 @@
         <v>1</v>
       </c>
       <c r="P165" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q165" s="1"/>
       <c r="R165" s="1"/>
@@ -6935,7 +6941,7 @@
         <v>1</v>
       </c>
       <c r="E166" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M166" s="1">
         <f t="shared" si="36"/>
@@ -6950,7 +6956,7 @@
         <v>1</v>
       </c>
       <c r="P166" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q166" s="1"/>
       <c r="R166" s="1"/>
@@ -6967,7 +6973,7 @@
         <v>2</v>
       </c>
       <c r="E167" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M167" s="1">
         <f t="shared" si="36"/>
@@ -6982,7 +6988,7 @@
         <v>2</v>
       </c>
       <c r="P167" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q167" s="1"/>
       <c r="R167" s="1"/>
@@ -6999,7 +7005,7 @@
         <v>2</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
@@ -7017,7 +7023,7 @@
         <v>2</v>
       </c>
       <c r="P168" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q168" s="1"/>
       <c r="R168" s="1"/>
@@ -7034,7 +7040,7 @@
         <v>2</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
@@ -7052,7 +7058,7 @@
         <v>2</v>
       </c>
       <c r="P169" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q169" s="1"/>
       <c r="R169" s="1"/>
@@ -7064,20 +7070,20 @@
         <v>14</v>
       </c>
       <c r="B171" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C171" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L171">
         <f>L158+1</f>
         <v>14</v>
       </c>
       <c r="M171" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N171" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="172" spans="2:15">
@@ -7111,7 +7117,7 @@
         <v>0</v>
       </c>
       <c r="E173" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M173" s="1">
         <f t="shared" ref="M173:M182" si="39">B173</f>
@@ -7126,7 +7132,7 @@
         <v>0</v>
       </c>
       <c r="P173" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q173" s="1"/>
       <c r="R173" s="1"/>
@@ -7143,7 +7149,7 @@
         <v>0</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
@@ -7161,7 +7167,7 @@
         <v>0</v>
       </c>
       <c r="P174" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q174" s="1"/>
       <c r="R174" s="1"/>
@@ -7178,7 +7184,7 @@
         <v>0</v>
       </c>
       <c r="E175" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M175" s="1">
         <f t="shared" si="39"/>
@@ -7193,7 +7199,7 @@
         <v>0</v>
       </c>
       <c r="P175" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q175" s="1"/>
       <c r="R175" s="1"/>
@@ -7210,7 +7216,7 @@
         <v>1</v>
       </c>
       <c r="E176" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M176" s="1">
         <f t="shared" si="39"/>
@@ -7225,7 +7231,7 @@
         <v>1</v>
       </c>
       <c r="P176" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q176" s="1"/>
       <c r="R176" s="1"/>
@@ -7242,7 +7248,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M177" s="1">
         <f t="shared" si="39"/>
@@ -7257,7 +7263,7 @@
         <v>1</v>
       </c>
       <c r="P177" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q177" s="1"/>
       <c r="R177" s="1"/>
@@ -7274,7 +7280,7 @@
         <v>1</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
@@ -7292,7 +7298,7 @@
         <v>1</v>
       </c>
       <c r="P178" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q178" s="1"/>
       <c r="R178" s="1"/>
@@ -7309,7 +7315,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M179" s="1">
         <f t="shared" si="39"/>
@@ -7324,7 +7330,7 @@
         <v>1</v>
       </c>
       <c r="P179" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q179" s="1"/>
       <c r="R179" s="1"/>
@@ -7341,7 +7347,7 @@
         <v>2</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
@@ -7359,7 +7365,7 @@
         <v>2</v>
       </c>
       <c r="P180" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q180" s="1"/>
       <c r="R180" s="1"/>
@@ -7376,7 +7382,7 @@
         <v>2</v>
       </c>
       <c r="E181" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M181" s="1">
         <f t="shared" si="39"/>
@@ -7391,7 +7397,7 @@
         <v>2</v>
       </c>
       <c r="P181" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q181" s="1"/>
       <c r="R181" s="1"/>
@@ -7408,7 +7414,7 @@
         <v>2</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
@@ -7426,7 +7432,7 @@
         <v>2</v>
       </c>
       <c r="P182" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q182" s="1"/>
       <c r="R182" s="1"/>
@@ -7438,20 +7444,20 @@
         <v>15</v>
       </c>
       <c r="B184" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C184" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L184">
         <f>L171+1</f>
         <v>15</v>
       </c>
       <c r="M184" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N184" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="185" spans="2:15">
@@ -7485,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="E186" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M186" s="1">
         <f t="shared" ref="M186:M195" si="42">B186</f>
@@ -7500,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="P186" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q186" s="1"/>
       <c r="R186" s="1"/>
@@ -7517,7 +7523,7 @@
         <v>0</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
@@ -7535,7 +7541,7 @@
         <v>0</v>
       </c>
       <c r="P187" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q187" s="1"/>
       <c r="R187" s="1"/>
@@ -7552,7 +7558,7 @@
         <v>1</v>
       </c>
       <c r="E188" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M188" s="1">
         <f t="shared" si="42"/>
@@ -7567,7 +7573,7 @@
         <v>1</v>
       </c>
       <c r="P188" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q188" s="1"/>
       <c r="R188" s="1"/>
@@ -7584,7 +7590,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M189" s="1">
         <f t="shared" si="42"/>
@@ -7599,7 +7605,7 @@
         <v>1</v>
       </c>
       <c r="P189" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q189" s="1"/>
       <c r="R189" s="1"/>
@@ -7616,7 +7622,7 @@
         <v>1</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
@@ -7634,7 +7640,7 @@
         <v>1</v>
       </c>
       <c r="P190" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q190" s="1"/>
       <c r="R190" s="1"/>
@@ -7651,7 +7657,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M191" s="1">
         <f t="shared" si="42"/>
@@ -7666,7 +7672,7 @@
         <v>1</v>
       </c>
       <c r="P191" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q191" s="1"/>
       <c r="R191" s="1"/>
@@ -7683,7 +7689,7 @@
         <v>2</v>
       </c>
       <c r="E192" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M192" s="1">
         <f t="shared" si="42"/>
@@ -7698,7 +7704,7 @@
         <v>2</v>
       </c>
       <c r="P192" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q192" s="1"/>
       <c r="R192" s="1"/>
@@ -7715,7 +7721,7 @@
         <v>2</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
@@ -7733,7 +7739,7 @@
         <v>2</v>
       </c>
       <c r="P193" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q193" s="1"/>
       <c r="R193" s="1"/>
@@ -7750,7 +7756,7 @@
         <v>2</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
@@ -7768,7 +7774,7 @@
         <v>2</v>
       </c>
       <c r="P194" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q194" s="1"/>
       <c r="R194" s="1"/>
@@ -7785,7 +7791,7 @@
         <v>3</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
@@ -7803,7 +7809,7 @@
         <v>3</v>
       </c>
       <c r="P195" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q195" s="1"/>
       <c r="R195" s="1"/>
@@ -7829,10 +7835,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/design/cardgame.xlsx
+++ b/design/cardgame.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="251">
   <si>
     <t>规则</t>
   </si>
@@ -204,6 +204,9 @@
     <t>特点：攻击加强，窃取卡牌</t>
   </si>
   <si>
+    <t>特点：攻击加强，窃取属性</t>
+  </si>
+  <si>
     <t>己方打出此牌，本轮攻击+2</t>
   </si>
   <si>
@@ -222,7 +225,7 @@
     <t>该牌如果参与造成伤害，造成的伤害*2</t>
   </si>
   <si>
-    <t>己方打出此牌，攻击永久+3</t>
+    <t>己方打出此牌，攻击永久+3，其他玩家攻击-1</t>
   </si>
   <si>
     <t>己方打出此牌，本轮伤害*2，包括本次出牌的伤害</t>
@@ -318,6 +321,9 @@
     <t>对手打出此牌，如果对抗产生伤害，伤害减少1段</t>
   </si>
   <si>
+    <t>对手打出此牌，如果产生伤害，伤害减少2段</t>
+  </si>
+  <si>
     <t>对手打出此牌，如果对抗产生伤害，伤害减少2段</t>
   </si>
   <si>
@@ -345,7 +351,7 @@
     <t>我方持有此牌相当于X牌，对手持有此牌相当于0点牌</t>
   </si>
   <si>
-    <t>我方持有此牌相当于X牌，对手持有此牌相当于D点牌</t>
+    <t>对手持有此牌变为3张d点牌</t>
   </si>
   <si>
     <t>大小姐</t>
@@ -357,7 +363,7 @@
     <t>如果被丢弃，对手下轮第一张将抽取此牌</t>
   </si>
   <si>
-    <t>打出此牌，抽1张牌，再丢弃最小点数的1张牌</t>
+    <t>己方打出此牌，抽1张牌，再丢弃最小点数的1张牌</t>
   </si>
   <si>
     <t>打出此牌，抽一张牌，再丢弃最小点数的一张牌</t>
@@ -375,6 +381,9 @@
     <t>对方打出此牌，丢弃点数最高的1张牌，并抽取1张牌</t>
   </si>
   <si>
+    <t>其他人打出此牌，丢弃原点数最高的1张牌，并抽取1张牌</t>
+  </si>
+  <si>
     <t>己方打出此牌，此次对抗造成的伤害50%恢复己方生命</t>
   </si>
   <si>
@@ -393,6 +402,9 @@
     <t>我方持有时，轮开始直接丢弃此牌</t>
   </si>
   <si>
+    <t>我方持有时，本轮开始直接毁灭此牌，毁灭：同名牌在本局游戏中不再出现，复制牌也被视作同名牌，会从牌堆去掉</t>
+  </si>
+  <si>
     <t>我方持有时，轮开始直接毁灭此牌，毁灭：同名牌在本局游戏中不再出现，复制牌也被视作同名牌，会从牌堆去掉</t>
   </si>
   <si>
@@ -402,7 +414,7 @@
     <t>己方打出此牌，如果造成伤害，吸取30%伤害的生命</t>
   </si>
   <si>
-    <t>己方打出此牌，如果对方出牌对抗，此牌与对抗牌的最大点数的随机1张同时毁灭,对对方造成50伤害</t>
+    <t>己方打出此牌，如果对方出牌对抗，此牌与对抗牌的最大点数的1张同时毁灭,对对方造成50伤害</t>
   </si>
   <si>
     <t>己方打出此牌，选择0-1张牌丢弃</t>
@@ -414,7 +426,7 @@
     <t>任意一方打出此牌，对手收到已毁灭的牌*10点伤害</t>
   </si>
   <si>
-    <t>己方打出此牌，此次对抗造成的任何伤害50%恢复己方生命</t>
+    <t>己方打出此牌，此次对抗造成的任何伤害20%恢复己方生命</t>
   </si>
   <si>
     <t>己方打出此牌，对手本轮的弃牌均会毁灭，每毁灭一张造成50伤害，轮结束后此牌毁灭</t>
@@ -435,6 +447,9 @@
     <t>打出此牌，本次游戏看牌数+1，每有一个看牌计数，从最小的牌开始观察对手的牌</t>
   </si>
   <si>
+    <t>我方打出此牌，本次游戏对方被看牌数+1，每有一个看牌计数，从最小的牌开始给拥有此角色的玩家看</t>
+  </si>
+  <si>
     <t>打出此牌，本次游戏看牌数+2，每有一个看牌计数，从最小的牌开始观察对手的牌</t>
   </si>
   <si>
@@ -444,6 +459,9 @@
     <t>打出此牌，指定手中1张与看到的牌指定1张交换，如果没有看到的牌，则不交换</t>
   </si>
   <si>
+    <t>任意一方打出此牌，造成看牌数*10伤害，被看牌数-2</t>
+  </si>
+  <si>
     <t>任意一方打出此牌，造成看牌数*10伤害，我方看牌数-2</t>
   </si>
   <si>
@@ -453,6 +471,9 @@
     <t>对手打出此牌，本次游戏看牌数+2，本轮看牌数暂时+3</t>
   </si>
   <si>
+    <t>我方打出此牌，我方看到的对手的牌本轮不发动任何效果，当作通用牌使用</t>
+  </si>
+  <si>
     <t>打出此牌，我方看到的对手的牌本轮不发动任何效果，当作通用牌使用</t>
   </si>
   <si>
@@ -462,6 +483,9 @@
     <t>任意一方打出此牌后，3轮内我方可以看到对手所有牌</t>
   </si>
   <si>
+    <t>任意一方打出此牌后，2轮内其他人被看所有牌</t>
+  </si>
+  <si>
     <t>恋恋</t>
   </si>
   <si>
@@ -498,7 +522,10 @@
     <t>己方打出此牌，对手丢弃1张最大点数手牌，然后抽两张牌</t>
   </si>
   <si>
-    <t>此牌在牌堆或弃牌堆时，轮开始加入手牌，点数为X，同时对手轮开始加入一张0点通用牌</t>
+    <t>对方打出或弃掉此牌，对方受到80伤害，对手获得此牌时，点数为d牌，轮开始时，从牌堆。弃牌堆进入对方手牌</t>
+  </si>
+  <si>
+    <t>其他方打出或弃掉此牌，并受到80伤害，对手获得此牌时，点数为d牌，一轮开始时，从牌堆。弃牌堆进入其他随机一人的手牌</t>
   </si>
   <si>
     <t>记者</t>
@@ -540,6 +567,9 @@
     <t>己方持有此牌时，所有复制牌点数均为X点</t>
   </si>
   <si>
+    <t>己方持有此牌时，所有复制牌点数本轮均为X点</t>
+  </si>
+  <si>
     <t>阿空</t>
   </si>
   <si>
@@ -579,6 +609,9 @@
     <t>我方持有时，此牌变为3张通常的X牌</t>
   </si>
   <si>
+    <t>我方持有时，此牌置换为3张通常的X牌</t>
+  </si>
+  <si>
     <t>中国</t>
   </si>
   <si>
@@ -633,7 +666,7 @@
     <t>我方打出此牌，下次对我方伤害的30%反击给对方</t>
   </si>
   <si>
-    <t>我方打出此牌，获得一张同名复制，点数额外+3，最大到10，如果10点，则不再复制</t>
+    <t>我方打出此牌，如果不是顺子，那么对手必须多出一张对抗</t>
   </si>
   <si>
     <t>我方获得此牌时，同时获得7点 8点 9点 三张复制的通用牌</t>
@@ -642,7 +675,7 @@
     <t>我方获得此牌时，获得2张复制的7点通常牌</t>
   </si>
   <si>
-    <t>我方打出此牌，复制上一次我方出牌发动的效果</t>
+    <t>我方打出此牌，复制上一次我方出牌发动的效果，此牌效果除外</t>
   </si>
   <si>
     <t>我方打出此牌，本轮针对我方伤害的50%反击给对手</t>
@@ -669,7 +702,7 @@
     <t>对手打出此牌，本轮受到伤害*0.8</t>
   </si>
   <si>
-    <t>我方打出此牌，本轮，对手所有手牌点数-1，X牌变为10点</t>
+    <t>我方打出此牌，本轮，对手所有手牌点数-1</t>
   </si>
   <si>
     <t>对手持有此牌，对手所有手牌点数-1，最小1点，X牌变为10点</t>
@@ -681,7 +714,7 @@
     <t>我方打出此牌，对手炸弹要求牌数+1</t>
   </si>
   <si>
-    <t>对手打出此牌，本轮，其他手牌点数-1，X牌变为10</t>
+    <t>对手打出此牌，本轮，其他手牌点数-1</t>
   </si>
   <si>
     <t>对手打出此牌，本轮，其他手牌点数-1，最小1点，X牌变为10</t>
@@ -708,6 +741,9 @@
     <t>我方打出此牌，本轮，双方每丢弃一张牌，对手受到10点伤害</t>
   </si>
   <si>
+    <t>对手打出此牌，我方丢弃一张点数最小的牌</t>
+  </si>
+  <si>
     <t>我方打出此牌，下轮开始可以选择从弃牌堆选择1张加入手牌</t>
   </si>
   <si>
@@ -717,13 +753,16 @@
     <t>对手打出此牌，我方可以选择0-5张牌丢弃</t>
   </si>
   <si>
+    <t>我方打出此牌，所出的牌原点数最大那张下一轮回到手牌，回到手牌时对对手造成一次10点伤害</t>
+  </si>
+  <si>
+    <t>我方打出此牌，下一轮可以选择再次回到手牌，再次回到手牌点数+1，最多加到X点</t>
+  </si>
+  <si>
     <t>我方打出此牌，所出的牌下轮可选择再次回到手牌，回到手牌时对对手造成一次20点伤害</t>
   </si>
   <si>
-    <t>我方打出此牌，下一轮可以选择再次回到手牌，再次回到手牌点数+1，最多加到X点</t>
-  </si>
-  <si>
-    <t>对方打出或弃掉此牌，对方受到80伤害，对手获得此牌时，点数为d牌，轮开始时，从牌堆。弃牌堆进入对方手牌</t>
+    <t>我方打出此牌，牌堆所有牌被归于弃牌堆弃掉，给对手造成10*弃掉张数的连续伤害</t>
   </si>
   <si>
     <t>吴</t>
@@ -738,9 +777,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -748,6 +787,21 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -759,7 +813,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -774,28 +836,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -803,22 +843,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -841,16 +866,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -871,6 +888,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -879,9 +904,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -910,7 +949,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,55 +1003,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,6 +1027,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1000,19 +1093,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,73 +1129,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1104,11 +1143,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1124,6 +1169,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1152,45 +1230,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1209,10 +1248,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1221,7 +1260,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1230,124 +1269,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1714,8 +1753,8 @@
   <sheetPr/>
   <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2152,8 +2191,8 @@
   <sheetPr/>
   <dimension ref="A1:S195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="Q195" sqref="Q195"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2162,6 +2201,7 @@
     <col min="4" max="4" width="6.88333333333333" customWidth="1"/>
     <col min="5" max="5" width="9.11666666666667" customWidth="1"/>
     <col min="6" max="6" width="9.7" customWidth="1"/>
+    <col min="13" max="13" width="6.60833333333333" customWidth="1"/>
     <col min="14" max="14" width="6.63333333333333" customWidth="1"/>
     <col min="15" max="15" width="6.88333333333333" customWidth="1"/>
     <col min="16" max="16" width="9.11666666666667" customWidth="1"/>
@@ -2573,7 +2613,7 @@
         <v>60</v>
       </c>
       <c r="N15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="2:16">
@@ -2613,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M17" s="1">
         <f t="shared" ref="M17:M26" si="5">B17</f>
@@ -2628,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -2645,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -2663,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -2680,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M19" s="1">
         <f t="shared" si="5"/>
@@ -2695,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -2712,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M20" s="1">
         <f t="shared" si="5"/>
@@ -2727,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -2744,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" si="5"/>
@@ -2759,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -2776,7 +2816,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -2795,7 +2835,7 @@
         <v>1</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -2812,7 +2852,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -2830,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -2847,7 +2887,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M24" s="1">
         <f t="shared" si="5"/>
@@ -2862,7 +2902,7 @@
         <v>1</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -2879,7 +2919,7 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M25" s="1">
         <f t="shared" si="5"/>
@@ -2894,7 +2934,7 @@
         <v>2</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -2911,7 +2951,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -2929,33 +2969,33 @@
         <v>2</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" ht="30" customHeight="1"/>
+    <row r="27" ht="21" customHeight="1"/>
     <row r="28" spans="1:14">
       <c r="A28">
         <f>A15+1</f>
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L28">
         <f>L15+1</f>
         <v>3</v>
       </c>
       <c r="M28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="2:15">
@@ -2989,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -3007,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -3024,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M31" s="1">
         <f t="shared" si="6"/>
@@ -3039,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
@@ -3056,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M32" s="1">
         <f t="shared" si="6"/>
@@ -3071,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -3088,7 +3128,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M33" s="1">
         <f t="shared" si="6"/>
@@ -3103,7 +3143,7 @@
         <v>1</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -3120,7 +3160,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -3138,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
@@ -3155,7 +3195,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M35" s="1">
         <f t="shared" si="6"/>
@@ -3170,7 +3210,7 @@
         <v>1</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
@@ -3187,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M36" s="1">
         <f t="shared" si="6"/>
@@ -3202,7 +3242,7 @@
         <v>1</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -3219,7 +3259,7 @@
         <v>2</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -3237,7 +3277,7 @@
         <v>2</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -3254,7 +3294,7 @@
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M38" s="1">
         <f t="shared" si="6"/>
@@ -3269,7 +3309,7 @@
         <v>2</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
@@ -3286,7 +3326,7 @@
         <v>2</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -3304,7 +3344,7 @@
         <v>2</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
@@ -3316,20 +3356,20 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L41">
         <f>L28+1</f>
         <v>4</v>
       </c>
       <c r="M41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="2:15">
@@ -3363,7 +3403,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M43" s="1">
         <f t="shared" ref="M43:M52" si="9">B43</f>
@@ -3378,7 +3418,7 @@
         <v>1</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
@@ -3395,7 +3435,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -3413,7 +3453,7 @@
         <v>1</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
@@ -3430,7 +3470,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M45" s="1">
         <f t="shared" si="9"/>
@@ -3445,7 +3485,7 @@
         <v>1</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
@@ -3462,7 +3502,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -3480,7 +3520,7 @@
         <v>1</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
@@ -3497,7 +3537,7 @@
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M47" s="1">
         <f t="shared" si="9"/>
@@ -3512,7 +3552,7 @@
         <v>2</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
@@ -3529,7 +3569,7 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M48" s="1">
         <f t="shared" si="9"/>
@@ -3544,7 +3584,7 @@
         <v>2</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
@@ -3561,7 +3601,7 @@
         <v>3</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -3579,7 +3619,7 @@
         <v>3</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
@@ -3596,7 +3636,7 @@
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M50" s="1">
         <f t="shared" si="9"/>
@@ -3611,7 +3651,7 @@
         <v>3</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
@@ -3628,7 +3668,7 @@
         <v>4</v>
       </c>
       <c r="E51" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M51" s="1">
         <f t="shared" si="9"/>
@@ -3643,7 +3683,7 @@
         <v>4</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
@@ -3660,7 +3700,7 @@
         <v>4</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -3678,7 +3718,7 @@
         <v>4</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
@@ -3690,20 +3730,20 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C54" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L54">
         <f>L41+1</f>
         <v>5</v>
       </c>
       <c r="M54" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N54" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="2:15">
@@ -3737,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M56" s="1">
         <f t="shared" ref="M56:M65" si="12">B56</f>
@@ -3752,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
@@ -3769,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -3787,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
@@ -3804,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M58" s="1">
         <f t="shared" si="12"/>
@@ -3819,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
@@ -3836,7 +3876,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M59" s="1">
         <f t="shared" si="12"/>
@@ -3851,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
@@ -3868,7 +3908,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -3886,7 +3926,7 @@
         <v>1</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
@@ -3903,7 +3943,7 @@
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M61" s="1">
         <f t="shared" si="12"/>
@@ -3918,7 +3958,7 @@
         <v>2</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
@@ -3935,7 +3975,7 @@
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M62" s="1">
         <f t="shared" si="12"/>
@@ -3950,7 +3990,7 @@
         <v>2</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
@@ -3967,7 +4007,7 @@
         <v>2</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -3985,7 +4025,7 @@
         <v>2</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
@@ -4002,7 +4042,7 @@
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M64" s="1">
         <f t="shared" si="12"/>
@@ -4017,7 +4057,7 @@
         <v>2</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
@@ -4034,7 +4074,7 @@
         <v>3</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -4052,7 +4092,7 @@
         <v>3</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
@@ -4064,20 +4104,20 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C67" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L67">
         <f>L54+1</f>
         <v>6</v>
       </c>
       <c r="M67" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N67" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="68" spans="2:15">
@@ -4111,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M69" s="1">
         <f t="shared" ref="M69:M78" si="15">B69</f>
@@ -4126,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
@@ -4143,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -4161,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
@@ -4178,7 +4218,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M71" s="1">
         <f t="shared" si="15"/>
@@ -4193,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
@@ -4210,7 +4250,7 @@
         <v>1</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -4228,7 +4268,7 @@
         <v>1</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
@@ -4245,7 +4285,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M73" s="1">
         <f t="shared" si="15"/>
@@ -4260,7 +4300,7 @@
         <v>1</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
@@ -4277,7 +4317,7 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M74" s="1">
         <f t="shared" si="15"/>
@@ -4292,7 +4332,7 @@
         <v>1</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
@@ -4309,7 +4349,7 @@
         <v>2</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -4327,7 +4367,7 @@
         <v>2</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
@@ -4344,7 +4384,7 @@
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M76" s="1">
         <f t="shared" si="15"/>
@@ -4359,7 +4399,7 @@
         <v>2</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
@@ -4376,7 +4416,7 @@
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M77" s="1">
         <f t="shared" si="15"/>
@@ -4391,7 +4431,7 @@
         <v>2</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
@@ -4408,7 +4448,7 @@
         <v>3</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -4426,7 +4466,7 @@
         <v>3</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
@@ -4438,20 +4478,20 @@
         <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C80" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L80">
         <f>L67+1</f>
         <v>7</v>
       </c>
       <c r="M80" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="N80" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="2:15">
@@ -4485,7 +4525,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M82" s="1">
         <f t="shared" ref="M82:M91" si="18">B82</f>
@@ -4500,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
@@ -4517,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -4535,7 +4575,7 @@
         <v>0</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
@@ -4552,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M84" s="1">
         <f t="shared" si="18"/>
@@ -4567,7 +4607,7 @@
         <v>0</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
@@ -4584,7 +4624,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M85" s="1">
         <f t="shared" si="18"/>
@@ -4599,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
@@ -4616,7 +4656,7 @@
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="M86" s="1">
         <f t="shared" si="18"/>
@@ -4631,7 +4671,7 @@
         <v>1</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
@@ -4648,7 +4688,7 @@
         <v>1</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -4666,7 +4706,7 @@
         <v>1</v>
       </c>
       <c r="P87" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
@@ -4683,7 +4723,7 @@
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M88" s="1">
         <f t="shared" si="18"/>
@@ -4698,7 +4738,7 @@
         <v>1</v>
       </c>
       <c r="P88" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
@@ -4715,7 +4755,7 @@
         <v>2</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -4733,7 +4773,7 @@
         <v>2</v>
       </c>
       <c r="P89" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
@@ -4750,7 +4790,7 @@
         <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M90" s="1">
         <f t="shared" si="18"/>
@@ -4765,7 +4805,7 @@
         <v>2</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
@@ -4782,7 +4822,7 @@
         <v>2</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -4800,7 +4840,7 @@
         <v>2</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
@@ -4812,20 +4852,20 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C93" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L93">
         <f>L80+1</f>
         <v>8</v>
       </c>
       <c r="M93" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N93" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="94" spans="2:15">
@@ -4859,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M95" s="1">
         <f t="shared" ref="M95:M104" si="21">B95</f>
@@ -4874,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
@@ -4891,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
@@ -4909,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
@@ -4926,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M97" s="1">
         <f t="shared" si="21"/>
@@ -4941,7 +4981,7 @@
         <v>0</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
@@ -4958,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="M98" s="1">
         <f t="shared" si="21"/>
@@ -4973,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
@@ -4990,7 +5030,7 @@
         <v>1</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
@@ -5008,7 +5048,7 @@
         <v>1</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
@@ -5025,7 +5065,7 @@
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="M100" s="1">
         <f t="shared" si="21"/>
@@ -5040,7 +5080,7 @@
         <v>1</v>
       </c>
       <c r="P100" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
@@ -5057,7 +5097,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="M101" s="1">
         <f t="shared" si="21"/>
@@ -5072,7 +5112,7 @@
         <v>1</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
@@ -5089,7 +5129,7 @@
         <v>2</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -5107,7 +5147,7 @@
         <v>2</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
@@ -5124,7 +5164,7 @@
         <v>2</v>
       </c>
       <c r="E103" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="M103" s="1">
         <f t="shared" si="21"/>
@@ -5139,7 +5179,7 @@
         <v>2</v>
       </c>
       <c r="P103" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
@@ -5156,7 +5196,7 @@
         <v>2</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
@@ -5174,7 +5214,7 @@
         <v>2</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
@@ -5186,20 +5226,20 @@
         <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C106" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="L106">
         <f>L93+1</f>
         <v>9</v>
       </c>
       <c r="M106" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="N106" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="107" spans="2:15">
@@ -5233,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="M108" s="1">
         <f t="shared" ref="M108:M117" si="24">B108</f>
@@ -5248,7 +5288,7 @@
         <v>0</v>
       </c>
       <c r="P108" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="Q108" s="1"/>
       <c r="R108" s="1"/>
@@ -5265,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="E109" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="M109" s="1">
         <f t="shared" si="24"/>
@@ -5280,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
@@ -5297,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
@@ -5316,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="P110" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="Q110" s="1"/>
       <c r="R110" s="1"/>
@@ -5333,7 +5373,7 @@
         <v>1</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
@@ -5352,7 +5392,7 @@
         <v>1</v>
       </c>
       <c r="P111" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
@@ -5369,7 +5409,7 @@
         <v>1</v>
       </c>
       <c r="E112" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="M112" s="1">
         <f t="shared" si="24"/>
@@ -5384,7 +5424,7 @@
         <v>1</v>
       </c>
       <c r="P112" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
@@ -5401,7 +5441,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="M113" s="1">
         <f t="shared" si="24"/>
@@ -5416,7 +5456,7 @@
         <v>1</v>
       </c>
       <c r="P113" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
@@ -5433,7 +5473,7 @@
         <v>1</v>
       </c>
       <c r="E114" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="M114" s="1">
         <f t="shared" si="24"/>
@@ -5448,7 +5488,7 @@
         <v>1</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="Q114" s="1"/>
       <c r="R114" s="1"/>
@@ -5465,7 +5505,7 @@
         <v>2</v>
       </c>
       <c r="E115" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="M115" s="1">
         <f t="shared" si="24"/>
@@ -5480,7 +5520,7 @@
         <v>2</v>
       </c>
       <c r="P115" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
@@ -5497,7 +5537,7 @@
         <v>2</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
@@ -5516,7 +5556,7 @@
         <v>2</v>
       </c>
       <c r="P116" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
@@ -5533,7 +5573,7 @@
         <v>2</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
@@ -5552,7 +5592,7 @@
         <v>2</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="Q117" s="1"/>
       <c r="R117" s="1"/>
@@ -5564,20 +5604,20 @@
         <v>10</v>
       </c>
       <c r="B119" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C119" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="L119">
         <f>L106+1</f>
         <v>10</v>
       </c>
       <c r="M119" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="N119" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="120" spans="2:15">
@@ -5611,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
@@ -5629,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="P121" s="1" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="Q121" s="1"/>
       <c r="R121" s="1"/>
@@ -5646,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="E122" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="M122" s="1">
         <f t="shared" si="27"/>
@@ -5661,7 +5701,7 @@
         <v>0</v>
       </c>
       <c r="P122" s="1" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="Q122" s="1"/>
       <c r="R122" s="1"/>
@@ -5678,7 +5718,7 @@
         <v>0</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
@@ -5697,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="P123" s="1" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="Q123" s="1"/>
       <c r="R123" s="1"/>
@@ -5714,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="E124" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="M124" s="1">
         <f t="shared" si="27"/>
@@ -5729,7 +5769,7 @@
         <v>1</v>
       </c>
       <c r="P124" s="1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="Q124" s="1"/>
       <c r="R124" s="1"/>
@@ -5746,7 +5786,7 @@
         <v>1</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
@@ -5764,7 +5804,7 @@
         <v>1</v>
       </c>
       <c r="P125" s="1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="Q125" s="1"/>
       <c r="R125" s="1"/>
@@ -5781,7 +5821,7 @@
         <v>1</v>
       </c>
       <c r="E126" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="M126" s="1">
         <f t="shared" si="27"/>
@@ -5796,7 +5836,7 @@
         <v>1</v>
       </c>
       <c r="P126" s="1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
@@ -5813,7 +5853,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="M127" s="1">
         <f t="shared" si="27"/>
@@ -5828,7 +5868,7 @@
         <v>1</v>
       </c>
       <c r="P127" s="1" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="Q127" s="1"/>
       <c r="R127" s="1"/>
@@ -5845,7 +5885,7 @@
         <v>2</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
@@ -5863,7 +5903,7 @@
         <v>2</v>
       </c>
       <c r="P128" s="1" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="Q128" s="1"/>
       <c r="R128" s="1"/>
@@ -5880,7 +5920,7 @@
         <v>2</v>
       </c>
       <c r="E129" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="M129" s="1">
         <f t="shared" si="27"/>
@@ -5895,7 +5935,7 @@
         <v>2</v>
       </c>
       <c r="P129" s="1" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="Q129" s="1"/>
       <c r="R129" s="1"/>
@@ -5912,7 +5952,7 @@
         <v>2</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
@@ -5930,7 +5970,7 @@
         <v>2</v>
       </c>
       <c r="P130" s="1" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="Q130" s="1"/>
       <c r="R130" s="1"/>
@@ -5942,20 +5982,20 @@
         <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C132" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="L132">
         <f>L119+1</f>
         <v>11</v>
       </c>
       <c r="M132" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="N132" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="133" spans="2:15">
@@ -5989,7 +6029,7 @@
         <v>0</v>
       </c>
       <c r="E134" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="M134" s="1">
         <f t="shared" ref="M134:M143" si="30">B134</f>
@@ -6004,7 +6044,7 @@
         <v>0</v>
       </c>
       <c r="P134" s="1" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="Q134" s="1"/>
       <c r="R134" s="1"/>
@@ -6021,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
@@ -6039,7 +6079,7 @@
         <v>0</v>
       </c>
       <c r="P135" s="1" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="Q135" s="1"/>
       <c r="R135" s="1"/>
@@ -6056,7 +6096,7 @@
         <v>1</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
@@ -6074,7 +6114,7 @@
         <v>1</v>
       </c>
       <c r="P136" s="1" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="Q136" s="1"/>
       <c r="R136" s="1"/>
@@ -6091,7 +6131,7 @@
         <v>1</v>
       </c>
       <c r="E137" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="M137" s="1">
         <f t="shared" si="30"/>
@@ -6106,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="P137" s="1" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="Q137" s="1"/>
       <c r="R137" s="1"/>
@@ -6123,7 +6163,7 @@
         <v>1</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
@@ -6141,7 +6181,7 @@
         <v>1</v>
       </c>
       <c r="P138" s="1" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="Q138" s="1"/>
       <c r="R138" s="1"/>
@@ -6158,7 +6198,7 @@
         <v>2</v>
       </c>
       <c r="E139" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="M139" s="1">
         <f t="shared" si="30"/>
@@ -6173,7 +6213,7 @@
         <v>2</v>
       </c>
       <c r="P139" s="1" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="Q139" s="1"/>
       <c r="R139" s="1"/>
@@ -6190,7 +6230,7 @@
         <v>2</v>
       </c>
       <c r="E140" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="M140" s="1">
         <f t="shared" si="30"/>
@@ -6205,7 +6245,7 @@
         <v>2</v>
       </c>
       <c r="P140" s="1" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="Q140" s="1"/>
       <c r="R140" s="1"/>
@@ -6222,7 +6262,7 @@
         <v>3</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
@@ -6240,7 +6280,7 @@
         <v>3</v>
       </c>
       <c r="P141" s="1" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="Q141" s="1"/>
       <c r="R141" s="1"/>
@@ -6257,7 +6297,7 @@
         <v>3</v>
       </c>
       <c r="E142" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="M142" s="1">
         <f t="shared" si="30"/>
@@ -6272,7 +6312,7 @@
         <v>3</v>
       </c>
       <c r="P142" s="1" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="Q142" s="1"/>
       <c r="R142" s="1"/>
@@ -6289,7 +6329,7 @@
         <v>4</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
@@ -6307,7 +6347,7 @@
         <v>4</v>
       </c>
       <c r="P143" s="1" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="Q143" s="1"/>
       <c r="R143" s="1"/>
@@ -6319,20 +6359,20 @@
         <v>12</v>
       </c>
       <c r="B145" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="C145" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="L145">
         <f>L132+1</f>
         <v>12</v>
       </c>
       <c r="M145" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="N145" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
     </row>
     <row r="146" spans="2:15">
@@ -6366,7 +6406,7 @@
         <v>0</v>
       </c>
       <c r="E147" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="M147" s="1">
         <f t="shared" ref="M147:M156" si="33">B147</f>
@@ -6381,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="P147" s="1" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="Q147" s="1"/>
       <c r="R147" s="1"/>
@@ -6398,7 +6438,7 @@
         <v>0</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
@@ -6416,7 +6456,7 @@
         <v>0</v>
       </c>
       <c r="P148" s="1" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="Q148" s="1"/>
       <c r="R148" s="1"/>
@@ -6433,7 +6473,7 @@
         <v>0</v>
       </c>
       <c r="E149" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="M149" s="1">
         <f t="shared" si="33"/>
@@ -6448,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="P149" s="1" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="Q149" s="1"/>
       <c r="R149" s="1"/>
@@ -6465,7 +6505,7 @@
         <v>1</v>
       </c>
       <c r="E150" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="M150" s="1">
         <f t="shared" si="33"/>
@@ -6480,7 +6520,7 @@
         <v>1</v>
       </c>
       <c r="P150" s="1" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="Q150" s="1"/>
       <c r="R150" s="1"/>
@@ -6497,7 +6537,7 @@
         <v>1</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
@@ -6515,7 +6555,7 @@
         <v>1</v>
       </c>
       <c r="P151" s="1" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="Q151" s="1"/>
       <c r="R151" s="1"/>
@@ -6532,7 +6572,7 @@
         <v>1</v>
       </c>
       <c r="E152" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="M152" s="1">
         <f t="shared" si="33"/>
@@ -6547,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="P152" s="1" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="Q152" s="1"/>
       <c r="R152" s="1"/>
@@ -6564,7 +6604,7 @@
         <v>1</v>
       </c>
       <c r="E153" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="M153" s="1">
         <f t="shared" si="33"/>
@@ -6579,7 +6619,7 @@
         <v>1</v>
       </c>
       <c r="P153" s="1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="Q153" s="1"/>
       <c r="R153" s="1"/>
@@ -6596,7 +6636,7 @@
         <v>2</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
@@ -6614,7 +6654,7 @@
         <v>2</v>
       </c>
       <c r="P154" s="1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="Q154" s="1"/>
       <c r="R154" s="1"/>
@@ -6631,7 +6671,7 @@
         <v>2</v>
       </c>
       <c r="E155" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="M155" s="1">
         <f t="shared" si="33"/>
@@ -6646,7 +6686,7 @@
         <v>2</v>
       </c>
       <c r="P155" s="1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="Q155" s="1"/>
       <c r="R155" s="1"/>
@@ -6663,7 +6703,7 @@
         <v>2</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
@@ -6681,7 +6721,7 @@
         <v>2</v>
       </c>
       <c r="P156" s="1" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="Q156" s="1"/>
       <c r="R156" s="1"/>
@@ -6693,20 +6733,20 @@
         <v>13</v>
       </c>
       <c r="B158" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C158" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="L158">
         <f>L145+1</f>
         <v>13</v>
       </c>
       <c r="M158" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="N158" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
     </row>
     <row r="159" spans="2:15">
@@ -6740,7 +6780,7 @@
         <v>0</v>
       </c>
       <c r="E160" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="M160" s="1">
         <f t="shared" ref="M160:M169" si="36">B160</f>
@@ -6755,7 +6795,7 @@
         <v>0</v>
       </c>
       <c r="P160" s="1" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="Q160" s="1"/>
       <c r="R160" s="1"/>
@@ -6772,7 +6812,7 @@
         <v>0</v>
       </c>
       <c r="E161" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="M161" s="1">
         <f t="shared" si="36"/>
@@ -6787,7 +6827,7 @@
         <v>0</v>
       </c>
       <c r="P161" s="1" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="Q161" s="1"/>
       <c r="R161" s="1"/>
@@ -6804,7 +6844,7 @@
         <v>0</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
@@ -6822,7 +6862,7 @@
         <v>0</v>
       </c>
       <c r="P162" s="1" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="Q162" s="1"/>
       <c r="R162" s="1"/>
@@ -6839,7 +6879,7 @@
         <v>1</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="M163" s="1">
         <f t="shared" si="36"/>
@@ -6854,7 +6894,7 @@
         <v>1</v>
       </c>
       <c r="P163" s="1" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="Q163" s="1"/>
       <c r="R163" s="1"/>
@@ -6871,7 +6911,7 @@
         <v>1</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
@@ -6889,7 +6929,7 @@
         <v>1</v>
       </c>
       <c r="P164" s="1" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="Q164" s="1"/>
       <c r="R164" s="1"/>
@@ -6906,7 +6946,7 @@
         <v>1</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
@@ -6924,7 +6964,7 @@
         <v>1</v>
       </c>
       <c r="P165" s="1" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="Q165" s="1"/>
       <c r="R165" s="1"/>
@@ -6941,7 +6981,7 @@
         <v>1</v>
       </c>
       <c r="E166" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="M166" s="1">
         <f t="shared" si="36"/>
@@ -6956,7 +6996,7 @@
         <v>1</v>
       </c>
       <c r="P166" s="1" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="Q166" s="1"/>
       <c r="R166" s="1"/>
@@ -6973,7 +7013,7 @@
         <v>2</v>
       </c>
       <c r="E167" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="M167" s="1">
         <f t="shared" si="36"/>
@@ -6988,7 +7028,7 @@
         <v>2</v>
       </c>
       <c r="P167" s="1" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="Q167" s="1"/>
       <c r="R167" s="1"/>
@@ -7005,7 +7045,7 @@
         <v>2</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
@@ -7023,7 +7063,7 @@
         <v>2</v>
       </c>
       <c r="P168" s="1" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="Q168" s="1"/>
       <c r="R168" s="1"/>
@@ -7040,7 +7080,7 @@
         <v>2</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
@@ -7058,7 +7098,7 @@
         <v>2</v>
       </c>
       <c r="P169" s="1" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="Q169" s="1"/>
       <c r="R169" s="1"/>
@@ -7070,20 +7110,20 @@
         <v>14</v>
       </c>
       <c r="B171" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="C171" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="L171">
         <f>L158+1</f>
         <v>14</v>
       </c>
       <c r="M171" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="N171" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
     </row>
     <row r="172" spans="2:15">
@@ -7117,7 +7157,7 @@
         <v>0</v>
       </c>
       <c r="E173" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="M173" s="1">
         <f t="shared" ref="M173:M182" si="39">B173</f>
@@ -7132,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="P173" s="1" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="Q173" s="1"/>
       <c r="R173" s="1"/>
@@ -7149,7 +7189,7 @@
         <v>0</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
@@ -7167,7 +7207,7 @@
         <v>0</v>
       </c>
       <c r="P174" s="1" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="Q174" s="1"/>
       <c r="R174" s="1"/>
@@ -7184,7 +7224,7 @@
         <v>0</v>
       </c>
       <c r="E175" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="M175" s="1">
         <f t="shared" si="39"/>
@@ -7199,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="P175" s="1" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="Q175" s="1"/>
       <c r="R175" s="1"/>
@@ -7216,7 +7256,7 @@
         <v>1</v>
       </c>
       <c r="E176" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="M176" s="1">
         <f t="shared" si="39"/>
@@ -7231,7 +7271,7 @@
         <v>1</v>
       </c>
       <c r="P176" s="1" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="Q176" s="1"/>
       <c r="R176" s="1"/>
@@ -7248,7 +7288,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="M177" s="1">
         <f t="shared" si="39"/>
@@ -7263,7 +7303,7 @@
         <v>1</v>
       </c>
       <c r="P177" s="1" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="Q177" s="1"/>
       <c r="R177" s="1"/>
@@ -7280,7 +7320,7 @@
         <v>1</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
@@ -7298,7 +7338,7 @@
         <v>1</v>
       </c>
       <c r="P178" s="1" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="Q178" s="1"/>
       <c r="R178" s="1"/>
@@ -7315,7 +7355,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="M179" s="1">
         <f t="shared" si="39"/>
@@ -7330,7 +7370,7 @@
         <v>1</v>
       </c>
       <c r="P179" s="1" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="Q179" s="1"/>
       <c r="R179" s="1"/>
@@ -7347,7 +7387,7 @@
         <v>2</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
@@ -7365,7 +7405,7 @@
         <v>2</v>
       </c>
       <c r="P180" s="1" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="Q180" s="1"/>
       <c r="R180" s="1"/>
@@ -7382,7 +7422,7 @@
         <v>2</v>
       </c>
       <c r="E181" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="M181" s="1">
         <f t="shared" si="39"/>
@@ -7397,7 +7437,7 @@
         <v>2</v>
       </c>
       <c r="P181" s="1" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="Q181" s="1"/>
       <c r="R181" s="1"/>
@@ -7414,7 +7454,7 @@
         <v>2</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
@@ -7432,7 +7472,7 @@
         <v>2</v>
       </c>
       <c r="P182" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="Q182" s="1"/>
       <c r="R182" s="1"/>
@@ -7444,20 +7484,20 @@
         <v>15</v>
       </c>
       <c r="B184" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="C184" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="L184">
         <f>L171+1</f>
         <v>15</v>
       </c>
       <c r="M184" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="N184" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
     </row>
     <row r="185" spans="2:15">
@@ -7491,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="E186" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="M186" s="1">
         <f t="shared" ref="M186:M195" si="42">B186</f>
@@ -7506,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="P186" s="1" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="Q186" s="1"/>
       <c r="R186" s="1"/>
@@ -7523,7 +7563,7 @@
         <v>0</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
@@ -7541,7 +7581,7 @@
         <v>0</v>
       </c>
       <c r="P187" s="1" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="Q187" s="1"/>
       <c r="R187" s="1"/>
@@ -7558,7 +7598,7 @@
         <v>1</v>
       </c>
       <c r="E188" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="M188" s="1">
         <f t="shared" si="42"/>
@@ -7573,7 +7613,7 @@
         <v>1</v>
       </c>
       <c r="P188" s="1" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="Q188" s="1"/>
       <c r="R188" s="1"/>
@@ -7590,7 +7630,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="M189" s="1">
         <f t="shared" si="42"/>
@@ -7605,7 +7645,7 @@
         <v>1</v>
       </c>
       <c r="P189" s="1" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="Q189" s="1"/>
       <c r="R189" s="1"/>
@@ -7622,7 +7662,7 @@
         <v>1</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
@@ -7640,7 +7680,7 @@
         <v>1</v>
       </c>
       <c r="P190" s="1" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="Q190" s="1"/>
       <c r="R190" s="1"/>
@@ -7657,7 +7697,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="M191" s="1">
         <f t="shared" si="42"/>
@@ -7672,7 +7712,7 @@
         <v>1</v>
       </c>
       <c r="P191" s="1" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="Q191" s="1"/>
       <c r="R191" s="1"/>
@@ -7689,7 +7729,7 @@
         <v>2</v>
       </c>
       <c r="E192" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="M192" s="1">
         <f t="shared" si="42"/>
@@ -7704,7 +7744,7 @@
         <v>2</v>
       </c>
       <c r="P192" s="1" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="Q192" s="1"/>
       <c r="R192" s="1"/>
@@ -7721,7 +7761,7 @@
         <v>2</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
@@ -7739,7 +7779,7 @@
         <v>2</v>
       </c>
       <c r="P193" s="1" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="Q193" s="1"/>
       <c r="R193" s="1"/>
@@ -7756,7 +7796,7 @@
         <v>2</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
@@ -7774,7 +7814,7 @@
         <v>2</v>
       </c>
       <c r="P194" s="1" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="Q194" s="1"/>
       <c r="R194" s="1"/>
@@ -7791,7 +7831,7 @@
         <v>3</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>235</v>
+        <v>168</v>
       </c>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
@@ -7809,7 +7849,7 @@
         <v>3</v>
       </c>
       <c r="P195" s="1" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="Q195" s="1"/>
       <c r="R195" s="1"/>
@@ -7835,10 +7875,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="B1" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/design/cardgame.xlsx
+++ b/design/cardgame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="基础规则" sheetId="1" r:id="rId1"/>
@@ -726,7 +726,7 @@
     <t>我方每次获得此牌，添加一个指示计，如果指示计到达3个，则直接胜利</t>
   </si>
   <si>
-    <t>BB</t>
+    <t>紫妈</t>
   </si>
   <si>
     <t>特点：换牌，弃牌，回手牌</t>
@@ -776,9 +776,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -790,9 +790,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -806,54 +813,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -873,10 +842,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -904,13 +889,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -919,8 +897,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -929,6 +915,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -949,7 +949,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,7 +997,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,67 +1081,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,55 +1105,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,25 +1117,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1143,17 +1143,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1173,35 +1173,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1232,6 +1214,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1248,10 +1248,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1260,133 +1260,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2191,8 +2191,8 @@
   <sheetPr/>
   <dimension ref="A1:S195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B52" workbookViewId="0">
-      <selection activeCell="K63" sqref="K63"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B67" workbookViewId="0">
+      <selection activeCell="P182" sqref="P182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/design/cardgame.xlsx
+++ b/design/cardgame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="基础规则" sheetId="1" r:id="rId1"/>
@@ -639,13 +639,13 @@
     <t>我方带有此牌打出时，打出的牌组所有点数+2，如果突破10点则直接造成伤害，对抗直接胜利</t>
   </si>
   <si>
-    <t>我方打出此牌，如果造成伤害，如果上次对抗胜利，则伤害*3</t>
+    <t>我方打出此牌，如果对抗胜利，则下次伤害*3</t>
   </si>
   <si>
     <t>我方打出此牌，如果牌型为单牌，则造成90伤害</t>
   </si>
   <si>
-    <t>我方打出此牌，如果为终结牌，则额外再造成999伤害</t>
+    <t>我方打出此牌，如果为终结牌，则额外再造成333伤害</t>
   </si>
   <si>
     <t>饼梦</t>
@@ -723,7 +723,7 @@
     <t>我方打出此牌，对手所有牌变为相同点数的通用牌的复制</t>
   </si>
   <si>
-    <t>我方每次获得此牌，添加一个指示计，如果指示计到达3个，则直接胜利</t>
+    <t>我方每次打出此牌，添加一个指示计，如果指示计到达3个，则打出此牌可直接消灭一个目标对手</t>
   </si>
   <si>
     <t>紫妈</t>
@@ -1753,7 +1753,7 @@
   <sheetPr/>
   <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
@@ -2191,8 +2191,8 @@
   <sheetPr/>
   <dimension ref="A1:S195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B67" workbookViewId="0">
-      <selection activeCell="P182" sqref="P182"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="X175" sqref="X175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2206,7 +2206,7 @@
     <col min="15" max="15" width="6.88333333333333" customWidth="1"/>
     <col min="16" max="16" width="9.11666666666667" customWidth="1"/>
     <col min="17" max="17" width="9.7" customWidth="1"/>
-    <col min="19" max="19" width="17.7833333333333" customWidth="1"/>
+    <col min="19" max="19" width="40.4333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="13:13">

--- a/design/cardgame.xlsx
+++ b/design/cardgame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28425" windowHeight="12780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="基础规则" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="256">
   <si>
     <t>规则</t>
   </si>
@@ -381,7 +381,7 @@
     <t>对方打出此牌，丢弃点数最高的1张牌，并抽取1张牌</t>
   </si>
   <si>
-    <t>其他人打出此牌，丢弃原点数最高的1张牌，并抽取1张牌</t>
+    <t>其他人打出此牌，此人丢弃原点数最高的1张牌，并抽取1张牌</t>
   </si>
   <si>
     <t>己方打出此牌，此次对抗造成的伤害50%恢复己方生命</t>
@@ -504,7 +504,7 @@
     <t>我方使用此牌打出组牌时，可以利用对手1张牌当作X点牌使用，但是会相当于对手出那1张牌发动效果</t>
   </si>
   <si>
-    <t>我方使用此牌打出组牌时，可以利用对手最大1张牌当作X点牌使用，但是会相当于对手出那1张牌，可能会发动效果</t>
+    <t>我方使用此牌打出组牌时，可以利用对手最小1张牌当作X点牌使用，但是会相当于我方出那1张牌，可能会发动效果</t>
   </si>
   <si>
     <t>我方打出此牌时，可以选择0-2张手牌与对手随机牌交换</t>
@@ -537,6 +537,9 @@
     <t>己方出牌时，打出3张以上相同点数牌时，此牌会附带打出</t>
   </si>
   <si>
+    <t>己方出牌时，打出3张或以上相同点数牌时，此牌可以附带打出</t>
+  </si>
+  <si>
     <t>己方出牌时，打出顺子时可以附带此牌一起出</t>
   </si>
   <si>
@@ -555,7 +558,7 @@
     <t>己方打出此牌，复制对手所有7以上的牌，点数修改为10</t>
   </si>
   <si>
-    <t>己方打出此牌时，所有复制牌可以选择附带随之打出</t>
+    <t>己方打出牌时，所有复制牌点数+1</t>
   </si>
   <si>
     <t>己方打出此牌时，所有复制牌可以选择随之打出</t>
@@ -567,7 +570,7 @@
     <t>己方持有此牌时，所有复制牌点数均为X点</t>
   </si>
   <si>
-    <t>己方持有此牌时，所有复制牌点数本轮均为X点</t>
+    <t>己方打出此牌时，所有复制牌附带随之打出</t>
   </si>
   <si>
     <t>阿空</t>
@@ -591,6 +594,9 @@
     <t>我方打出此牌，本轮所有手牌点数+1，10点会变为X点</t>
   </si>
   <si>
+    <t>我方出牌时，此牌可当作2张6点通常牌使用</t>
+  </si>
+  <si>
     <t>我方持有时，此牌至多可当作2张6点通常牌使用</t>
   </si>
   <si>
@@ -621,6 +627,9 @@
     <t>我方打出此牌，如果造成伤害，本轮所有伤害*2</t>
   </si>
   <si>
+    <t>任意方打出此牌，此对抗结束前，我方所有手牌点数+1</t>
+  </si>
+  <si>
     <t>我方打出此牌，此对抗结束前，所有牌点数+1</t>
   </si>
   <si>
@@ -639,6 +648,9 @@
     <t>我方带有此牌打出时，打出的牌组所有点数+2，如果突破10点则直接造成伤害，对抗直接胜利</t>
   </si>
   <si>
+    <t>我方打出此牌，如果对抗胜利，则伤害*3</t>
+  </si>
+  <si>
     <t>我方打出此牌，如果对抗胜利，则下次伤害*3</t>
   </si>
   <si>
@@ -657,10 +669,13 @@
     <t>我方打出此牌，加入一张通常4的复制</t>
   </si>
   <si>
+    <t>任意打出此牌，下次对我方伤害的20%反击给对方</t>
+  </si>
+  <si>
+    <t>我方打出此牌，加入一张通常6的复制</t>
+  </si>
+  <si>
     <t>我方打出此牌，下次对我方伤害的20%反击给对方</t>
-  </si>
-  <si>
-    <t>我方打出此牌，加入一张通常6的复制</t>
   </si>
   <si>
     <t>我方打出此牌，下次对我方伤害的30%反击给对方</t>
@@ -778,8 +793,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -791,7 +806,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -805,63 +896,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -873,33 +912,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -914,7 +929,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -922,13 +944,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -949,7 +964,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,7 +1030,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,73 +1120,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,85 +1132,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1140,6 +1155,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1173,6 +1197,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1184,30 +1219,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1230,13 +1241,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1248,10 +1263,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1260,133 +1275,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1753,8 +1768,8 @@
   <sheetPr/>
   <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2191,8 +2206,8 @@
   <sheetPr/>
   <dimension ref="A1:S195"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="X175" sqref="X175"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="P121" sqref="P121:P123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5669,7 +5684,7 @@
         <v>0</v>
       </c>
       <c r="P121" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q121" s="1"/>
       <c r="R121" s="1"/>
@@ -5686,7 +5701,7 @@
         <v>0</v>
       </c>
       <c r="E122" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M122" s="1">
         <f t="shared" si="27"/>
@@ -5701,7 +5716,7 @@
         <v>0</v>
       </c>
       <c r="P122" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q122" s="1"/>
       <c r="R122" s="1"/>
@@ -5718,7 +5733,7 @@
         <v>0</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
@@ -5737,7 +5752,7 @@
         <v>0</v>
       </c>
       <c r="P123" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q123" s="1"/>
       <c r="R123" s="1"/>
@@ -5754,7 +5769,7 @@
         <v>1</v>
       </c>
       <c r="E124" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M124" s="1">
         <f t="shared" si="27"/>
@@ -5769,7 +5784,7 @@
         <v>1</v>
       </c>
       <c r="P124" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q124" s="1"/>
       <c r="R124" s="1"/>
@@ -5786,7 +5801,7 @@
         <v>1</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
@@ -5804,7 +5819,7 @@
         <v>1</v>
       </c>
       <c r="P125" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q125" s="1"/>
       <c r="R125" s="1"/>
@@ -5821,7 +5836,7 @@
         <v>1</v>
       </c>
       <c r="E126" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M126" s="1">
         <f t="shared" si="27"/>
@@ -5836,7 +5851,7 @@
         <v>1</v>
       </c>
       <c r="P126" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
@@ -5853,7 +5868,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M127" s="1">
         <f t="shared" si="27"/>
@@ -5868,7 +5883,7 @@
         <v>1</v>
       </c>
       <c r="P127" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q127" s="1"/>
       <c r="R127" s="1"/>
@@ -5885,7 +5900,7 @@
         <v>2</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
@@ -5903,7 +5918,7 @@
         <v>2</v>
       </c>
       <c r="P128" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q128" s="1"/>
       <c r="R128" s="1"/>
@@ -5920,7 +5935,7 @@
         <v>2</v>
       </c>
       <c r="E129" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M129" s="1">
         <f t="shared" si="27"/>
@@ -5935,7 +5950,7 @@
         <v>2</v>
       </c>
       <c r="P129" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q129" s="1"/>
       <c r="R129" s="1"/>
@@ -5952,7 +5967,7 @@
         <v>2</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
@@ -5970,11 +5985,14 @@
         <v>2</v>
       </c>
       <c r="P130" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q130" s="1"/>
       <c r="R130" s="1"/>
       <c r="S130" s="1"/>
+    </row>
+    <row r="131" spans="16:16">
+      <c r="P131" s="1"/>
     </row>
     <row r="132" spans="1:14">
       <c r="A132">
@@ -5982,20 +6000,20 @@
         <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C132" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L132">
         <f>L119+1</f>
         <v>11</v>
       </c>
       <c r="M132" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N132" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="133" spans="2:15">
@@ -6029,7 +6047,7 @@
         <v>0</v>
       </c>
       <c r="E134" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M134" s="1">
         <f t="shared" ref="M134:M143" si="30">B134</f>
@@ -6044,7 +6062,7 @@
         <v>0</v>
       </c>
       <c r="P134" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q134" s="1"/>
       <c r="R134" s="1"/>
@@ -6061,7 +6079,7 @@
         <v>0</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
@@ -6079,7 +6097,7 @@
         <v>0</v>
       </c>
       <c r="P135" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q135" s="1"/>
       <c r="R135" s="1"/>
@@ -6096,7 +6114,7 @@
         <v>1</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
@@ -6114,7 +6132,7 @@
         <v>1</v>
       </c>
       <c r="P136" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q136" s="1"/>
       <c r="R136" s="1"/>
@@ -6131,7 +6149,7 @@
         <v>1</v>
       </c>
       <c r="E137" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M137" s="1">
         <f t="shared" si="30"/>
@@ -6146,7 +6164,7 @@
         <v>1</v>
       </c>
       <c r="P137" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q137" s="1"/>
       <c r="R137" s="1"/>
@@ -6163,7 +6181,7 @@
         <v>1</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
@@ -6181,7 +6199,7 @@
         <v>1</v>
       </c>
       <c r="P138" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q138" s="1"/>
       <c r="R138" s="1"/>
@@ -6198,7 +6216,7 @@
         <v>2</v>
       </c>
       <c r="E139" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M139" s="1">
         <f t="shared" si="30"/>
@@ -6213,7 +6231,7 @@
         <v>2</v>
       </c>
       <c r="P139" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q139" s="1"/>
       <c r="R139" s="1"/>
@@ -6230,7 +6248,7 @@
         <v>2</v>
       </c>
       <c r="E140" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M140" s="1">
         <f t="shared" si="30"/>
@@ -6245,7 +6263,7 @@
         <v>2</v>
       </c>
       <c r="P140" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q140" s="1"/>
       <c r="R140" s="1"/>
@@ -6262,7 +6280,7 @@
         <v>3</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
@@ -6280,7 +6298,7 @@
         <v>3</v>
       </c>
       <c r="P141" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q141" s="1"/>
       <c r="R141" s="1"/>
@@ -6297,7 +6315,7 @@
         <v>3</v>
       </c>
       <c r="E142" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M142" s="1">
         <f t="shared" si="30"/>
@@ -6312,7 +6330,7 @@
         <v>3</v>
       </c>
       <c r="P142" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q142" s="1"/>
       <c r="R142" s="1"/>
@@ -6329,7 +6347,7 @@
         <v>4</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
@@ -6347,7 +6365,7 @@
         <v>4</v>
       </c>
       <c r="P143" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q143" s="1"/>
       <c r="R143" s="1"/>
@@ -6359,20 +6377,20 @@
         <v>12</v>
       </c>
       <c r="B145" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C145" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L145">
         <f>L132+1</f>
         <v>12</v>
       </c>
       <c r="M145" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N145" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="146" spans="2:15">
@@ -6406,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="E147" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M147" s="1">
         <f t="shared" ref="M147:M156" si="33">B147</f>
@@ -6421,7 +6439,7 @@
         <v>0</v>
       </c>
       <c r="P147" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q147" s="1"/>
       <c r="R147" s="1"/>
@@ -6438,7 +6456,7 @@
         <v>0</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
@@ -6456,7 +6474,7 @@
         <v>0</v>
       </c>
       <c r="P148" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q148" s="1"/>
       <c r="R148" s="1"/>
@@ -6473,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="E149" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M149" s="1">
         <f t="shared" si="33"/>
@@ -6488,7 +6506,7 @@
         <v>0</v>
       </c>
       <c r="P149" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q149" s="1"/>
       <c r="R149" s="1"/>
@@ -6505,7 +6523,7 @@
         <v>1</v>
       </c>
       <c r="E150" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M150" s="1">
         <f t="shared" si="33"/>
@@ -6520,7 +6538,7 @@
         <v>1</v>
       </c>
       <c r="P150" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q150" s="1"/>
       <c r="R150" s="1"/>
@@ -6537,7 +6555,7 @@
         <v>1</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
@@ -6555,7 +6573,7 @@
         <v>1</v>
       </c>
       <c r="P151" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q151" s="1"/>
       <c r="R151" s="1"/>
@@ -6572,7 +6590,7 @@
         <v>1</v>
       </c>
       <c r="E152" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M152" s="1">
         <f t="shared" si="33"/>
@@ -6587,7 +6605,7 @@
         <v>1</v>
       </c>
       <c r="P152" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q152" s="1"/>
       <c r="R152" s="1"/>
@@ -6604,7 +6622,7 @@
         <v>1</v>
       </c>
       <c r="E153" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M153" s="1">
         <f t="shared" si="33"/>
@@ -6619,7 +6637,7 @@
         <v>1</v>
       </c>
       <c r="P153" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q153" s="1"/>
       <c r="R153" s="1"/>
@@ -6636,7 +6654,7 @@
         <v>2</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
@@ -6654,7 +6672,7 @@
         <v>2</v>
       </c>
       <c r="P154" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q154" s="1"/>
       <c r="R154" s="1"/>
@@ -6671,7 +6689,7 @@
         <v>2</v>
       </c>
       <c r="E155" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M155" s="1">
         <f t="shared" si="33"/>
@@ -6686,7 +6704,7 @@
         <v>2</v>
       </c>
       <c r="P155" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q155" s="1"/>
       <c r="R155" s="1"/>
@@ -6703,7 +6721,7 @@
         <v>2</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
@@ -6721,7 +6739,7 @@
         <v>2</v>
       </c>
       <c r="P156" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q156" s="1"/>
       <c r="R156" s="1"/>
@@ -6733,20 +6751,20 @@
         <v>13</v>
       </c>
       <c r="B158" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C158" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L158">
         <f>L145+1</f>
         <v>13</v>
       </c>
       <c r="M158" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="N158" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="159" spans="2:15">
@@ -6780,7 +6798,7 @@
         <v>0</v>
       </c>
       <c r="E160" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M160" s="1">
         <f t="shared" ref="M160:M169" si="36">B160</f>
@@ -6795,7 +6813,7 @@
         <v>0</v>
       </c>
       <c r="P160" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q160" s="1"/>
       <c r="R160" s="1"/>
@@ -6812,7 +6830,7 @@
         <v>0</v>
       </c>
       <c r="E161" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M161" s="1">
         <f t="shared" si="36"/>
@@ -6827,7 +6845,7 @@
         <v>0</v>
       </c>
       <c r="P161" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q161" s="1"/>
       <c r="R161" s="1"/>
@@ -6844,7 +6862,7 @@
         <v>0</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
@@ -6862,7 +6880,7 @@
         <v>0</v>
       </c>
       <c r="P162" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q162" s="1"/>
       <c r="R162" s="1"/>
@@ -6879,7 +6897,7 @@
         <v>1</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="M163" s="1">
         <f t="shared" si="36"/>
@@ -6894,7 +6912,7 @@
         <v>1</v>
       </c>
       <c r="P163" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q163" s="1"/>
       <c r="R163" s="1"/>
@@ -6911,7 +6929,7 @@
         <v>1</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
@@ -6929,7 +6947,7 @@
         <v>1</v>
       </c>
       <c r="P164" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q164" s="1"/>
       <c r="R164" s="1"/>
@@ -6946,7 +6964,7 @@
         <v>1</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
@@ -6964,7 +6982,7 @@
         <v>1</v>
       </c>
       <c r="P165" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q165" s="1"/>
       <c r="R165" s="1"/>
@@ -6981,7 +6999,7 @@
         <v>1</v>
       </c>
       <c r="E166" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="M166" s="1">
         <f t="shared" si="36"/>
@@ -6996,7 +7014,7 @@
         <v>1</v>
       </c>
       <c r="P166" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q166" s="1"/>
       <c r="R166" s="1"/>
@@ -7013,7 +7031,7 @@
         <v>2</v>
       </c>
       <c r="E167" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M167" s="1">
         <f t="shared" si="36"/>
@@ -7028,7 +7046,7 @@
         <v>2</v>
       </c>
       <c r="P167" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q167" s="1"/>
       <c r="R167" s="1"/>
@@ -7045,7 +7063,7 @@
         <v>2</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
@@ -7063,7 +7081,7 @@
         <v>2</v>
       </c>
       <c r="P168" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q168" s="1"/>
       <c r="R168" s="1"/>
@@ -7080,7 +7098,7 @@
         <v>2</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
@@ -7098,7 +7116,7 @@
         <v>2</v>
       </c>
       <c r="P169" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q169" s="1"/>
       <c r="R169" s="1"/>
@@ -7110,20 +7128,20 @@
         <v>14</v>
       </c>
       <c r="B171" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C171" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="L171">
         <f>L158+1</f>
         <v>14</v>
       </c>
       <c r="M171" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="N171" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="172" spans="2:15">
@@ -7157,7 +7175,7 @@
         <v>0</v>
       </c>
       <c r="E173" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M173" s="1">
         <f t="shared" ref="M173:M182" si="39">B173</f>
@@ -7172,7 +7190,7 @@
         <v>0</v>
       </c>
       <c r="P173" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q173" s="1"/>
       <c r="R173" s="1"/>
@@ -7189,7 +7207,7 @@
         <v>0</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
@@ -7207,7 +7225,7 @@
         <v>0</v>
       </c>
       <c r="P174" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q174" s="1"/>
       <c r="R174" s="1"/>
@@ -7224,7 +7242,7 @@
         <v>0</v>
       </c>
       <c r="E175" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M175" s="1">
         <f t="shared" si="39"/>
@@ -7239,7 +7257,7 @@
         <v>0</v>
       </c>
       <c r="P175" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q175" s="1"/>
       <c r="R175" s="1"/>
@@ -7256,7 +7274,7 @@
         <v>1</v>
       </c>
       <c r="E176" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="M176" s="1">
         <f t="shared" si="39"/>
@@ -7271,7 +7289,7 @@
         <v>1</v>
       </c>
       <c r="P176" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q176" s="1"/>
       <c r="R176" s="1"/>
@@ -7288,7 +7306,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="M177" s="1">
         <f t="shared" si="39"/>
@@ -7303,7 +7321,7 @@
         <v>1</v>
       </c>
       <c r="P177" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q177" s="1"/>
       <c r="R177" s="1"/>
@@ -7320,7 +7338,7 @@
         <v>1</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
@@ -7338,7 +7356,7 @@
         <v>1</v>
       </c>
       <c r="P178" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q178" s="1"/>
       <c r="R178" s="1"/>
@@ -7355,7 +7373,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="M179" s="1">
         <f t="shared" si="39"/>
@@ -7370,7 +7388,7 @@
         <v>1</v>
       </c>
       <c r="P179" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q179" s="1"/>
       <c r="R179" s="1"/>
@@ -7387,7 +7405,7 @@
         <v>2</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
@@ -7405,7 +7423,7 @@
         <v>2</v>
       </c>
       <c r="P180" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q180" s="1"/>
       <c r="R180" s="1"/>
@@ -7422,7 +7440,7 @@
         <v>2</v>
       </c>
       <c r="E181" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M181" s="1">
         <f t="shared" si="39"/>
@@ -7437,7 +7455,7 @@
         <v>2</v>
       </c>
       <c r="P181" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q181" s="1"/>
       <c r="R181" s="1"/>
@@ -7454,7 +7472,7 @@
         <v>2</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
@@ -7472,7 +7490,7 @@
         <v>2</v>
       </c>
       <c r="P182" s="1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q182" s="1"/>
       <c r="R182" s="1"/>
@@ -7484,20 +7502,20 @@
         <v>15</v>
       </c>
       <c r="B184" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C184" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="L184">
         <f>L171+1</f>
         <v>15</v>
       </c>
       <c r="M184" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="N184" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="185" spans="2:15">
@@ -7531,7 +7549,7 @@
         <v>0</v>
       </c>
       <c r="E186" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="M186" s="1">
         <f t="shared" ref="M186:M195" si="42">B186</f>
@@ -7546,7 +7564,7 @@
         <v>0</v>
       </c>
       <c r="P186" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q186" s="1"/>
       <c r="R186" s="1"/>
@@ -7563,7 +7581,7 @@
         <v>0</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
@@ -7581,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="P187" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q187" s="1"/>
       <c r="R187" s="1"/>
@@ -7598,7 +7616,7 @@
         <v>1</v>
       </c>
       <c r="E188" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M188" s="1">
         <f t="shared" si="42"/>
@@ -7613,7 +7631,7 @@
         <v>1</v>
       </c>
       <c r="P188" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q188" s="1"/>
       <c r="R188" s="1"/>
@@ -7630,7 +7648,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="M189" s="1">
         <f t="shared" si="42"/>
@@ -7645,7 +7663,7 @@
         <v>1</v>
       </c>
       <c r="P189" s="1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q189" s="1"/>
       <c r="R189" s="1"/>
@@ -7662,7 +7680,7 @@
         <v>1</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
@@ -7680,7 +7698,7 @@
         <v>1</v>
       </c>
       <c r="P190" s="1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q190" s="1"/>
       <c r="R190" s="1"/>
@@ -7697,7 +7715,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="M191" s="1">
         <f t="shared" si="42"/>
@@ -7712,7 +7730,7 @@
         <v>1</v>
       </c>
       <c r="P191" s="1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q191" s="1"/>
       <c r="R191" s="1"/>
@@ -7729,7 +7747,7 @@
         <v>2</v>
       </c>
       <c r="E192" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="M192" s="1">
         <f t="shared" si="42"/>
@@ -7744,7 +7762,7 @@
         <v>2</v>
       </c>
       <c r="P192" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q192" s="1"/>
       <c r="R192" s="1"/>
@@ -7761,7 +7779,7 @@
         <v>2</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
@@ -7779,7 +7797,7 @@
         <v>2</v>
       </c>
       <c r="P193" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q193" s="1"/>
       <c r="R193" s="1"/>
@@ -7796,7 +7814,7 @@
         <v>2</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
@@ -7814,7 +7832,7 @@
         <v>2</v>
       </c>
       <c r="P194" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q194" s="1"/>
       <c r="R194" s="1"/>
@@ -7849,7 +7867,7 @@
         <v>3</v>
       </c>
       <c r="P195" s="1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q195" s="1"/>
       <c r="R195" s="1"/>
@@ -7875,10 +7893,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/design/cardgame.xlsx
+++ b/design/cardgame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28425" windowHeight="12780" activeTab="1"/>
+    <workbookView windowWidth="20685" windowHeight="8400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="基础规则" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="261">
   <si>
     <t>规则</t>
   </si>
@@ -321,7 +321,7 @@
     <t>对手打出此牌，如果对抗产生伤害，伤害减少1段</t>
   </si>
   <si>
-    <t>对手打出此牌，如果产生伤害，伤害减少2段</t>
+    <t>对手打出此牌，如果产生伤害，伤害减少3段</t>
   </si>
   <si>
     <t>对手打出此牌，如果对抗产生伤害，伤害减少2段</t>
@@ -333,6 +333,9 @@
     <t>任一方打出此牌，对方获得一张临时通用6点牌，临时牌本轮结束后消失</t>
   </si>
   <si>
+    <t>对手打出此牌，受到50点伤害，如果弃掉，我方获得50经验</t>
+  </si>
+  <si>
     <t>对手打出此牌，受到50点伤害，我方获得此牌</t>
   </si>
   <si>
@@ -549,6 +552,9 @@
     <t>己方打出此牌的同时，出牌不为顺子和单牌时，可以额外再出1张牌</t>
   </si>
   <si>
+    <t>己方打出此牌，获得对手随机两张牌的复制，基础点数修改为8</t>
+  </si>
+  <si>
     <t>己方打出此牌，获得对手随机两张牌的复制，点数修改为8</t>
   </si>
   <si>
@@ -585,6 +591,9 @@
     <t>我方持有时，此牌点数为3</t>
   </si>
   <si>
+    <t>我方持有时，此牌点数至少为6</t>
+  </si>
+  <si>
     <t>我方持有时，此牌点数为6</t>
   </si>
   <si>
@@ -594,7 +603,7 @@
     <t>我方打出此牌，本轮所有手牌点数+1，10点会变为X点</t>
   </si>
   <si>
-    <t>我方出牌时，此牌可当作2张6点通常牌使用</t>
+    <t>此牌点数为6，我方出牌时，此牌可当作2张6点牌使用</t>
   </si>
   <si>
     <t>我方持有时，此牌至多可当作2张6点通常牌使用</t>
@@ -663,6 +672,9 @@
     <t>饼梦</t>
   </si>
   <si>
+    <t>特点：复制技能，反击</t>
+  </si>
+  <si>
     <t>特点：复制牌，反击</t>
   </si>
   <si>
@@ -708,6 +720,9 @@
     <t>对手持有此牌，则只能单个打出</t>
   </si>
   <si>
+    <t>对手抽到此牌，此牌点数至多为1</t>
+  </si>
+  <si>
     <t>对手持有此牌，此牌点数为1</t>
   </si>
   <si>
@@ -729,7 +744,7 @@
     <t>我方打出此牌，对手炸弹要求牌数+1</t>
   </si>
   <si>
-    <t>对手打出此牌，本轮，其他手牌点数-1</t>
+    <t>对手打出此牌，本轮，对手所有手牌点数-2</t>
   </si>
   <si>
     <t>对手打出此牌，本轮，其他手牌点数-1，最小1点，X牌变为10</t>
@@ -791,9 +806,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -806,14 +821,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -828,31 +874,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -866,60 +888,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -936,16 +904,63 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -964,7 +979,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,61 +1105,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,7 +1117,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1054,37 +1141,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1096,55 +1153,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1160,9 +1175,59 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1182,28 +1247,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1222,39 +1270,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1263,10 +1278,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1275,133 +1290,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2206,8 +2221,8 @@
   <sheetPr/>
   <dimension ref="A1:S195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="P121" sqref="P121:P123"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="P139" sqref="P139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2216,6 +2231,8 @@
     <col min="4" max="4" width="6.88333333333333" customWidth="1"/>
     <col min="5" max="5" width="9.11666666666667" customWidth="1"/>
     <col min="6" max="6" width="9.7" customWidth="1"/>
+    <col min="11" max="11" width="32.9416666666667" customWidth="1"/>
+    <col min="12" max="12" width="8.66666666666667" customWidth="1"/>
     <col min="13" max="13" width="6.60833333333333" customWidth="1"/>
     <col min="14" max="14" width="6.63333333333333" customWidth="1"/>
     <col min="15" max="15" width="6.88333333333333" customWidth="1"/>
@@ -3923,7 +3940,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -3958,7 +3975,7 @@
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M61" s="1">
         <f t="shared" si="12"/>
@@ -3990,7 +4007,7 @@
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M62" s="1">
         <f t="shared" si="12"/>
@@ -4005,7 +4022,7 @@
         <v>2</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
@@ -4022,7 +4039,7 @@
         <v>2</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -4040,7 +4057,7 @@
         <v>2</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
@@ -4057,7 +4074,7 @@
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M64" s="1">
         <f t="shared" si="12"/>
@@ -4072,7 +4089,7 @@
         <v>2</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
@@ -4089,7 +4106,7 @@
         <v>3</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -4107,7 +4124,7 @@
         <v>3</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
@@ -4119,20 +4136,20 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C67" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L67">
         <f>L54+1</f>
         <v>6</v>
       </c>
       <c r="M67" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N67" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="2:15">
@@ -4166,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M69" s="1">
         <f t="shared" ref="M69:M78" si="15">B69</f>
@@ -4181,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
@@ -4198,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -4216,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
@@ -4233,7 +4250,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M71" s="1">
         <f t="shared" si="15"/>
@@ -4248,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
@@ -4265,7 +4282,7 @@
         <v>1</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -4283,7 +4300,7 @@
         <v>1</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
@@ -4300,7 +4317,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M73" s="1">
         <f t="shared" si="15"/>
@@ -4315,7 +4332,7 @@
         <v>1</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
@@ -4332,7 +4349,7 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M74" s="1">
         <f t="shared" si="15"/>
@@ -4347,7 +4364,7 @@
         <v>1</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
@@ -4364,7 +4381,7 @@
         <v>2</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -4382,7 +4399,7 @@
         <v>2</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
@@ -4399,7 +4416,7 @@
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M76" s="1">
         <f t="shared" si="15"/>
@@ -4414,7 +4431,7 @@
         <v>2</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
@@ -4431,7 +4448,7 @@
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M77" s="1">
         <f t="shared" si="15"/>
@@ -4446,7 +4463,7 @@
         <v>2</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
@@ -4463,7 +4480,7 @@
         <v>3</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -4481,7 +4498,7 @@
         <v>3</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
@@ -4493,20 +4510,20 @@
         <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C80" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L80">
         <f>L67+1</f>
         <v>7</v>
       </c>
       <c r="M80" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N80" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="2:15">
@@ -4540,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M82" s="1">
         <f t="shared" ref="M82:M91" si="18">B82</f>
@@ -4555,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
@@ -4572,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -4590,7 +4607,7 @@
         <v>0</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
@@ -4607,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M84" s="1">
         <f t="shared" si="18"/>
@@ -4622,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
@@ -4639,7 +4656,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M85" s="1">
         <f t="shared" si="18"/>
@@ -4654,7 +4671,7 @@
         <v>1</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
@@ -4671,7 +4688,7 @@
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M86" s="1">
         <f t="shared" si="18"/>
@@ -4686,7 +4703,7 @@
         <v>1</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
@@ -4703,7 +4720,7 @@
         <v>1</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -4721,7 +4738,7 @@
         <v>1</v>
       </c>
       <c r="P87" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
@@ -4738,7 +4755,7 @@
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M88" s="1">
         <f t="shared" si="18"/>
@@ -4753,7 +4770,7 @@
         <v>1</v>
       </c>
       <c r="P88" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
@@ -4770,7 +4787,7 @@
         <v>2</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -4788,7 +4805,7 @@
         <v>2</v>
       </c>
       <c r="P89" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
@@ -4805,7 +4822,7 @@
         <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M90" s="1">
         <f t="shared" si="18"/>
@@ -4820,7 +4837,7 @@
         <v>2</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
@@ -4837,7 +4854,7 @@
         <v>2</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -4855,7 +4872,7 @@
         <v>2</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
@@ -4867,20 +4884,20 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C93" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L93">
         <f>L80+1</f>
         <v>8</v>
       </c>
       <c r="M93" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N93" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="94" spans="2:15">
@@ -4914,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M95" s="1">
         <f t="shared" ref="M95:M104" si="21">B95</f>
@@ -4929,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
@@ -4946,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
@@ -4964,7 +4981,7 @@
         <v>0</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
@@ -4981,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M97" s="1">
         <f t="shared" si="21"/>
@@ -4996,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
@@ -5013,7 +5030,7 @@
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M98" s="1">
         <f t="shared" si="21"/>
@@ -5028,7 +5045,7 @@
         <v>1</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
@@ -5045,7 +5062,7 @@
         <v>1</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
@@ -5063,7 +5080,7 @@
         <v>1</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
@@ -5080,7 +5097,7 @@
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M100" s="1">
         <f t="shared" si="21"/>
@@ -5095,7 +5112,7 @@
         <v>1</v>
       </c>
       <c r="P100" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
@@ -5112,7 +5129,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M101" s="1">
         <f t="shared" si="21"/>
@@ -5127,7 +5144,7 @@
         <v>1</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
@@ -5144,7 +5161,7 @@
         <v>2</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -5162,7 +5179,7 @@
         <v>2</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
@@ -5179,7 +5196,7 @@
         <v>2</v>
       </c>
       <c r="E103" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M103" s="1">
         <f t="shared" si="21"/>
@@ -5194,7 +5211,7 @@
         <v>2</v>
       </c>
       <c r="P103" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
@@ -5211,7 +5228,7 @@
         <v>2</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
@@ -5229,7 +5246,7 @@
         <v>2</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
@@ -5241,20 +5258,20 @@
         <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C106" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L106">
         <f>L93+1</f>
         <v>9</v>
       </c>
       <c r="M106" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N106" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="107" spans="2:15">
@@ -5288,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M108" s="1">
         <f t="shared" ref="M108:M117" si="24">B108</f>
@@ -5303,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="P108" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q108" s="1"/>
       <c r="R108" s="1"/>
@@ -5320,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="E109" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M109" s="1">
         <f t="shared" si="24"/>
@@ -5335,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
@@ -5352,7 +5369,7 @@
         <v>0</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
@@ -5371,7 +5388,7 @@
         <v>0</v>
       </c>
       <c r="P110" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q110" s="1"/>
       <c r="R110" s="1"/>
@@ -5388,7 +5405,7 @@
         <v>1</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
@@ -5407,7 +5424,7 @@
         <v>1</v>
       </c>
       <c r="P111" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
@@ -5424,7 +5441,7 @@
         <v>1</v>
       </c>
       <c r="E112" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M112" s="1">
         <f t="shared" si="24"/>
@@ -5439,7 +5456,7 @@
         <v>1</v>
       </c>
       <c r="P112" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
@@ -5456,7 +5473,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M113" s="1">
         <f t="shared" si="24"/>
@@ -5471,7 +5488,7 @@
         <v>1</v>
       </c>
       <c r="P113" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
@@ -5488,7 +5505,7 @@
         <v>1</v>
       </c>
       <c r="E114" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M114" s="1">
         <f t="shared" si="24"/>
@@ -5503,7 +5520,7 @@
         <v>1</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q114" s="1"/>
       <c r="R114" s="1"/>
@@ -5520,7 +5537,7 @@
         <v>2</v>
       </c>
       <c r="E115" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M115" s="1">
         <f t="shared" si="24"/>
@@ -5535,7 +5552,7 @@
         <v>2</v>
       </c>
       <c r="P115" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
@@ -5552,7 +5569,7 @@
         <v>2</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
@@ -5571,7 +5588,7 @@
         <v>2</v>
       </c>
       <c r="P116" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
@@ -5588,7 +5605,7 @@
         <v>2</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
@@ -5607,7 +5624,7 @@
         <v>2</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q117" s="1"/>
       <c r="R117" s="1"/>
@@ -5619,20 +5636,20 @@
         <v>10</v>
       </c>
       <c r="B119" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C119" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L119">
         <f>L106+1</f>
         <v>10</v>
       </c>
       <c r="M119" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N119" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="120" spans="2:15">
@@ -5666,7 +5683,7 @@
         <v>0</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
@@ -5684,7 +5701,7 @@
         <v>0</v>
       </c>
       <c r="P121" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q121" s="1"/>
       <c r="R121" s="1"/>
@@ -5701,7 +5718,7 @@
         <v>0</v>
       </c>
       <c r="E122" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M122" s="1">
         <f t="shared" si="27"/>
@@ -5716,7 +5733,7 @@
         <v>0</v>
       </c>
       <c r="P122" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q122" s="1"/>
       <c r="R122" s="1"/>
@@ -5733,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
@@ -5752,7 +5769,7 @@
         <v>0</v>
       </c>
       <c r="P123" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q123" s="1"/>
       <c r="R123" s="1"/>
@@ -5769,7 +5786,7 @@
         <v>1</v>
       </c>
       <c r="E124" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M124" s="1">
         <f t="shared" si="27"/>
@@ -5784,7 +5801,7 @@
         <v>1</v>
       </c>
       <c r="P124" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q124" s="1"/>
       <c r="R124" s="1"/>
@@ -5801,7 +5818,7 @@
         <v>1</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
@@ -5819,7 +5836,7 @@
         <v>1</v>
       </c>
       <c r="P125" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q125" s="1"/>
       <c r="R125" s="1"/>
@@ -5836,7 +5853,7 @@
         <v>1</v>
       </c>
       <c r="E126" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M126" s="1">
         <f t="shared" si="27"/>
@@ -5851,7 +5868,7 @@
         <v>1</v>
       </c>
       <c r="P126" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
@@ -5868,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M127" s="1">
         <f t="shared" si="27"/>
@@ -5883,7 +5900,7 @@
         <v>1</v>
       </c>
       <c r="P127" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q127" s="1"/>
       <c r="R127" s="1"/>
@@ -5900,7 +5917,7 @@
         <v>2</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
@@ -5918,7 +5935,7 @@
         <v>2</v>
       </c>
       <c r="P128" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q128" s="1"/>
       <c r="R128" s="1"/>
@@ -5935,7 +5952,7 @@
         <v>2</v>
       </c>
       <c r="E129" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M129" s="1">
         <f t="shared" si="27"/>
@@ -5950,7 +5967,7 @@
         <v>2</v>
       </c>
       <c r="P129" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q129" s="1"/>
       <c r="R129" s="1"/>
@@ -5967,7 +5984,7 @@
         <v>2</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
@@ -5985,7 +6002,7 @@
         <v>2</v>
       </c>
       <c r="P130" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q130" s="1"/>
       <c r="R130" s="1"/>
@@ -6000,20 +6017,20 @@
         <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C132" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L132">
         <f>L119+1</f>
         <v>11</v>
       </c>
       <c r="M132" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="N132" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="133" spans="2:15">
@@ -6047,7 +6064,7 @@
         <v>0</v>
       </c>
       <c r="E134" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M134" s="1">
         <f t="shared" ref="M134:M143" si="30">B134</f>
@@ -6062,7 +6079,7 @@
         <v>0</v>
       </c>
       <c r="P134" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q134" s="1"/>
       <c r="R134" s="1"/>
@@ -6079,7 +6096,7 @@
         <v>0</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
@@ -6097,7 +6114,7 @@
         <v>0</v>
       </c>
       <c r="P135" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q135" s="1"/>
       <c r="R135" s="1"/>
@@ -6114,7 +6131,7 @@
         <v>1</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
@@ -6132,7 +6149,7 @@
         <v>1</v>
       </c>
       <c r="P136" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q136" s="1"/>
       <c r="R136" s="1"/>
@@ -6149,7 +6166,7 @@
         <v>1</v>
       </c>
       <c r="E137" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M137" s="1">
         <f t="shared" si="30"/>
@@ -6164,7 +6181,7 @@
         <v>1</v>
       </c>
       <c r="P137" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q137" s="1"/>
       <c r="R137" s="1"/>
@@ -6181,7 +6198,7 @@
         <v>1</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
@@ -6199,7 +6216,7 @@
         <v>1</v>
       </c>
       <c r="P138" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q138" s="1"/>
       <c r="R138" s="1"/>
@@ -6216,7 +6233,7 @@
         <v>2</v>
       </c>
       <c r="E139" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M139" s="1">
         <f t="shared" si="30"/>
@@ -6231,7 +6248,7 @@
         <v>2</v>
       </c>
       <c r="P139" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q139" s="1"/>
       <c r="R139" s="1"/>
@@ -6248,7 +6265,7 @@
         <v>2</v>
       </c>
       <c r="E140" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M140" s="1">
         <f t="shared" si="30"/>
@@ -6263,7 +6280,7 @@
         <v>2</v>
       </c>
       <c r="P140" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q140" s="1"/>
       <c r="R140" s="1"/>
@@ -6280,7 +6297,7 @@
         <v>3</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
@@ -6298,7 +6315,7 @@
         <v>3</v>
       </c>
       <c r="P141" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q141" s="1"/>
       <c r="R141" s="1"/>
@@ -6315,7 +6332,7 @@
         <v>3</v>
       </c>
       <c r="E142" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M142" s="1">
         <f t="shared" si="30"/>
@@ -6330,7 +6347,7 @@
         <v>3</v>
       </c>
       <c r="P142" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q142" s="1"/>
       <c r="R142" s="1"/>
@@ -6347,7 +6364,7 @@
         <v>4</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
@@ -6365,7 +6382,7 @@
         <v>4</v>
       </c>
       <c r="P143" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q143" s="1"/>
       <c r="R143" s="1"/>
@@ -6377,20 +6394,20 @@
         <v>12</v>
       </c>
       <c r="B145" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C145" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L145">
         <f>L132+1</f>
         <v>12</v>
       </c>
       <c r="M145" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="N145" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="146" spans="2:15">
@@ -6424,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="E147" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M147" s="1">
         <f t="shared" ref="M147:M156" si="33">B147</f>
@@ -6439,7 +6456,7 @@
         <v>0</v>
       </c>
       <c r="P147" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q147" s="1"/>
       <c r="R147" s="1"/>
@@ -6456,7 +6473,7 @@
         <v>0</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
@@ -6474,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="P148" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q148" s="1"/>
       <c r="R148" s="1"/>
@@ -6491,7 +6508,7 @@
         <v>0</v>
       </c>
       <c r="E149" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M149" s="1">
         <f t="shared" si="33"/>
@@ -6506,7 +6523,7 @@
         <v>0</v>
       </c>
       <c r="P149" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q149" s="1"/>
       <c r="R149" s="1"/>
@@ -6523,7 +6540,7 @@
         <v>1</v>
       </c>
       <c r="E150" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M150" s="1">
         <f t="shared" si="33"/>
@@ -6538,7 +6555,7 @@
         <v>1</v>
       </c>
       <c r="P150" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q150" s="1"/>
       <c r="R150" s="1"/>
@@ -6555,7 +6572,7 @@
         <v>1</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
@@ -6573,7 +6590,7 @@
         <v>1</v>
       </c>
       <c r="P151" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q151" s="1"/>
       <c r="R151" s="1"/>
@@ -6590,7 +6607,7 @@
         <v>1</v>
       </c>
       <c r="E152" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M152" s="1">
         <f t="shared" si="33"/>
@@ -6605,7 +6622,7 @@
         <v>1</v>
       </c>
       <c r="P152" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q152" s="1"/>
       <c r="R152" s="1"/>
@@ -6622,7 +6639,7 @@
         <v>1</v>
       </c>
       <c r="E153" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M153" s="1">
         <f t="shared" si="33"/>
@@ -6637,7 +6654,7 @@
         <v>1</v>
       </c>
       <c r="P153" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q153" s="1"/>
       <c r="R153" s="1"/>
@@ -6654,7 +6671,7 @@
         <v>2</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
@@ -6672,7 +6689,7 @@
         <v>2</v>
       </c>
       <c r="P154" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q154" s="1"/>
       <c r="R154" s="1"/>
@@ -6689,7 +6706,7 @@
         <v>2</v>
       </c>
       <c r="E155" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M155" s="1">
         <f t="shared" si="33"/>
@@ -6704,7 +6721,7 @@
         <v>2</v>
       </c>
       <c r="P155" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q155" s="1"/>
       <c r="R155" s="1"/>
@@ -6721,7 +6738,7 @@
         <v>2</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
@@ -6739,7 +6756,7 @@
         <v>2</v>
       </c>
       <c r="P156" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q156" s="1"/>
       <c r="R156" s="1"/>
@@ -6751,20 +6768,20 @@
         <v>13</v>
       </c>
       <c r="B158" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C158" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L158">
         <f>L145+1</f>
         <v>13</v>
       </c>
       <c r="M158" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="N158" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="159" spans="2:15">
@@ -6798,7 +6815,7 @@
         <v>0</v>
       </c>
       <c r="E160" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M160" s="1">
         <f t="shared" ref="M160:M169" si="36">B160</f>
@@ -6813,7 +6830,7 @@
         <v>0</v>
       </c>
       <c r="P160" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q160" s="1"/>
       <c r="R160" s="1"/>
@@ -6830,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="E161" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M161" s="1">
         <f t="shared" si="36"/>
@@ -6845,7 +6862,7 @@
         <v>0</v>
       </c>
       <c r="P161" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q161" s="1"/>
       <c r="R161" s="1"/>
@@ -6862,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
@@ -6880,7 +6897,7 @@
         <v>0</v>
       </c>
       <c r="P162" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q162" s="1"/>
       <c r="R162" s="1"/>
@@ -6897,7 +6914,7 @@
         <v>1</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M163" s="1">
         <f t="shared" si="36"/>
@@ -6912,7 +6929,7 @@
         <v>1</v>
       </c>
       <c r="P163" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q163" s="1"/>
       <c r="R163" s="1"/>
@@ -6929,7 +6946,7 @@
         <v>1</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
@@ -6947,7 +6964,7 @@
         <v>1</v>
       </c>
       <c r="P164" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q164" s="1"/>
       <c r="R164" s="1"/>
@@ -6964,7 +6981,7 @@
         <v>1</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
@@ -6982,7 +6999,7 @@
         <v>1</v>
       </c>
       <c r="P165" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q165" s="1"/>
       <c r="R165" s="1"/>
@@ -6999,7 +7016,7 @@
         <v>1</v>
       </c>
       <c r="E166" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="M166" s="1">
         <f t="shared" si="36"/>
@@ -7014,7 +7031,7 @@
         <v>1</v>
       </c>
       <c r="P166" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q166" s="1"/>
       <c r="R166" s="1"/>
@@ -7031,7 +7048,7 @@
         <v>2</v>
       </c>
       <c r="E167" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M167" s="1">
         <f t="shared" si="36"/>
@@ -7046,7 +7063,7 @@
         <v>2</v>
       </c>
       <c r="P167" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q167" s="1"/>
       <c r="R167" s="1"/>
@@ -7063,7 +7080,7 @@
         <v>2</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
@@ -7081,7 +7098,7 @@
         <v>2</v>
       </c>
       <c r="P168" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q168" s="1"/>
       <c r="R168" s="1"/>
@@ -7098,7 +7115,7 @@
         <v>2</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
@@ -7116,7 +7133,7 @@
         <v>2</v>
       </c>
       <c r="P169" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q169" s="1"/>
       <c r="R169" s="1"/>
@@ -7128,20 +7145,20 @@
         <v>14</v>
       </c>
       <c r="B171" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C171" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L171">
         <f>L158+1</f>
         <v>14</v>
       </c>
       <c r="M171" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="N171" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="172" spans="2:15">
@@ -7175,7 +7192,7 @@
         <v>0</v>
       </c>
       <c r="E173" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M173" s="1">
         <f t="shared" ref="M173:M182" si="39">B173</f>
@@ -7190,7 +7207,7 @@
         <v>0</v>
       </c>
       <c r="P173" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q173" s="1"/>
       <c r="R173" s="1"/>
@@ -7207,7 +7224,7 @@
         <v>0</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
@@ -7225,7 +7242,7 @@
         <v>0</v>
       </c>
       <c r="P174" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q174" s="1"/>
       <c r="R174" s="1"/>
@@ -7242,7 +7259,7 @@
         <v>0</v>
       </c>
       <c r="E175" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="M175" s="1">
         <f t="shared" si="39"/>
@@ -7257,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="P175" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q175" s="1"/>
       <c r="R175" s="1"/>
@@ -7274,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="E176" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M176" s="1">
         <f t="shared" si="39"/>
@@ -7289,7 +7306,7 @@
         <v>1</v>
       </c>
       <c r="P176" s="1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q176" s="1"/>
       <c r="R176" s="1"/>
@@ -7306,7 +7323,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M177" s="1">
         <f t="shared" si="39"/>
@@ -7321,7 +7338,7 @@
         <v>1</v>
       </c>
       <c r="P177" s="1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q177" s="1"/>
       <c r="R177" s="1"/>
@@ -7338,7 +7355,7 @@
         <v>1</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
@@ -7356,7 +7373,7 @@
         <v>1</v>
       </c>
       <c r="P178" s="1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q178" s="1"/>
       <c r="R178" s="1"/>
@@ -7373,7 +7390,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="M179" s="1">
         <f t="shared" si="39"/>
@@ -7388,7 +7405,7 @@
         <v>1</v>
       </c>
       <c r="P179" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q179" s="1"/>
       <c r="R179" s="1"/>
@@ -7405,7 +7422,7 @@
         <v>2</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
@@ -7423,7 +7440,7 @@
         <v>2</v>
       </c>
       <c r="P180" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q180" s="1"/>
       <c r="R180" s="1"/>
@@ -7440,7 +7457,7 @@
         <v>2</v>
       </c>
       <c r="E181" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M181" s="1">
         <f t="shared" si="39"/>
@@ -7455,7 +7472,7 @@
         <v>2</v>
       </c>
       <c r="P181" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q181" s="1"/>
       <c r="R181" s="1"/>
@@ -7472,7 +7489,7 @@
         <v>2</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
@@ -7490,7 +7507,7 @@
         <v>2</v>
       </c>
       <c r="P182" s="1" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q182" s="1"/>
       <c r="R182" s="1"/>
@@ -7502,20 +7519,20 @@
         <v>15</v>
       </c>
       <c r="B184" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C184" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="L184">
         <f>L171+1</f>
         <v>15</v>
       </c>
       <c r="M184" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="N184" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="185" spans="2:15">
@@ -7549,7 +7566,7 @@
         <v>0</v>
       </c>
       <c r="E186" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="M186" s="1">
         <f t="shared" ref="M186:M195" si="42">B186</f>
@@ -7564,7 +7581,7 @@
         <v>0</v>
       </c>
       <c r="P186" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q186" s="1"/>
       <c r="R186" s="1"/>
@@ -7581,7 +7598,7 @@
         <v>0</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
@@ -7599,7 +7616,7 @@
         <v>0</v>
       </c>
       <c r="P187" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q187" s="1"/>
       <c r="R187" s="1"/>
@@ -7616,7 +7633,7 @@
         <v>1</v>
       </c>
       <c r="E188" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="M188" s="1">
         <f t="shared" si="42"/>
@@ -7631,7 +7648,7 @@
         <v>1</v>
       </c>
       <c r="P188" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q188" s="1"/>
       <c r="R188" s="1"/>
@@ -7648,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="M189" s="1">
         <f t="shared" si="42"/>
@@ -7663,7 +7680,7 @@
         <v>1</v>
       </c>
       <c r="P189" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q189" s="1"/>
       <c r="R189" s="1"/>
@@ -7680,7 +7697,7 @@
         <v>1</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
@@ -7698,7 +7715,7 @@
         <v>1</v>
       </c>
       <c r="P190" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q190" s="1"/>
       <c r="R190" s="1"/>
@@ -7715,7 +7732,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="M191" s="1">
         <f t="shared" si="42"/>
@@ -7730,7 +7747,7 @@
         <v>1</v>
       </c>
       <c r="P191" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q191" s="1"/>
       <c r="R191" s="1"/>
@@ -7747,7 +7764,7 @@
         <v>2</v>
       </c>
       <c r="E192" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="M192" s="1">
         <f t="shared" si="42"/>
@@ -7762,7 +7779,7 @@
         <v>2</v>
       </c>
       <c r="P192" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q192" s="1"/>
       <c r="R192" s="1"/>
@@ -7779,7 +7796,7 @@
         <v>2</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
@@ -7797,7 +7814,7 @@
         <v>2</v>
       </c>
       <c r="P193" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q193" s="1"/>
       <c r="R193" s="1"/>
@@ -7814,7 +7831,7 @@
         <v>2</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
@@ -7832,7 +7849,7 @@
         <v>2</v>
       </c>
       <c r="P194" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q194" s="1"/>
       <c r="R194" s="1"/>
@@ -7849,7 +7866,7 @@
         <v>3</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
@@ -7867,7 +7884,7 @@
         <v>3</v>
       </c>
       <c r="P195" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q195" s="1"/>
       <c r="R195" s="1"/>
@@ -7893,10 +7910,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/design/cardgame.xlsx
+++ b/design/cardgame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20685" windowHeight="8400" activeTab="1"/>
+    <workbookView windowWidth="20685" windowHeight="8400"/>
   </bookViews>
   <sheets>
     <sheet name="基础规则" sheetId="1" r:id="rId1"/>
@@ -54,10 +54,10 @@
     <t>双方在所有英雄中轮流选择1个英雄出现在本局游戏中，直至选出10位不同的出场英雄，然后双方在10个英雄中随机抽取两个英雄选择1个作为首发英雄，在选英雄时先选的一方后抽取英雄</t>
   </si>
   <si>
-    <t>把场上的英雄行动卡和2套通用卡，42张洗牌，双方回合开始每人发9张牌</t>
-  </si>
-  <si>
-    <t>第一回合双方使用hp暗拍先手牌权，相同的随机一方获得，获得时扣除对应hp</t>
+    <t>把场上的英雄行动卡和2套通用卡，42张洗牌，双方轮开始每人发9张牌</t>
+  </si>
+  <si>
+    <t>第一轮双方使用hp暗拍先手牌权，相同的随机一方获得，获得时扣除对应hp</t>
   </si>
   <si>
     <t>按照类似斗地主规则出牌，1点最小，10点最大，对手出某一牌型，需要拿同样牌型中更大的应对，或者用炸弹压制，使用炸弹一次后，使用过炸弹一方炸弹需要的牌数+1，到达牌堆可能上限数量则不再增加，初始炸弹为4张同样点数的牌，炸弹可以按规则造成伤害并获得牌权，对手可以按照炸弹的牌数超过点数抵抗炸弹，也可以使用炸弹对抗</t>
@@ -75,16 +75,16 @@
     <t>对手要不起牌时，按牌型的牌数对对手造成伤害，每张牌造成10点伤害，顺子造成连续伤害，对子，3张等造成1次伤害，例如5张顺造成5次10点伤害，3个两连对造成3次20点伤害</t>
   </si>
   <si>
-    <t>一方没有手牌牌则本回合立即结束，此次如果是出牌则为终结牌，直接产生伤害，并且下回合获得先手，并且此次出牌无法对抗，未出完牌的一方默认弃掉所有手牌，所有弃掉和打出的牌放在弃牌堆，在牌堆用完时，切洗弃牌堆继续发牌</t>
-  </si>
-  <si>
-    <t>每回合结束增加5召唤点数，弃掉的每张牌也会增加1点此点数，到达一定值会在回合后让双方再次抽取额外的英雄，同样是抽取2个选1个，下回合后手则先抽取英雄</t>
+    <t>一方没有手牌牌则本轮立即结束，此次如果是出牌则为终结牌，直接产生伤害，并且下轮获得先手，并且此次出牌无法对抗，未出完牌的一方默认弃掉所有手牌，所有弃掉和打出的牌放在弃牌堆，在牌堆用完时，切洗弃牌堆继续发牌</t>
+  </si>
+  <si>
+    <t>每轮结束增加5召唤点数，弃掉的每张牌也会增加1点此点数，到达一定值会在轮后让双方再次抽取额外的英雄，同样是抽取2个选1个，下轮后手则先抽取英雄</t>
   </si>
   <si>
     <t>第一次召唤10点，第二次25点，第三次50点，第四次100点。算上初始英雄，双方最多各拥有5个英雄</t>
   </si>
   <si>
-    <t>双方获得新英雄时，每回合开始获得手牌数+3，并且新英雄的行动牌均加入牌堆切洗</t>
+    <t>双方获得新英雄时，每轮开始获得手牌数+3，并且新英雄的行动牌均加入牌堆切洗</t>
   </si>
   <si>
     <t>英雄规则</t>
@@ -129,7 +129,7 @@
     <t>对手持有时</t>
   </si>
   <si>
-    <t>任意一方出牌时，特别有回合终结出牌时，产生伤害时</t>
+    <t>任意一方出牌时，特别有轮终结出牌时，产生伤害时</t>
   </si>
   <si>
     <t>己方出牌时，特别有终结出牌时，产生伤害时</t>
@@ -806,10 +806,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -827,6 +827,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -834,9 +857,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -858,6 +880,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -873,8 +903,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -882,52 +913,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -948,19 +933,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -979,7 +979,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,49 +1075,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,19 +1123,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,78 +1163,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1173,12 +1173,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1193,11 +1206,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1217,36 +1251,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1256,17 +1260,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1278,10 +1278,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1290,31 +1290,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1323,100 +1326,97 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1783,8 +1783,8 @@
   <sheetPr/>
   <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2221,7 +2221,7 @@
   <sheetPr/>
   <dimension ref="A1:S195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A100" workbookViewId="0">
       <selection activeCell="P139" sqref="P139"/>
     </sheetView>
   </sheetViews>
